--- a/python/table.xlsx
+++ b/python/table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -1470,8 +1470,8 @@
   </sheetPr>
   <dimension ref="A1:DD328"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/python/table.xlsx
+++ b/python/table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -1470,8 +1470,8 @@
   </sheetPr>
   <dimension ref="A1:DD328"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114:E114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/python/table.xlsx
+++ b/python/table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="211">
   <si>
     <t xml:space="preserve">УТВЕРЖДАЮ</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Дневная форма получения образования</t>
   </si>
   <si>
-    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (12.09.2022 - 17.09.2022)</t>
+    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (19.09.2022 - 24.09.2022)</t>
   </si>
   <si>
     <t xml:space="preserve">№</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">12 Сентября 2022</t>
+    <t xml:space="preserve">19 Сентября 2022</t>
   </si>
   <si>
     <t xml:space="preserve">1     (08.00-09.25)</t>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">Физическая культура (пз)</t>
   </si>
   <si>
-    <t xml:space="preserve">Шатуха И.Г. (ст.пр.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2     (09.35-11.00)</t>
   </si>
   <si>
@@ -196,436 +193,433 @@
     <t xml:space="preserve">Иванова Ж.В. (доц.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Сергеенко С.В. (ст.пр.)</t>
+    <t xml:space="preserve">Ермоченко С.А. (доц.)*</t>
   </si>
   <si>
     <t xml:space="preserve">Трубников Ю.В. (проф.)</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд. 534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 412</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 526</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд. 307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3     (11.30-12.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра и аналитическая геометрия (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы алгоритмизации и программирования (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмизация и программирование (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математический анализ (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кажекина Л.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Балло Ю.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкатуло Н.М. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Л.В. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корчевская Е.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернявский М.М. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4     (13.05-14.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы компьютерной графики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в анализ (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов В.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 413а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5     (14.40-16.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гончарова С.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6     (16.35-18.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7     (18.10-19.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8     (19.45-21.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вторник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Сентября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мехович А.П. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">История белорусской государственности (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы программной инженерии (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасность жизнедеятельности человека (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пархимович Н.Н. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ермоченко С.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дударев А.Н. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы информатики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чиркина А.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 200е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 612а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика и мультимедиа (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы программной инженерии (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Механика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исаченко А.С. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 333</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 113</t>
   </si>
   <si>
+    <t xml:space="preserve">Методы обработки результатов измерений (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Сентября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы компьютерной графики (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы психологии и педагогики (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы и методологии программирования (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенова Н.С. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы психологии и педагогики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Четверг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Сентября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы конструирования программ (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в специальность (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в высшую математику (лк)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 142</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3     (11.30-12.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейная алгебра и аналитическая геометрия (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в анализ (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы алгоритмизации и программирования (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритмизация и программирование (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Математический анализ (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кажекина Л.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Балло Ю.А. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкатуло Н.М. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванова Л.В. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корчевская Е.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чернявский М.М. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4     (13.05-14.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы компьютерной графики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в анализ (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов В.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 517</t>
+    <t xml:space="preserve">ауд. 627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы конструирования программ (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в специальность (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная физика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы высшей алгебры (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архитектура вычислительных систем (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Давлятова Е.В. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы высшей алгебры (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Механика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пятница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Сентября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технологии разработки программного обеспечения (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 134</t>
   </si>
   <si>
     <t xml:space="preserve">ауд. 533</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5     (14.40-16.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6     (16.35-18.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7     (18.10-19.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8     (19.45-21.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вторник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейная алгебра (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мехович А.П. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">История белорусской государственности (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы программной инженерии (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Безопасность жизнедеятельности человека (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пархимович Н.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ермоченко С.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дударев А.Н. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Программирование в визуализированных средах (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шедько В.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 200е</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика и мультимедиа (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы программной инженерии (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная физика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исаченко А.С. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы компьютерной графики (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы психологии и педагогики (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы и методологии программирования (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Математическая логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикладная информатика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прохожий С.А. (доц.)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семенова Н.С. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чиркина А.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы психологии и педагогики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 141б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Четверг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы конструирования программ (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в специальность (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономическая теория (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в высшую математику (лк)(фак-в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы конструирования программ (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в специальность (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономическая теория (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы высшей алгебры (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архитектура вычислительных систем (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Давлятова Е.В. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 509a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы высшей алгебры (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикладная информатика (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Методы обработки результатов измерений (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончарова С.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пятница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орг. собр.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аутовый зал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технологии разработки программного обеспечения (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 615</t>
+    <t xml:space="preserve">ауд. 326</t>
   </si>
   <si>
     <t xml:space="preserve">Основы информатики (лаб)</t>
@@ -634,10 +628,7 @@
     <t xml:space="preserve">Компьютерная графика (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 413</t>
+    <t xml:space="preserve">ауд. 605</t>
   </si>
   <si>
     <t xml:space="preserve">Технологии разработки программного обеспечения (лаб)</t>
@@ -646,13 +637,19 @@
     <t xml:space="preserve">Программирование в визуализированных средах (лаб)</t>
   </si>
   <si>
+    <t xml:space="preserve">Белорусский язык (профессиональная лексика) (пз)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Безопасность жизнедеятельности человека (пз)</t>
   </si>
   <si>
-    <t xml:space="preserve">Суббота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 Сентября 2022</t>
+    <t xml:space="preserve">Зайцева Е.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Орлова Н.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 612</t>
   </si>
   <si>
     <t xml:space="preserve">Декан факультета математики и информационных технологий _________________ Е.Н. Залесская</t>
@@ -735,16 +732,16 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="0"/>
     </font>
     <font>
@@ -774,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -874,16 +871,37 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thick"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thick"/>
-      <top style="thick"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -917,23 +935,23 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thick"/>
-      <right style="thick"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thick"/>
-      <top style="thin"/>
+      <left style="thick"/>
+      <right style="thin"/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1062,13 +1080,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1095,7 +1106,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1200,47 +1211,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,15 +1235,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1284,43 +1283,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1328,43 +1339,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1427,13 +1442,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1008000</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1447,7 +1462,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7326000" y="36727920"/>
+          <a:off x="7326000" y="31424400"/>
           <a:ext cx="1008000" cy="703440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,10 +1483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DD328"/>
+  <dimension ref="A1:DD304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q87" activeCellId="0" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2629,14 +2644,10 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="25" t="s">
-        <v>43</v>
-      </c>
+      <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
-      <c r="R16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="26"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2731,24 +2742,22 @@
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2843,22 +2852,22 @@
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2952,43 +2961,43 @@
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="33" t="s">
+      <c r="M19" s="28"/>
+      <c r="N19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33" t="s">
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="34"/>
+      <c r="S19" s="29"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -3082,39 +3091,39 @@
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="35" t="s">
+      <c r="K20" s="31"/>
+      <c r="L20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="28" t="s">
+      <c r="M20" s="30"/>
+      <c r="N20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28" t="s">
+      <c r="Q20" s="30"/>
+      <c r="R20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="32"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3208,41 +3217,41 @@
     <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36" t="s">
+      <c r="K21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="L21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36" t="s">
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="S21" s="37"/>
+      <c r="S21" s="34"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3336,47 +3345,47 @@
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33" t="s">
+      <c r="I22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="O22" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33" t="s">
+      <c r="P22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" s="33" t="s">
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S22" s="34"/>
+      <c r="S22" s="29"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -3470,45 +3479,45 @@
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="35" t="s">
+      <c r="O23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="35" t="s">
+      <c r="P23" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="28" t="s">
+      <c r="Q23" s="30"/>
+      <c r="R23" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" s="29"/>
+      <c r="S23" s="32"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -3602,45 +3611,45 @@
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="36" t="s">
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="L24" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="S24" s="37"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -3734,47 +3743,47 @@
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="33" t="s">
+      <c r="M25" s="28"/>
+      <c r="N25" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33" t="s">
+      <c r="Q25" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="S25" s="34"/>
+      <c r="S25" s="29"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -3868,43 +3877,43 @@
     <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="35" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="J26" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="S26" s="29"/>
+      <c r="R26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="32"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -3998,45 +4007,45 @@
     <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="36" t="s">
+      <c r="I27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36" t="s">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="S27" s="37"/>
+      <c r="S27" s="34"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -4130,35 +4139,31 @@
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
+      <c r="D28" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -4252,25 +4257,29 @@
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -4364,24 +4373,24 @@
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="36" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="37" t="s">
+        <v>99</v>
+      </c>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
@@ -4480,8 +4489,8 @@
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="32" t="s">
-        <v>102</v>
+      <c r="C31" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
@@ -4592,7 +4601,7 @@
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="32"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
       <c r="F32" s="41"/>
@@ -4702,7 +4711,7 @@
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="32"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
       <c r="F33" s="44"/>
@@ -4812,8 +4821,8 @@
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="32" t="s">
-        <v>103</v>
+      <c r="C34" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
@@ -4924,7 +4933,7 @@
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="32"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
       <c r="F35" s="41"/>
@@ -5034,7 +5043,7 @@
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="32"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
       <c r="F36" s="44"/>
@@ -5144,8 +5153,8 @@
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="32" t="s">
-        <v>104</v>
+      <c r="C37" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
@@ -5256,7 +5265,7 @@
     <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="32"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="41"/>
       <c r="E38" s="42"/>
       <c r="F38" s="41"/>
@@ -5366,7 +5375,7 @@
     <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="32"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="44"/>
       <c r="E39" s="45"/>
       <c r="F39" s="44"/>
@@ -5805,10 +5814,10 @@
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>42</v>
@@ -6142,41 +6151,41 @@
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="33" t="s">
+      <c r="C46" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33" t="s">
+      <c r="G46" s="28"/>
+      <c r="H46" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M46" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="N46" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="S46" s="34"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="S46" s="29"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -6270,37 +6279,37 @@
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="M47" s="35"/>
-      <c r="N47" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="S47" s="29"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" s="31"/>
+      <c r="N47" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S47" s="32"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -6394,39 +6403,39 @@
     <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36" t="s">
+      <c r="G48" s="33"/>
+      <c r="H48" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M48" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="N48" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="S48" s="37"/>
+      <c r="N48" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="S48" s="34"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -6520,35 +6529,35 @@
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="33" t="s">
+      <c r="C49" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33" t="s">
+      <c r="O49" s="28"/>
+      <c r="P49" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33" t="s">
+      <c r="Q49" s="28"/>
+      <c r="R49" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="S49" s="34"/>
+      <c r="S49" s="29"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -6642,33 +6651,33 @@
     <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="S50" s="29"/>
+      <c r="S50" s="32"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -6762,33 +6771,33 @@
     <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="S51" s="37"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S51" s="34"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -6882,37 +6891,37 @@
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
+      <c r="C52" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -7006,33 +7015,33 @@
     <row r="53" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="28"/>
-      <c r="L53" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="30"/>
+      <c r="L53" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -7126,35 +7135,35 @@
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="36" t="s">
+      <c r="C54" s="27"/>
+      <c r="D54" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K54" s="36"/>
-      <c r="L54" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
+      <c r="F54" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -7248,41 +7257,41 @@
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="27" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33" t="s">
+      <c r="M55" s="28"/>
+      <c r="N55" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="O55" s="33" t="s">
-        <v>129</v>
+      <c r="O55" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="P55" s="38"/>
       <c r="Q55" s="39"/>
-      <c r="R55" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="S55" s="34"/>
+      <c r="R55" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="S55" s="29"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -7376,37 +7385,37 @@
     <row r="56" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="32"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="41"/>
       <c r="E56" s="42"/>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="58"/>
+      <c r="H56" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="31"/>
+      <c r="J56" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28" t="s">
+      <c r="M56" s="30"/>
+      <c r="N56" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O56" s="31" t="s">
         <v>132</v>
-      </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="O56" s="35" t="s">
-        <v>133</v>
       </c>
       <c r="P56" s="41"/>
       <c r="Q56" s="42"/>
-      <c r="R56" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="S56" s="29"/>
+      <c r="R56" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="S56" s="32"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -7500,39 +7509,39 @@
     <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="32"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="44"/>
       <c r="E57" s="45"/>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="59"/>
+      <c r="H57" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="J57" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36" t="s">
+      <c r="O57" s="33" t="s">
         <v>136</v>
-      </c>
-      <c r="O57" s="36" t="s">
-        <v>137</v>
       </c>
       <c r="P57" s="44"/>
       <c r="Q57" s="45"/>
-      <c r="R57" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="S57" s="37"/>
+      <c r="R57" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="S57" s="34"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -7626,8 +7635,8 @@
     <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="32" t="s">
-        <v>102</v>
+      <c r="C58" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
@@ -7643,8 +7652,10 @@
       <c r="O58" s="39"/>
       <c r="P58" s="38"/>
       <c r="Q58" s="39"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="40"/>
+      <c r="R58" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="S58" s="29"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -7738,7 +7749,7 @@
     <row r="59" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="32"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
       <c r="F59" s="41"/>
@@ -7753,8 +7764,10 @@
       <c r="O59" s="42"/>
       <c r="P59" s="41"/>
       <c r="Q59" s="42"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="43"/>
+      <c r="R59" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="S59" s="32"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -7848,7 +7861,7 @@
     <row r="60" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="32"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="44"/>
       <c r="E60" s="45"/>
       <c r="F60" s="44"/>
@@ -7863,8 +7876,10 @@
       <c r="O60" s="45"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="45"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="46"/>
+      <c r="R60" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="S60" s="34"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -7958,8 +7973,8 @@
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="32" t="s">
-        <v>103</v>
+      <c r="C61" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
@@ -8070,7 +8085,7 @@
     <row r="62" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="32"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="41"/>
       <c r="E62" s="42"/>
       <c r="F62" s="41"/>
@@ -8180,7 +8195,7 @@
     <row r="63" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="32"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="44"/>
       <c r="E63" s="45"/>
       <c r="F63" s="44"/>
@@ -8290,8 +8305,8 @@
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="32" t="s">
-        <v>104</v>
+      <c r="C64" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
@@ -8402,7 +8417,7 @@
     <row r="65" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="32"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="41"/>
       <c r="E65" s="42"/>
       <c r="F65" s="41"/>
@@ -8512,7 +8527,7 @@
     <row r="66" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="32"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="44"/>
       <c r="E66" s="45"/>
       <c r="F66" s="44"/>
@@ -8951,10 +8966,10 @@
     </row>
     <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>42</v>
@@ -9288,42 +9303,42 @@
     <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33" t="s">
+      <c r="C73" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33" t="s">
+      <c r="E73" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S73" s="34" t="s">
-        <v>72</v>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="S73" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -9418,40 +9433,40 @@
     <row r="74" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="35" t="s">
+      <c r="C74" s="27"/>
+      <c r="D74" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28" t="s">
+      <c r="O74" s="30"/>
+      <c r="P74" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S74" s="60" t="s">
         <v>92</v>
-      </c>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="S74" s="60" t="s">
-        <v>93</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -9546,40 +9561,40 @@
     <row r="75" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36" t="s">
+      <c r="C75" s="27"/>
+      <c r="D75" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S75" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="S75" s="37" t="s">
-        <v>64</v>
       </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -9674,41 +9689,41 @@
     <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="O76" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="P76" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q76" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="R76" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="S76" s="34"/>
+      <c r="C76" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q76" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="R76" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="S76" s="29"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -9802,37 +9817,39 @@
     <row r="77" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="35" t="s">
+      <c r="C77" s="27"/>
+      <c r="D77" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O77" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="R77" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="S77" s="29"/>
+      <c r="P77" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R77" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S77" s="32"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -9926,39 +9943,39 @@
     <row r="78" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="O78" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="P78" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q78" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="R78" s="37" t="s">
+      <c r="C78" s="27"/>
+      <c r="D78" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O78" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="P78" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q78" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S78" s="37"/>
+      <c r="R78" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="S78" s="34"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -10052,47 +10069,47 @@
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33" t="s">
+      <c r="C79" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K79" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="L79" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="O79" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="P79" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q79" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="R79" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="S79" s="34"/>
+      <c r="O79" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q79" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="R79" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="S79" s="29"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -10186,41 +10203,43 @@
     <row r="80" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="28" t="s">
+      <c r="C80" s="27"/>
+      <c r="D80" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80" s="30"/>
+      <c r="J80" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="35" t="s">
+      <c r="K80" s="31"/>
+      <c r="L80" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K80" s="35"/>
-      <c r="L80" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M80" s="28"/>
-      <c r="N80" s="35" t="s">
+      <c r="M80" s="30"/>
+      <c r="N80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O80" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="R80" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="S80" s="29"/>
+      <c r="P80" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R80" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S80" s="32"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -10314,45 +10333,45 @@
     <row r="81" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36" t="s">
+      <c r="C81" s="27"/>
+      <c r="D81" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K81" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L81" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O81" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="K81" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="L81" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="O81" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="P81" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q81" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="R81" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="S81" s="37"/>
+      <c r="P81" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q81" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="R81" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="S81" s="34"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -10446,7 +10465,7 @@
     <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="27" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="61" t="s">
@@ -10560,23 +10579,23 @@
     <row r="83" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="62"/>
-      <c r="S83" s="62"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
@@ -10670,23 +10689,23 @@
     <row r="84" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="31"/>
-      <c r="S84" s="31"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="63"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -10780,8 +10799,8 @@
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="32" t="s">
-        <v>102</v>
+      <c r="C85" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="D85" s="38"/>
       <c r="E85" s="39"/>
@@ -10892,7 +10911,7 @@
     <row r="86" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="32"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="41"/>
       <c r="E86" s="42"/>
       <c r="F86" s="41"/>
@@ -11002,7 +11021,7 @@
     <row r="87" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="32"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="44"/>
       <c r="E87" s="45"/>
       <c r="F87" s="44"/>
@@ -11112,8 +11131,8 @@
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="32" t="s">
-        <v>103</v>
+      <c r="C88" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D88" s="38"/>
       <c r="E88" s="39"/>
@@ -11224,7 +11243,7 @@
     <row r="89" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="32"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="41"/>
       <c r="E89" s="42"/>
       <c r="F89" s="41"/>
@@ -11334,7 +11353,7 @@
     <row r="90" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="32"/>
+      <c r="C90" s="27"/>
       <c r="D90" s="44"/>
       <c r="E90" s="45"/>
       <c r="F90" s="44"/>
@@ -11444,8 +11463,8 @@
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="32" t="s">
-        <v>104</v>
+      <c r="C91" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="39"/>
@@ -11556,7 +11575,7 @@
     <row r="92" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="32"/>
+      <c r="C92" s="27"/>
       <c r="D92" s="41"/>
       <c r="E92" s="42"/>
       <c r="F92" s="41"/>
@@ -11666,7 +11685,7 @@
     <row r="93" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
-      <c r="C93" s="32"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="44"/>
       <c r="E93" s="45"/>
       <c r="F93" s="44"/>
@@ -12105,10 +12124,10 @@
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>42</v>
@@ -12442,41 +12461,41 @@
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
-      <c r="C100" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M100" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="N100" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="34" t="s">
+      <c r="C100" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="S100" s="34"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M100" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N100" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="S100" s="29"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
@@ -12570,37 +12589,37 @@
     <row r="101" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28" t="s">
+      <c r="C101" s="27"/>
+      <c r="D101" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="M101" s="35"/>
-      <c r="N101" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="S101" s="29"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="S101" s="32"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
@@ -12694,39 +12713,39 @@
     <row r="102" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36" t="s">
+      <c r="M102" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M102" s="36" t="s">
+      <c r="N102" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N102" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="S102" s="37"/>
+      <c r="S102" s="34"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
@@ -12820,45 +12839,45 @@
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
-      <c r="C103" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H103" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J103" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33" t="s">
+      <c r="C103" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="S103" s="34"/>
+      <c r="E103" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O103" s="28"/>
+      <c r="P103" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q103" s="28"/>
+      <c r="R103" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="S103" s="29"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
@@ -12952,43 +12971,43 @@
     <row r="104" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G104" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="35" t="s">
+      <c r="C104" s="27"/>
+      <c r="D104" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J104" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I104" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="J104" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q104" s="28"/>
-      <c r="R104" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="S104" s="29"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q104" s="30"/>
+      <c r="R104" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="S104" s="32"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
@@ -13082,43 +13101,43 @@
     <row r="105" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="36" t="s">
+      <c r="C105" s="27"/>
+      <c r="D105" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F105" s="36" t="s">
+      <c r="F105" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I105" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J105" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G105" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H105" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="I105" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="J105" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="S105" s="37"/>
+      <c r="S105" s="34"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
@@ -13212,45 +13231,45 @@
     <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
-      <c r="C106" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G106" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H106" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="M106" s="33"/>
-      <c r="N106" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="O106" s="33"/>
-      <c r="P106" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q106" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="R106" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="S106" s="34"/>
+      <c r="C106" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q106" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="R106" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="S106" s="29"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
@@ -13344,43 +13363,43 @@
     <row r="107" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E107" s="28"/>
-      <c r="F107" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O107" s="28"/>
-      <c r="P107" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q107" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="R107" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="S107" s="29"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O107" s="30"/>
+      <c r="P107" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q107" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R107" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="S107" s="32"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
@@ -13474,43 +13493,43 @@
     <row r="108" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="36" t="s">
+      <c r="C108" s="27"/>
+      <c r="D108" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G108" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H108" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q108" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R108" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="S108" s="37"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q108" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="R108" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="S108" s="34"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
@@ -13604,43 +13623,43 @@
     <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="27" t="s">
         <v>97</v>
       </c>
       <c r="D109" s="38"/>
       <c r="E109" s="39"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J109" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="O109" s="33"/>
-      <c r="P109" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q109" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="R109" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="S109" s="34"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J109" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="M109" s="28"/>
+      <c r="N109" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O109" s="28"/>
+      <c r="P109" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q109" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="R109" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="S109" s="29"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
@@ -13734,39 +13753,39 @@
     <row r="110" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
-      <c r="C110" s="32"/>
+      <c r="C110" s="27"/>
       <c r="D110" s="41"/>
       <c r="E110" s="42"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="35" t="s">
+      <c r="F110" s="58"/>
+      <c r="G110" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" s="31"/>
+      <c r="J110" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="H110" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I110" s="35"/>
-      <c r="J110" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O110" s="28"/>
-      <c r="P110" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q110" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="R110" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="S110" s="29"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O110" s="30"/>
+      <c r="P110" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q110" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="R110" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S110" s="32"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
@@ -13860,41 +13879,41 @@
     <row r="111" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
-      <c r="C111" s="32"/>
+      <c r="C111" s="27"/>
       <c r="D111" s="44"/>
       <c r="E111" s="45"/>
       <c r="F111" s="59"/>
-      <c r="G111" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H111" s="36" t="s">
+      <c r="G111" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I111" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I111" s="36" t="s">
+      <c r="J111" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="J111" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="O111" s="36"/>
-      <c r="P111" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q111" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="R111" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="S111" s="37"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q111" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="R111" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="S111" s="34"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
@@ -13988,33 +14007,31 @@
     <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
-      <c r="C112" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I112" s="33"/>
-      <c r="J112" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="K112" s="34"/>
-      <c r="L112" s="34"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
-      <c r="Q112" s="34"/>
-      <c r="R112" s="34"/>
-      <c r="S112" s="34"/>
+      <c r="C112" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="O112" s="35"/>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
@@ -14108,29 +14125,29 @@
     <row r="113" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I113" s="28"/>
-      <c r="J113" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="K113" s="58"/>
-      <c r="L113" s="58"/>
-      <c r="M113" s="58"/>
-      <c r="N113" s="58"/>
-      <c r="O113" s="58"/>
-      <c r="P113" s="58"/>
-      <c r="Q113" s="58"/>
-      <c r="R113" s="58"/>
-      <c r="S113" s="58"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="30"/>
+      <c r="N113" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="36"/>
+      <c r="S113" s="36"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
@@ -14224,24 +14241,24 @@
     <row r="114" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E114" s="36"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="36" t="s">
+      <c r="C114" s="27"/>
+      <c r="D114" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I114" s="36"/>
-      <c r="J114" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="K114" s="37"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="37"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="37" t="s">
+        <v>99</v>
+      </c>
       <c r="O114" s="37"/>
       <c r="P114" s="37"/>
       <c r="Q114" s="37"/>
@@ -14340,8 +14357,8 @@
     <row r="115" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
-      <c r="C115" s="32" t="s">
-        <v>103</v>
+      <c r="C115" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D115" s="38"/>
       <c r="E115" s="39"/>
@@ -14452,7 +14469,7 @@
     <row r="116" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
-      <c r="C116" s="32"/>
+      <c r="C116" s="27"/>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
       <c r="F116" s="41"/>
@@ -14562,7 +14579,7 @@
     <row r="117" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
-      <c r="C117" s="32"/>
+      <c r="C117" s="27"/>
       <c r="D117" s="44"/>
       <c r="E117" s="45"/>
       <c r="F117" s="44"/>
@@ -14672,8 +14689,8 @@
     <row r="118" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
-      <c r="C118" s="32" t="s">
-        <v>104</v>
+      <c r="C118" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="39"/>
@@ -14784,7 +14801,7 @@
     <row r="119" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
-      <c r="C119" s="32"/>
+      <c r="C119" s="27"/>
       <c r="D119" s="41"/>
       <c r="E119" s="42"/>
       <c r="F119" s="41"/>
@@ -14894,7 +14911,7 @@
     <row r="120" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
-      <c r="C120" s="32"/>
+      <c r="C120" s="27"/>
       <c r="D120" s="44"/>
       <c r="E120" s="45"/>
       <c r="F120" s="44"/>
@@ -15333,32 +15350,30 @@
     </row>
     <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D124" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
-      <c r="L124" s="26"/>
-      <c r="M124" s="26"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="26"/>
-      <c r="P124" s="26"/>
-      <c r="Q124" s="26"/>
-      <c r="R124" s="26"/>
-      <c r="S124" s="26"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="55"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="55"/>
+      <c r="O124" s="56"/>
+      <c r="P124" s="55"/>
+      <c r="Q124" s="56"/>
+      <c r="R124" s="55"/>
+      <c r="S124" s="57"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
@@ -15453,22 +15468,22 @@
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="29"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="42"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="42"/>
+      <c r="R125" s="41"/>
+      <c r="S125" s="43"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
@@ -15563,24 +15578,22 @@
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="37"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="37"/>
-      <c r="R126" s="37"/>
-      <c r="S126" s="37"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="44"/>
+      <c r="K126" s="45"/>
+      <c r="L126" s="44"/>
+      <c r="M126" s="45"/>
+      <c r="N126" s="44"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="44"/>
+      <c r="Q126" s="45"/>
+      <c r="R126" s="44"/>
+      <c r="S126" s="46"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
@@ -15674,43 +15687,43 @@
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
-      <c r="C127" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D127" s="33" t="s">
+      <c r="C127" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33" t="s">
+      <c r="E127" s="28"/>
+      <c r="F127" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I127" s="33"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M127" s="33"/>
-      <c r="N127" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="O127" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="P127" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q127" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="R127" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="S127" s="34"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="O127" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P127" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q127" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="R127" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="S127" s="29"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
@@ -15804,39 +15817,39 @@
     <row r="128" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28" t="s">
+      <c r="C128" s="27"/>
+      <c r="D128" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="M128" s="28"/>
-      <c r="N128" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="O128" s="35"/>
-      <c r="P128" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q128" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="R128" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="S128" s="29"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M128" s="30"/>
+      <c r="N128" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="O128" s="31"/>
+      <c r="P128" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q128" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="R128" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="S128" s="32"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
@@ -15930,41 +15943,41 @@
     <row r="129" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="I129" s="36"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="M129" s="36"/>
-      <c r="N129" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="O129" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="P129" s="36" t="s">
+      <c r="C129" s="27"/>
+      <c r="D129" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="O129" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="P129" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q129" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="Q129" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R129" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="S129" s="37"/>
+      <c r="R129" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="S129" s="34"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
@@ -16058,43 +16071,43 @@
     <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
-      <c r="C130" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M130" s="33"/>
-      <c r="N130" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="O130" s="33"/>
-      <c r="P130" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q130" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="R130" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="S130" s="34"/>
+      <c r="C130" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M130" s="28"/>
+      <c r="N130" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O130" s="28"/>
+      <c r="P130" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q130" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="R130" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S130" s="29"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
@@ -16188,41 +16201,41 @@
     <row r="131" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="35" t="s">
+      <c r="C131" s="27"/>
+      <c r="D131" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E131" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E131" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F131" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28" t="s">
+      <c r="F131" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="M131" s="28"/>
-      <c r="N131" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O131" s="28"/>
-      <c r="P131" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q131" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="R131" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="S131" s="29"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M131" s="30"/>
+      <c r="N131" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O131" s="30"/>
+      <c r="P131" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q131" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="R131" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="S131" s="32"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
@@ -16316,41 +16329,41 @@
     <row r="132" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E132" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F132" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M132" s="36"/>
-      <c r="N132" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="O132" s="36"/>
-      <c r="P132" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q132" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="R132" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="S132" s="37"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F132" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="O132" s="33"/>
+      <c r="P132" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q132" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="R132" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="S132" s="34"/>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
@@ -16444,45 +16457,45 @@
     <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
-      <c r="C133" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G133" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H133" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K133" s="33"/>
-      <c r="L133" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M133" s="33"/>
-      <c r="N133" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="O133" s="33"/>
-      <c r="P133" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q133" s="33"/>
-      <c r="R133" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="S133" s="34"/>
+      <c r="C133" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K133" s="28"/>
+      <c r="L133" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M133" s="28"/>
+      <c r="N133" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S133" s="29"/>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
@@ -16576,41 +16589,41 @@
     <row r="134" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="35" t="s">
+      <c r="C134" s="27"/>
+      <c r="D134" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E134" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F134" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G134" s="35"/>
-      <c r="H134" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28" t="s">
+      <c r="F134" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G134" s="31"/>
+      <c r="H134" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="M134" s="28"/>
-      <c r="N134" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O134" s="28"/>
-      <c r="P134" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q134" s="28"/>
-      <c r="R134" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="S134" s="29"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M134" s="30"/>
+      <c r="N134" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O134" s="30"/>
+      <c r="P134" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="S134" s="32"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
@@ -16704,43 +16717,43 @@
     <row r="135" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E135" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F135" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="G135" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H135" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="K135" s="36"/>
-      <c r="L135" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M135" s="36"/>
-      <c r="N135" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="O135" s="36"/>
-      <c r="P135" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q135" s="36"/>
-      <c r="R135" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="S135" s="37"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H135" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="O135" s="33"/>
+      <c r="P135" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="S135" s="34"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
@@ -16834,37 +16847,37 @@
     <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
-      <c r="C136" s="32" t="s">
+      <c r="C136" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D136" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E136" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F136" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="G136" s="63" t="s">
-        <v>207</v>
+      <c r="D136" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E136" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="F136" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="G136" s="64" t="s">
+        <v>204</v>
       </c>
       <c r="H136" s="38"/>
       <c r="I136" s="39"/>
       <c r="J136" s="38"/>
       <c r="K136" s="39"/>
-      <c r="L136" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M136" s="33"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="39"/>
       <c r="N136" s="38"/>
       <c r="O136" s="39"/>
-      <c r="P136" s="38"/>
-      <c r="Q136" s="39"/>
-      <c r="R136" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="S136" s="34"/>
+      <c r="P136" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q136" s="28"/>
+      <c r="R136" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="S136" s="29"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
@@ -16958,35 +16971,35 @@
     <row r="137" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F137" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G137" s="35" t="s">
-        <v>180</v>
+      <c r="C137" s="27"/>
+      <c r="D137" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="H137" s="41"/>
       <c r="I137" s="42"/>
       <c r="J137" s="41"/>
       <c r="K137" s="42"/>
-      <c r="L137" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="M137" s="28"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="42"/>
       <c r="N137" s="41"/>
       <c r="O137" s="42"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="42"/>
-      <c r="R137" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="S137" s="29"/>
+      <c r="P137" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q137" s="30"/>
+      <c r="R137" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S137" s="32"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
@@ -17080,35 +17093,35 @@
     <row r="138" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="36" t="s">
+      <c r="C138" s="27"/>
+      <c r="D138" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E138" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F138" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G138" s="36" t="s">
-        <v>188</v>
+      <c r="F138" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G138" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="H138" s="44"/>
       <c r="I138" s="45"/>
       <c r="J138" s="44"/>
       <c r="K138" s="45"/>
-      <c r="L138" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="M138" s="36"/>
+      <c r="L138" s="44"/>
+      <c r="M138" s="45"/>
       <c r="N138" s="44"/>
       <c r="O138" s="45"/>
-      <c r="P138" s="44"/>
-      <c r="Q138" s="45"/>
-      <c r="R138" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="S138" s="37"/>
+      <c r="P138" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q138" s="33"/>
+      <c r="R138" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="S138" s="34"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
@@ -17202,8 +17215,8 @@
     <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
-      <c r="C139" s="32" t="s">
-        <v>102</v>
+      <c r="C139" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="D139" s="38"/>
       <c r="E139" s="39"/>
@@ -17314,7 +17327,7 @@
     <row r="140" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
-      <c r="C140" s="32"/>
+      <c r="C140" s="27"/>
       <c r="D140" s="41"/>
       <c r="E140" s="42"/>
       <c r="F140" s="41"/>
@@ -17424,7 +17437,7 @@
     <row r="141" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="32"/>
+      <c r="C141" s="27"/>
       <c r="D141" s="44"/>
       <c r="E141" s="45"/>
       <c r="F141" s="44"/>
@@ -17534,8 +17547,8 @@
     <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
-      <c r="C142" s="32" t="s">
-        <v>103</v>
+      <c r="C142" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="39"/>
@@ -17646,7 +17659,7 @@
     <row r="143" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
-      <c r="C143" s="32"/>
+      <c r="C143" s="27"/>
       <c r="D143" s="41"/>
       <c r="E143" s="42"/>
       <c r="F143" s="41"/>
@@ -17756,7 +17769,7 @@
     <row r="144" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
-      <c r="C144" s="32"/>
+      <c r="C144" s="27"/>
       <c r="D144" s="44"/>
       <c r="E144" s="45"/>
       <c r="F144" s="44"/>
@@ -17866,8 +17879,8 @@
     <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
-      <c r="C145" s="32" t="s">
-        <v>104</v>
+      <c r="C145" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D145" s="38"/>
       <c r="E145" s="39"/>
@@ -17978,7 +17991,7 @@
     <row r="146" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
-      <c r="C146" s="32"/>
+      <c r="C146" s="27"/>
       <c r="D146" s="41"/>
       <c r="E146" s="42"/>
       <c r="F146" s="41"/>
@@ -18088,7 +18101,7 @@
     <row r="147" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
-      <c r="C147" s="32"/>
+      <c r="C147" s="27"/>
       <c r="D147" s="44"/>
       <c r="E147" s="45"/>
       <c r="F147" s="44"/>
@@ -18525,32 +18538,26 @@
       <c r="DC150" s="2"/>
       <c r="DD150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D151" s="55"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="55"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="56"/>
-      <c r="J151" s="55"/>
-      <c r="K151" s="56"/>
-      <c r="L151" s="55"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="55"/>
-      <c r="O151" s="56"/>
-      <c r="P151" s="55"/>
-      <c r="Q151" s="56"/>
-      <c r="R151" s="55"/>
-      <c r="S151" s="57"/>
+    <row r="151" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="47"/>
+      <c r="B151" s="48"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="38"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="38"/>
+      <c r="M151" s="39"/>
+      <c r="N151" s="38"/>
+      <c r="O151" s="39"/>
+      <c r="P151" s="38"/>
+      <c r="Q151" s="39"/>
+      <c r="R151" s="38"/>
+      <c r="S151" s="40"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
@@ -18641,2718 +18648,88 @@
       <c r="DC151" s="2"/>
       <c r="DD151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="41"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="41"/>
-      <c r="K152" s="42"/>
-      <c r="L152" s="41"/>
-      <c r="M152" s="42"/>
-      <c r="N152" s="41"/>
-      <c r="O152" s="42"/>
-      <c r="P152" s="41"/>
-      <c r="Q152" s="42"/>
-      <c r="R152" s="41"/>
-      <c r="S152" s="43"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
-      <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
-      <c r="AA152" s="2"/>
-      <c r="AB152" s="2"/>
-      <c r="AC152" s="2"/>
-      <c r="AD152" s="2"/>
-      <c r="AE152" s="2"/>
-      <c r="AF152" s="2"/>
-      <c r="AG152" s="2"/>
-      <c r="AH152" s="2"/>
-      <c r="AI152" s="2"/>
-      <c r="AJ152" s="2"/>
-      <c r="AK152" s="2"/>
-      <c r="AL152" s="2"/>
-      <c r="AM152" s="2"/>
-      <c r="AN152" s="2"/>
-      <c r="AO152" s="2"/>
-      <c r="AP152" s="2"/>
-      <c r="AQ152" s="2"/>
-      <c r="AR152" s="2"/>
-      <c r="AS152" s="2"/>
-      <c r="AT152" s="2"/>
-      <c r="AU152" s="2"/>
-      <c r="AV152" s="2"/>
-      <c r="AW152" s="2"/>
-      <c r="AX152" s="2"/>
-      <c r="AY152" s="2"/>
-      <c r="AZ152" s="2"/>
-      <c r="BA152" s="2"/>
-      <c r="BB152" s="2"/>
-      <c r="BC152" s="2"/>
-      <c r="BD152" s="2"/>
-      <c r="BE152" s="2"/>
-      <c r="BF152" s="2"/>
-      <c r="BG152" s="2"/>
-      <c r="BH152" s="2"/>
-      <c r="BI152" s="2"/>
-      <c r="BJ152" s="2"/>
-      <c r="BK152" s="2"/>
-      <c r="BL152" s="2"/>
-      <c r="BM152" s="2"/>
-      <c r="BN152" s="2"/>
-      <c r="BO152" s="2"/>
-      <c r="BP152" s="2"/>
-      <c r="BQ152" s="2"/>
-      <c r="BR152" s="2"/>
-      <c r="BS152" s="2"/>
-      <c r="BT152" s="2"/>
-      <c r="BU152" s="2"/>
-      <c r="BV152" s="2"/>
-      <c r="BW152" s="2"/>
-      <c r="BX152" s="2"/>
-      <c r="BY152" s="2"/>
-      <c r="BZ152" s="2"/>
-      <c r="CA152" s="2"/>
-      <c r="CB152" s="2"/>
-      <c r="CC152" s="2"/>
-      <c r="CD152" s="2"/>
-      <c r="CE152" s="2"/>
-      <c r="CF152" s="2"/>
-      <c r="CG152" s="2"/>
-      <c r="CH152" s="2"/>
-      <c r="CI152" s="2"/>
-      <c r="CJ152" s="2"/>
-      <c r="CK152" s="2"/>
-      <c r="CL152" s="2"/>
-      <c r="CM152" s="2"/>
-      <c r="CN152" s="2"/>
-      <c r="CO152" s="2"/>
-      <c r="CP152" s="2"/>
-      <c r="CQ152" s="2"/>
-      <c r="CR152" s="2"/>
-      <c r="CS152" s="2"/>
-      <c r="CT152" s="2"/>
-      <c r="CU152" s="2"/>
-      <c r="CV152" s="2"/>
-      <c r="CW152" s="2"/>
-      <c r="CX152" s="2"/>
-      <c r="CY152" s="2"/>
-      <c r="CZ152" s="2"/>
-      <c r="DA152" s="2"/>
-      <c r="DB152" s="2"/>
-      <c r="DC152" s="2"/>
-      <c r="DD152" s="2"/>
+    <row r="152" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="47"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="66"/>
+      <c r="J152" s="65"/>
+      <c r="K152" s="66"/>
+      <c r="L152" s="65"/>
+      <c r="M152" s="66"/>
+      <c r="N152" s="65"/>
+      <c r="O152" s="66"/>
+      <c r="P152" s="65"/>
+      <c r="Q152" s="66"/>
+      <c r="R152" s="65"/>
+      <c r="S152" s="48"/>
     </row>
-    <row r="153" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="22"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="44"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="44"/>
-      <c r="O153" s="45"/>
-      <c r="P153" s="44"/>
-      <c r="Q153" s="45"/>
-      <c r="R153" s="44"/>
-      <c r="S153" s="46"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
-      <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-      <c r="Z153" s="2"/>
-      <c r="AA153" s="2"/>
-      <c r="AB153" s="2"/>
-      <c r="AC153" s="2"/>
-      <c r="AD153" s="2"/>
-      <c r="AE153" s="2"/>
-      <c r="AF153" s="2"/>
-      <c r="AG153" s="2"/>
-      <c r="AH153" s="2"/>
-      <c r="AI153" s="2"/>
-      <c r="AJ153" s="2"/>
-      <c r="AK153" s="2"/>
-      <c r="AL153" s="2"/>
-      <c r="AM153" s="2"/>
-      <c r="AN153" s="2"/>
-      <c r="AO153" s="2"/>
-      <c r="AP153" s="2"/>
-      <c r="AQ153" s="2"/>
-      <c r="AR153" s="2"/>
-      <c r="AS153" s="2"/>
-      <c r="AT153" s="2"/>
-      <c r="AU153" s="2"/>
-      <c r="AV153" s="2"/>
-      <c r="AW153" s="2"/>
-      <c r="AX153" s="2"/>
-      <c r="AY153" s="2"/>
-      <c r="AZ153" s="2"/>
-      <c r="BA153" s="2"/>
-      <c r="BB153" s="2"/>
-      <c r="BC153" s="2"/>
-      <c r="BD153" s="2"/>
-      <c r="BE153" s="2"/>
-      <c r="BF153" s="2"/>
-      <c r="BG153" s="2"/>
-      <c r="BH153" s="2"/>
-      <c r="BI153" s="2"/>
-      <c r="BJ153" s="2"/>
-      <c r="BK153" s="2"/>
-      <c r="BL153" s="2"/>
-      <c r="BM153" s="2"/>
-      <c r="BN153" s="2"/>
-      <c r="BO153" s="2"/>
-      <c r="BP153" s="2"/>
-      <c r="BQ153" s="2"/>
-      <c r="BR153" s="2"/>
-      <c r="BS153" s="2"/>
-      <c r="BT153" s="2"/>
-      <c r="BU153" s="2"/>
-      <c r="BV153" s="2"/>
-      <c r="BW153" s="2"/>
-      <c r="BX153" s="2"/>
-      <c r="BY153" s="2"/>
-      <c r="BZ153" s="2"/>
-      <c r="CA153" s="2"/>
-      <c r="CB153" s="2"/>
-      <c r="CC153" s="2"/>
-      <c r="CD153" s="2"/>
-      <c r="CE153" s="2"/>
-      <c r="CF153" s="2"/>
-      <c r="CG153" s="2"/>
-      <c r="CH153" s="2"/>
-      <c r="CI153" s="2"/>
-      <c r="CJ153" s="2"/>
-      <c r="CK153" s="2"/>
-      <c r="CL153" s="2"/>
-      <c r="CM153" s="2"/>
-      <c r="CN153" s="2"/>
-      <c r="CO153" s="2"/>
-      <c r="CP153" s="2"/>
-      <c r="CQ153" s="2"/>
-      <c r="CR153" s="2"/>
-      <c r="CS153" s="2"/>
-      <c r="CT153" s="2"/>
-      <c r="CU153" s="2"/>
-      <c r="CV153" s="2"/>
-      <c r="CW153" s="2"/>
-      <c r="CX153" s="2"/>
-      <c r="CY153" s="2"/>
-      <c r="CZ153" s="2"/>
-      <c r="DA153" s="2"/>
-      <c r="DB153" s="2"/>
-      <c r="DC153" s="2"/>
-      <c r="DD153" s="2"/>
+    <row r="153" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="50"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="49"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="67"/>
+      <c r="K153" s="68"/>
+      <c r="L153" s="67"/>
+      <c r="M153" s="68"/>
+      <c r="N153" s="67"/>
+      <c r="O153" s="68"/>
+      <c r="P153" s="67"/>
+      <c r="Q153" s="68"/>
+      <c r="R153" s="67"/>
+      <c r="S153" s="51"/>
     </row>
-    <row r="154" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="38"/>
-      <c r="I154" s="39"/>
-      <c r="J154" s="38"/>
-      <c r="K154" s="39"/>
-      <c r="L154" s="38"/>
-      <c r="M154" s="39"/>
-      <c r="N154" s="38"/>
-      <c r="O154" s="39"/>
-      <c r="P154" s="38"/>
-      <c r="Q154" s="39"/>
-      <c r="R154" s="38"/>
-      <c r="S154" s="40"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2"/>
-      <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-      <c r="Z154" s="2"/>
-      <c r="AA154" s="2"/>
-      <c r="AB154" s="2"/>
-      <c r="AC154" s="2"/>
-      <c r="AD154" s="2"/>
-      <c r="AE154" s="2"/>
-      <c r="AF154" s="2"/>
-      <c r="AG154" s="2"/>
-      <c r="AH154" s="2"/>
-      <c r="AI154" s="2"/>
-      <c r="AJ154" s="2"/>
-      <c r="AK154" s="2"/>
-      <c r="AL154" s="2"/>
-      <c r="AM154" s="2"/>
-      <c r="AN154" s="2"/>
-      <c r="AO154" s="2"/>
-      <c r="AP154" s="2"/>
-      <c r="AQ154" s="2"/>
-      <c r="AR154" s="2"/>
-      <c r="AS154" s="2"/>
-      <c r="AT154" s="2"/>
-      <c r="AU154" s="2"/>
-      <c r="AV154" s="2"/>
-      <c r="AW154" s="2"/>
-      <c r="AX154" s="2"/>
-      <c r="AY154" s="2"/>
-      <c r="AZ154" s="2"/>
-      <c r="BA154" s="2"/>
-      <c r="BB154" s="2"/>
-      <c r="BC154" s="2"/>
-      <c r="BD154" s="2"/>
-      <c r="BE154" s="2"/>
-      <c r="BF154" s="2"/>
-      <c r="BG154" s="2"/>
-      <c r="BH154" s="2"/>
-      <c r="BI154" s="2"/>
-      <c r="BJ154" s="2"/>
-      <c r="BK154" s="2"/>
-      <c r="BL154" s="2"/>
-      <c r="BM154" s="2"/>
-      <c r="BN154" s="2"/>
-      <c r="BO154" s="2"/>
-      <c r="BP154" s="2"/>
-      <c r="BQ154" s="2"/>
-      <c r="BR154" s="2"/>
-      <c r="BS154" s="2"/>
-      <c r="BT154" s="2"/>
-      <c r="BU154" s="2"/>
-      <c r="BV154" s="2"/>
-      <c r="BW154" s="2"/>
-      <c r="BX154" s="2"/>
-      <c r="BY154" s="2"/>
-      <c r="BZ154" s="2"/>
-      <c r="CA154" s="2"/>
-      <c r="CB154" s="2"/>
-      <c r="CC154" s="2"/>
-      <c r="CD154" s="2"/>
-      <c r="CE154" s="2"/>
-      <c r="CF154" s="2"/>
-      <c r="CG154" s="2"/>
-      <c r="CH154" s="2"/>
-      <c r="CI154" s="2"/>
-      <c r="CJ154" s="2"/>
-      <c r="CK154" s="2"/>
-      <c r="CL154" s="2"/>
-      <c r="CM154" s="2"/>
-      <c r="CN154" s="2"/>
-      <c r="CO154" s="2"/>
-      <c r="CP154" s="2"/>
-      <c r="CQ154" s="2"/>
-      <c r="CR154" s="2"/>
-      <c r="CS154" s="2"/>
-      <c r="CT154" s="2"/>
-      <c r="CU154" s="2"/>
-      <c r="CV154" s="2"/>
-      <c r="CW154" s="2"/>
-      <c r="CX154" s="2"/>
-      <c r="CY154" s="2"/>
-      <c r="CZ154" s="2"/>
-      <c r="DA154" s="2"/>
-      <c r="DB154" s="2"/>
-      <c r="DC154" s="2"/>
-      <c r="DD154" s="2"/>
+    <row r="154" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156" s="69"/>
+      <c r="C156" s="69"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="69"/>
+      <c r="G156" s="69"/>
+      <c r="H156" s="69"/>
+      <c r="I156" s="69"/>
+      <c r="J156" s="69"/>
     </row>
-    <row r="155" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="22"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="42"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="41"/>
-      <c r="K155" s="42"/>
-      <c r="L155" s="41"/>
-      <c r="M155" s="42"/>
-      <c r="N155" s="41"/>
-      <c r="O155" s="42"/>
-      <c r="P155" s="41"/>
-      <c r="Q155" s="42"/>
-      <c r="R155" s="41"/>
-      <c r="S155" s="43"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
-      <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
-      <c r="AA155" s="2"/>
-      <c r="AB155" s="2"/>
-      <c r="AC155" s="2"/>
-      <c r="AD155" s="2"/>
-      <c r="AE155" s="2"/>
-      <c r="AF155" s="2"/>
-      <c r="AG155" s="2"/>
-      <c r="AH155" s="2"/>
-      <c r="AI155" s="2"/>
-      <c r="AJ155" s="2"/>
-      <c r="AK155" s="2"/>
-      <c r="AL155" s="2"/>
-      <c r="AM155" s="2"/>
-      <c r="AN155" s="2"/>
-      <c r="AO155" s="2"/>
-      <c r="AP155" s="2"/>
-      <c r="AQ155" s="2"/>
-      <c r="AR155" s="2"/>
-      <c r="AS155" s="2"/>
-      <c r="AT155" s="2"/>
-      <c r="AU155" s="2"/>
-      <c r="AV155" s="2"/>
-      <c r="AW155" s="2"/>
-      <c r="AX155" s="2"/>
-      <c r="AY155" s="2"/>
-      <c r="AZ155" s="2"/>
-      <c r="BA155" s="2"/>
-      <c r="BB155" s="2"/>
-      <c r="BC155" s="2"/>
-      <c r="BD155" s="2"/>
-      <c r="BE155" s="2"/>
-      <c r="BF155" s="2"/>
-      <c r="BG155" s="2"/>
-      <c r="BH155" s="2"/>
-      <c r="BI155" s="2"/>
-      <c r="BJ155" s="2"/>
-      <c r="BK155" s="2"/>
-      <c r="BL155" s="2"/>
-      <c r="BM155" s="2"/>
-      <c r="BN155" s="2"/>
-      <c r="BO155" s="2"/>
-      <c r="BP155" s="2"/>
-      <c r="BQ155" s="2"/>
-      <c r="BR155" s="2"/>
-      <c r="BS155" s="2"/>
-      <c r="BT155" s="2"/>
-      <c r="BU155" s="2"/>
-      <c r="BV155" s="2"/>
-      <c r="BW155" s="2"/>
-      <c r="BX155" s="2"/>
-      <c r="BY155" s="2"/>
-      <c r="BZ155" s="2"/>
-      <c r="CA155" s="2"/>
-      <c r="CB155" s="2"/>
-      <c r="CC155" s="2"/>
-      <c r="CD155" s="2"/>
-      <c r="CE155" s="2"/>
-      <c r="CF155" s="2"/>
-      <c r="CG155" s="2"/>
-      <c r="CH155" s="2"/>
-      <c r="CI155" s="2"/>
-      <c r="CJ155" s="2"/>
-      <c r="CK155" s="2"/>
-      <c r="CL155" s="2"/>
-      <c r="CM155" s="2"/>
-      <c r="CN155" s="2"/>
-      <c r="CO155" s="2"/>
-      <c r="CP155" s="2"/>
-      <c r="CQ155" s="2"/>
-      <c r="CR155" s="2"/>
-      <c r="CS155" s="2"/>
-      <c r="CT155" s="2"/>
-      <c r="CU155" s="2"/>
-      <c r="CV155" s="2"/>
-      <c r="CW155" s="2"/>
-      <c r="CX155" s="2"/>
-      <c r="CY155" s="2"/>
-      <c r="CZ155" s="2"/>
-      <c r="DA155" s="2"/>
-      <c r="DB155" s="2"/>
-      <c r="DC155" s="2"/>
-      <c r="DD155" s="2"/>
-    </row>
-    <row r="156" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="44"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="45"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="45"/>
-      <c r="J156" s="44"/>
-      <c r="K156" s="45"/>
-      <c r="L156" s="44"/>
-      <c r="M156" s="45"/>
-      <c r="N156" s="44"/>
-      <c r="O156" s="45"/>
-      <c r="P156" s="44"/>
-      <c r="Q156" s="45"/>
-      <c r="R156" s="44"/>
-      <c r="S156" s="46"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
-      <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
-      <c r="AA156" s="2"/>
-      <c r="AB156" s="2"/>
-      <c r="AC156" s="2"/>
-      <c r="AD156" s="2"/>
-      <c r="AE156" s="2"/>
-      <c r="AF156" s="2"/>
-      <c r="AG156" s="2"/>
-      <c r="AH156" s="2"/>
-      <c r="AI156" s="2"/>
-      <c r="AJ156" s="2"/>
-      <c r="AK156" s="2"/>
-      <c r="AL156" s="2"/>
-      <c r="AM156" s="2"/>
-      <c r="AN156" s="2"/>
-      <c r="AO156" s="2"/>
-      <c r="AP156" s="2"/>
-      <c r="AQ156" s="2"/>
-      <c r="AR156" s="2"/>
-      <c r="AS156" s="2"/>
-      <c r="AT156" s="2"/>
-      <c r="AU156" s="2"/>
-      <c r="AV156" s="2"/>
-      <c r="AW156" s="2"/>
-      <c r="AX156" s="2"/>
-      <c r="AY156" s="2"/>
-      <c r="AZ156" s="2"/>
-      <c r="BA156" s="2"/>
-      <c r="BB156" s="2"/>
-      <c r="BC156" s="2"/>
-      <c r="BD156" s="2"/>
-      <c r="BE156" s="2"/>
-      <c r="BF156" s="2"/>
-      <c r="BG156" s="2"/>
-      <c r="BH156" s="2"/>
-      <c r="BI156" s="2"/>
-      <c r="BJ156" s="2"/>
-      <c r="BK156" s="2"/>
-      <c r="BL156" s="2"/>
-      <c r="BM156" s="2"/>
-      <c r="BN156" s="2"/>
-      <c r="BO156" s="2"/>
-      <c r="BP156" s="2"/>
-      <c r="BQ156" s="2"/>
-      <c r="BR156" s="2"/>
-      <c r="BS156" s="2"/>
-      <c r="BT156" s="2"/>
-      <c r="BU156" s="2"/>
-      <c r="BV156" s="2"/>
-      <c r="BW156" s="2"/>
-      <c r="BX156" s="2"/>
-      <c r="BY156" s="2"/>
-      <c r="BZ156" s="2"/>
-      <c r="CA156" s="2"/>
-      <c r="CB156" s="2"/>
-      <c r="CC156" s="2"/>
-      <c r="CD156" s="2"/>
-      <c r="CE156" s="2"/>
-      <c r="CF156" s="2"/>
-      <c r="CG156" s="2"/>
-      <c r="CH156" s="2"/>
-      <c r="CI156" s="2"/>
-      <c r="CJ156" s="2"/>
-      <c r="CK156" s="2"/>
-      <c r="CL156" s="2"/>
-      <c r="CM156" s="2"/>
-      <c r="CN156" s="2"/>
-      <c r="CO156" s="2"/>
-      <c r="CP156" s="2"/>
-      <c r="CQ156" s="2"/>
-      <c r="CR156" s="2"/>
-      <c r="CS156" s="2"/>
-      <c r="CT156" s="2"/>
-      <c r="CU156" s="2"/>
-      <c r="CV156" s="2"/>
-      <c r="CW156" s="2"/>
-      <c r="CX156" s="2"/>
-      <c r="CY156" s="2"/>
-      <c r="CZ156" s="2"/>
-      <c r="DA156" s="2"/>
-      <c r="DB156" s="2"/>
-      <c r="DC156" s="2"/>
-      <c r="DD156" s="2"/>
-    </row>
-    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D157" s="38"/>
-      <c r="E157" s="39"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="39"/>
-      <c r="H157" s="38"/>
-      <c r="I157" s="39"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="39"/>
-      <c r="L157" s="38"/>
-      <c r="M157" s="39"/>
-      <c r="N157" s="38"/>
-      <c r="O157" s="39"/>
-      <c r="P157" s="38"/>
-      <c r="Q157" s="39"/>
-      <c r="R157" s="38"/>
-      <c r="S157" s="40"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
-      <c r="AA157" s="2"/>
-      <c r="AB157" s="2"/>
-      <c r="AC157" s="2"/>
-      <c r="AD157" s="2"/>
-      <c r="AE157" s="2"/>
-      <c r="AF157" s="2"/>
-      <c r="AG157" s="2"/>
-      <c r="AH157" s="2"/>
-      <c r="AI157" s="2"/>
-      <c r="AJ157" s="2"/>
-      <c r="AK157" s="2"/>
-      <c r="AL157" s="2"/>
-      <c r="AM157" s="2"/>
-      <c r="AN157" s="2"/>
-      <c r="AO157" s="2"/>
-      <c r="AP157" s="2"/>
-      <c r="AQ157" s="2"/>
-      <c r="AR157" s="2"/>
-      <c r="AS157" s="2"/>
-      <c r="AT157" s="2"/>
-      <c r="AU157" s="2"/>
-      <c r="AV157" s="2"/>
-      <c r="AW157" s="2"/>
-      <c r="AX157" s="2"/>
-      <c r="AY157" s="2"/>
-      <c r="AZ157" s="2"/>
-      <c r="BA157" s="2"/>
-      <c r="BB157" s="2"/>
-      <c r="BC157" s="2"/>
-      <c r="BD157" s="2"/>
-      <c r="BE157" s="2"/>
-      <c r="BF157" s="2"/>
-      <c r="BG157" s="2"/>
-      <c r="BH157" s="2"/>
-      <c r="BI157" s="2"/>
-      <c r="BJ157" s="2"/>
-      <c r="BK157" s="2"/>
-      <c r="BL157" s="2"/>
-      <c r="BM157" s="2"/>
-      <c r="BN157" s="2"/>
-      <c r="BO157" s="2"/>
-      <c r="BP157" s="2"/>
-      <c r="BQ157" s="2"/>
-      <c r="BR157" s="2"/>
-      <c r="BS157" s="2"/>
-      <c r="BT157" s="2"/>
-      <c r="BU157" s="2"/>
-      <c r="BV157" s="2"/>
-      <c r="BW157" s="2"/>
-      <c r="BX157" s="2"/>
-      <c r="BY157" s="2"/>
-      <c r="BZ157" s="2"/>
-      <c r="CA157" s="2"/>
-      <c r="CB157" s="2"/>
-      <c r="CC157" s="2"/>
-      <c r="CD157" s="2"/>
-      <c r="CE157" s="2"/>
-      <c r="CF157" s="2"/>
-      <c r="CG157" s="2"/>
-      <c r="CH157" s="2"/>
-      <c r="CI157" s="2"/>
-      <c r="CJ157" s="2"/>
-      <c r="CK157" s="2"/>
-      <c r="CL157" s="2"/>
-      <c r="CM157" s="2"/>
-      <c r="CN157" s="2"/>
-      <c r="CO157" s="2"/>
-      <c r="CP157" s="2"/>
-      <c r="CQ157" s="2"/>
-      <c r="CR157" s="2"/>
-      <c r="CS157" s="2"/>
-      <c r="CT157" s="2"/>
-      <c r="CU157" s="2"/>
-      <c r="CV157" s="2"/>
-      <c r="CW157" s="2"/>
-      <c r="CX157" s="2"/>
-      <c r="CY157" s="2"/>
-      <c r="CZ157" s="2"/>
-      <c r="DA157" s="2"/>
-      <c r="DB157" s="2"/>
-      <c r="DC157" s="2"/>
-      <c r="DD157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="42"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="41"/>
-      <c r="K158" s="42"/>
-      <c r="L158" s="41"/>
-      <c r="M158" s="42"/>
-      <c r="N158" s="41"/>
-      <c r="O158" s="42"/>
-      <c r="P158" s="41"/>
-      <c r="Q158" s="42"/>
-      <c r="R158" s="41"/>
-      <c r="S158" s="43"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
-      <c r="AB158" s="2"/>
-      <c r="AC158" s="2"/>
-      <c r="AD158" s="2"/>
-      <c r="AE158" s="2"/>
-      <c r="AF158" s="2"/>
-      <c r="AG158" s="2"/>
-      <c r="AH158" s="2"/>
-      <c r="AI158" s="2"/>
-      <c r="AJ158" s="2"/>
-      <c r="AK158" s="2"/>
-      <c r="AL158" s="2"/>
-      <c r="AM158" s="2"/>
-      <c r="AN158" s="2"/>
-      <c r="AO158" s="2"/>
-      <c r="AP158" s="2"/>
-      <c r="AQ158" s="2"/>
-      <c r="AR158" s="2"/>
-      <c r="AS158" s="2"/>
-      <c r="AT158" s="2"/>
-      <c r="AU158" s="2"/>
-      <c r="AV158" s="2"/>
-      <c r="AW158" s="2"/>
-      <c r="AX158" s="2"/>
-      <c r="AY158" s="2"/>
-      <c r="AZ158" s="2"/>
-      <c r="BA158" s="2"/>
-      <c r="BB158" s="2"/>
-      <c r="BC158" s="2"/>
-      <c r="BD158" s="2"/>
-      <c r="BE158" s="2"/>
-      <c r="BF158" s="2"/>
-      <c r="BG158" s="2"/>
-      <c r="BH158" s="2"/>
-      <c r="BI158" s="2"/>
-      <c r="BJ158" s="2"/>
-      <c r="BK158" s="2"/>
-      <c r="BL158" s="2"/>
-      <c r="BM158" s="2"/>
-      <c r="BN158" s="2"/>
-      <c r="BO158" s="2"/>
-      <c r="BP158" s="2"/>
-      <c r="BQ158" s="2"/>
-      <c r="BR158" s="2"/>
-      <c r="BS158" s="2"/>
-      <c r="BT158" s="2"/>
-      <c r="BU158" s="2"/>
-      <c r="BV158" s="2"/>
-      <c r="BW158" s="2"/>
-      <c r="BX158" s="2"/>
-      <c r="BY158" s="2"/>
-      <c r="BZ158" s="2"/>
-      <c r="CA158" s="2"/>
-      <c r="CB158" s="2"/>
-      <c r="CC158" s="2"/>
-      <c r="CD158" s="2"/>
-      <c r="CE158" s="2"/>
-      <c r="CF158" s="2"/>
-      <c r="CG158" s="2"/>
-      <c r="CH158" s="2"/>
-      <c r="CI158" s="2"/>
-      <c r="CJ158" s="2"/>
-      <c r="CK158" s="2"/>
-      <c r="CL158" s="2"/>
-      <c r="CM158" s="2"/>
-      <c r="CN158" s="2"/>
-      <c r="CO158" s="2"/>
-      <c r="CP158" s="2"/>
-      <c r="CQ158" s="2"/>
-      <c r="CR158" s="2"/>
-      <c r="CS158" s="2"/>
-      <c r="CT158" s="2"/>
-      <c r="CU158" s="2"/>
-      <c r="CV158" s="2"/>
-      <c r="CW158" s="2"/>
-      <c r="CX158" s="2"/>
-      <c r="CY158" s="2"/>
-      <c r="CZ158" s="2"/>
-      <c r="DA158" s="2"/>
-      <c r="DB158" s="2"/>
-      <c r="DC158" s="2"/>
-      <c r="DD158" s="2"/>
-    </row>
-    <row r="159" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="22"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="44"/>
-      <c r="E159" s="45"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="45"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="45"/>
-      <c r="J159" s="44"/>
-      <c r="K159" s="45"/>
-      <c r="L159" s="44"/>
-      <c r="M159" s="45"/>
-      <c r="N159" s="44"/>
-      <c r="O159" s="45"/>
-      <c r="P159" s="44"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="44"/>
-      <c r="S159" s="46"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
-      <c r="AB159" s="2"/>
-      <c r="AC159" s="2"/>
-      <c r="AD159" s="2"/>
-      <c r="AE159" s="2"/>
-      <c r="AF159" s="2"/>
-      <c r="AG159" s="2"/>
-      <c r="AH159" s="2"/>
-      <c r="AI159" s="2"/>
-      <c r="AJ159" s="2"/>
-      <c r="AK159" s="2"/>
-      <c r="AL159" s="2"/>
-      <c r="AM159" s="2"/>
-      <c r="AN159" s="2"/>
-      <c r="AO159" s="2"/>
-      <c r="AP159" s="2"/>
-      <c r="AQ159" s="2"/>
-      <c r="AR159" s="2"/>
-      <c r="AS159" s="2"/>
-      <c r="AT159" s="2"/>
-      <c r="AU159" s="2"/>
-      <c r="AV159" s="2"/>
-      <c r="AW159" s="2"/>
-      <c r="AX159" s="2"/>
-      <c r="AY159" s="2"/>
-      <c r="AZ159" s="2"/>
-      <c r="BA159" s="2"/>
-      <c r="BB159" s="2"/>
-      <c r="BC159" s="2"/>
-      <c r="BD159" s="2"/>
-      <c r="BE159" s="2"/>
-      <c r="BF159" s="2"/>
-      <c r="BG159" s="2"/>
-      <c r="BH159" s="2"/>
-      <c r="BI159" s="2"/>
-      <c r="BJ159" s="2"/>
-      <c r="BK159" s="2"/>
-      <c r="BL159" s="2"/>
-      <c r="BM159" s="2"/>
-      <c r="BN159" s="2"/>
-      <c r="BO159" s="2"/>
-      <c r="BP159" s="2"/>
-      <c r="BQ159" s="2"/>
-      <c r="BR159" s="2"/>
-      <c r="BS159" s="2"/>
-      <c r="BT159" s="2"/>
-      <c r="BU159" s="2"/>
-      <c r="BV159" s="2"/>
-      <c r="BW159" s="2"/>
-      <c r="BX159" s="2"/>
-      <c r="BY159" s="2"/>
-      <c r="BZ159" s="2"/>
-      <c r="CA159" s="2"/>
-      <c r="CB159" s="2"/>
-      <c r="CC159" s="2"/>
-      <c r="CD159" s="2"/>
-      <c r="CE159" s="2"/>
-      <c r="CF159" s="2"/>
-      <c r="CG159" s="2"/>
-      <c r="CH159" s="2"/>
-      <c r="CI159" s="2"/>
-      <c r="CJ159" s="2"/>
-      <c r="CK159" s="2"/>
-      <c r="CL159" s="2"/>
-      <c r="CM159" s="2"/>
-      <c r="CN159" s="2"/>
-      <c r="CO159" s="2"/>
-      <c r="CP159" s="2"/>
-      <c r="CQ159" s="2"/>
-      <c r="CR159" s="2"/>
-      <c r="CS159" s="2"/>
-      <c r="CT159" s="2"/>
-      <c r="CU159" s="2"/>
-      <c r="CV159" s="2"/>
-      <c r="CW159" s="2"/>
-      <c r="CX159" s="2"/>
-      <c r="CY159" s="2"/>
-      <c r="CZ159" s="2"/>
-      <c r="DA159" s="2"/>
-      <c r="DB159" s="2"/>
-      <c r="DC159" s="2"/>
-      <c r="DD159" s="2"/>
-    </row>
-    <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="38"/>
-      <c r="I160" s="39"/>
-      <c r="J160" s="38"/>
-      <c r="K160" s="39"/>
-      <c r="L160" s="38"/>
-      <c r="M160" s="39"/>
-      <c r="N160" s="38"/>
-      <c r="O160" s="39"/>
-      <c r="P160" s="38"/>
-      <c r="Q160" s="39"/>
-      <c r="R160" s="38"/>
-      <c r="S160" s="40"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2"/>
-      <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
-      <c r="AA160" s="2"/>
-      <c r="AB160" s="2"/>
-      <c r="AC160" s="2"/>
-      <c r="AD160" s="2"/>
-      <c r="AE160" s="2"/>
-      <c r="AF160" s="2"/>
-      <c r="AG160" s="2"/>
-      <c r="AH160" s="2"/>
-      <c r="AI160" s="2"/>
-      <c r="AJ160" s="2"/>
-      <c r="AK160" s="2"/>
-      <c r="AL160" s="2"/>
-      <c r="AM160" s="2"/>
-      <c r="AN160" s="2"/>
-      <c r="AO160" s="2"/>
-      <c r="AP160" s="2"/>
-      <c r="AQ160" s="2"/>
-      <c r="AR160" s="2"/>
-      <c r="AS160" s="2"/>
-      <c r="AT160" s="2"/>
-      <c r="AU160" s="2"/>
-      <c r="AV160" s="2"/>
-      <c r="AW160" s="2"/>
-      <c r="AX160" s="2"/>
-      <c r="AY160" s="2"/>
-      <c r="AZ160" s="2"/>
-      <c r="BA160" s="2"/>
-      <c r="BB160" s="2"/>
-      <c r="BC160" s="2"/>
-      <c r="BD160" s="2"/>
-      <c r="BE160" s="2"/>
-      <c r="BF160" s="2"/>
-      <c r="BG160" s="2"/>
-      <c r="BH160" s="2"/>
-      <c r="BI160" s="2"/>
-      <c r="BJ160" s="2"/>
-      <c r="BK160" s="2"/>
-      <c r="BL160" s="2"/>
-      <c r="BM160" s="2"/>
-      <c r="BN160" s="2"/>
-      <c r="BO160" s="2"/>
-      <c r="BP160" s="2"/>
-      <c r="BQ160" s="2"/>
-      <c r="BR160" s="2"/>
-      <c r="BS160" s="2"/>
-      <c r="BT160" s="2"/>
-      <c r="BU160" s="2"/>
-      <c r="BV160" s="2"/>
-      <c r="BW160" s="2"/>
-      <c r="BX160" s="2"/>
-      <c r="BY160" s="2"/>
-      <c r="BZ160" s="2"/>
-      <c r="CA160" s="2"/>
-      <c r="CB160" s="2"/>
-      <c r="CC160" s="2"/>
-      <c r="CD160" s="2"/>
-      <c r="CE160" s="2"/>
-      <c r="CF160" s="2"/>
-      <c r="CG160" s="2"/>
-      <c r="CH160" s="2"/>
-      <c r="CI160" s="2"/>
-      <c r="CJ160" s="2"/>
-      <c r="CK160" s="2"/>
-      <c r="CL160" s="2"/>
-      <c r="CM160" s="2"/>
-      <c r="CN160" s="2"/>
-      <c r="CO160" s="2"/>
-      <c r="CP160" s="2"/>
-      <c r="CQ160" s="2"/>
-      <c r="CR160" s="2"/>
-      <c r="CS160" s="2"/>
-      <c r="CT160" s="2"/>
-      <c r="CU160" s="2"/>
-      <c r="CV160" s="2"/>
-      <c r="CW160" s="2"/>
-      <c r="CX160" s="2"/>
-      <c r="CY160" s="2"/>
-      <c r="CZ160" s="2"/>
-      <c r="DA160" s="2"/>
-      <c r="DB160" s="2"/>
-      <c r="DC160" s="2"/>
-      <c r="DD160" s="2"/>
-    </row>
-    <row r="161" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="41"/>
-      <c r="G161" s="42"/>
-      <c r="H161" s="41"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="41"/>
-      <c r="K161" s="42"/>
-      <c r="L161" s="41"/>
-      <c r="M161" s="42"/>
-      <c r="N161" s="41"/>
-      <c r="O161" s="42"/>
-      <c r="P161" s="41"/>
-      <c r="Q161" s="42"/>
-      <c r="R161" s="41"/>
-      <c r="S161" s="43"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
-      <c r="AB161" s="2"/>
-      <c r="AC161" s="2"/>
-      <c r="AD161" s="2"/>
-      <c r="AE161" s="2"/>
-      <c r="AF161" s="2"/>
-      <c r="AG161" s="2"/>
-      <c r="AH161" s="2"/>
-      <c r="AI161" s="2"/>
-      <c r="AJ161" s="2"/>
-      <c r="AK161" s="2"/>
-      <c r="AL161" s="2"/>
-      <c r="AM161" s="2"/>
-      <c r="AN161" s="2"/>
-      <c r="AO161" s="2"/>
-      <c r="AP161" s="2"/>
-      <c r="AQ161" s="2"/>
-      <c r="AR161" s="2"/>
-      <c r="AS161" s="2"/>
-      <c r="AT161" s="2"/>
-      <c r="AU161" s="2"/>
-      <c r="AV161" s="2"/>
-      <c r="AW161" s="2"/>
-      <c r="AX161" s="2"/>
-      <c r="AY161" s="2"/>
-      <c r="AZ161" s="2"/>
-      <c r="BA161" s="2"/>
-      <c r="BB161" s="2"/>
-      <c r="BC161" s="2"/>
-      <c r="BD161" s="2"/>
-      <c r="BE161" s="2"/>
-      <c r="BF161" s="2"/>
-      <c r="BG161" s="2"/>
-      <c r="BH161" s="2"/>
-      <c r="BI161" s="2"/>
-      <c r="BJ161" s="2"/>
-      <c r="BK161" s="2"/>
-      <c r="BL161" s="2"/>
-      <c r="BM161" s="2"/>
-      <c r="BN161" s="2"/>
-      <c r="BO161" s="2"/>
-      <c r="BP161" s="2"/>
-      <c r="BQ161" s="2"/>
-      <c r="BR161" s="2"/>
-      <c r="BS161" s="2"/>
-      <c r="BT161" s="2"/>
-      <c r="BU161" s="2"/>
-      <c r="BV161" s="2"/>
-      <c r="BW161" s="2"/>
-      <c r="BX161" s="2"/>
-      <c r="BY161" s="2"/>
-      <c r="BZ161" s="2"/>
-      <c r="CA161" s="2"/>
-      <c r="CB161" s="2"/>
-      <c r="CC161" s="2"/>
-      <c r="CD161" s="2"/>
-      <c r="CE161" s="2"/>
-      <c r="CF161" s="2"/>
-      <c r="CG161" s="2"/>
-      <c r="CH161" s="2"/>
-      <c r="CI161" s="2"/>
-      <c r="CJ161" s="2"/>
-      <c r="CK161" s="2"/>
-      <c r="CL161" s="2"/>
-      <c r="CM161" s="2"/>
-      <c r="CN161" s="2"/>
-      <c r="CO161" s="2"/>
-      <c r="CP161" s="2"/>
-      <c r="CQ161" s="2"/>
-      <c r="CR161" s="2"/>
-      <c r="CS161" s="2"/>
-      <c r="CT161" s="2"/>
-      <c r="CU161" s="2"/>
-      <c r="CV161" s="2"/>
-      <c r="CW161" s="2"/>
-      <c r="CX161" s="2"/>
-      <c r="CY161" s="2"/>
-      <c r="CZ161" s="2"/>
-      <c r="DA161" s="2"/>
-      <c r="DB161" s="2"/>
-      <c r="DC161" s="2"/>
-      <c r="DD161" s="2"/>
-    </row>
-    <row r="162" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="44"/>
-      <c r="I162" s="45"/>
-      <c r="J162" s="44"/>
-      <c r="K162" s="45"/>
-      <c r="L162" s="44"/>
-      <c r="M162" s="45"/>
-      <c r="N162" s="44"/>
-      <c r="O162" s="45"/>
-      <c r="P162" s="44"/>
-      <c r="Q162" s="45"/>
-      <c r="R162" s="44"/>
-      <c r="S162" s="46"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
-      <c r="AB162" s="2"/>
-      <c r="AC162" s="2"/>
-      <c r="AD162" s="2"/>
-      <c r="AE162" s="2"/>
-      <c r="AF162" s="2"/>
-      <c r="AG162" s="2"/>
-      <c r="AH162" s="2"/>
-      <c r="AI162" s="2"/>
-      <c r="AJ162" s="2"/>
-      <c r="AK162" s="2"/>
-      <c r="AL162" s="2"/>
-      <c r="AM162" s="2"/>
-      <c r="AN162" s="2"/>
-      <c r="AO162" s="2"/>
-      <c r="AP162" s="2"/>
-      <c r="AQ162" s="2"/>
-      <c r="AR162" s="2"/>
-      <c r="AS162" s="2"/>
-      <c r="AT162" s="2"/>
-      <c r="AU162" s="2"/>
-      <c r="AV162" s="2"/>
-      <c r="AW162" s="2"/>
-      <c r="AX162" s="2"/>
-      <c r="AY162" s="2"/>
-      <c r="AZ162" s="2"/>
-      <c r="BA162" s="2"/>
-      <c r="BB162" s="2"/>
-      <c r="BC162" s="2"/>
-      <c r="BD162" s="2"/>
-      <c r="BE162" s="2"/>
-      <c r="BF162" s="2"/>
-      <c r="BG162" s="2"/>
-      <c r="BH162" s="2"/>
-      <c r="BI162" s="2"/>
-      <c r="BJ162" s="2"/>
-      <c r="BK162" s="2"/>
-      <c r="BL162" s="2"/>
-      <c r="BM162" s="2"/>
-      <c r="BN162" s="2"/>
-      <c r="BO162" s="2"/>
-      <c r="BP162" s="2"/>
-      <c r="BQ162" s="2"/>
-      <c r="BR162" s="2"/>
-      <c r="BS162" s="2"/>
-      <c r="BT162" s="2"/>
-      <c r="BU162" s="2"/>
-      <c r="BV162" s="2"/>
-      <c r="BW162" s="2"/>
-      <c r="BX162" s="2"/>
-      <c r="BY162" s="2"/>
-      <c r="BZ162" s="2"/>
-      <c r="CA162" s="2"/>
-      <c r="CB162" s="2"/>
-      <c r="CC162" s="2"/>
-      <c r="CD162" s="2"/>
-      <c r="CE162" s="2"/>
-      <c r="CF162" s="2"/>
-      <c r="CG162" s="2"/>
-      <c r="CH162" s="2"/>
-      <c r="CI162" s="2"/>
-      <c r="CJ162" s="2"/>
-      <c r="CK162" s="2"/>
-      <c r="CL162" s="2"/>
-      <c r="CM162" s="2"/>
-      <c r="CN162" s="2"/>
-      <c r="CO162" s="2"/>
-      <c r="CP162" s="2"/>
-      <c r="CQ162" s="2"/>
-      <c r="CR162" s="2"/>
-      <c r="CS162" s="2"/>
-      <c r="CT162" s="2"/>
-      <c r="CU162" s="2"/>
-      <c r="CV162" s="2"/>
-      <c r="CW162" s="2"/>
-      <c r="CX162" s="2"/>
-      <c r="CY162" s="2"/>
-      <c r="CZ162" s="2"/>
-      <c r="DA162" s="2"/>
-      <c r="DB162" s="2"/>
-      <c r="DC162" s="2"/>
-      <c r="DD162" s="2"/>
-    </row>
-    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="39"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="39"/>
-      <c r="J163" s="38"/>
-      <c r="K163" s="39"/>
-      <c r="L163" s="38"/>
-      <c r="M163" s="39"/>
-      <c r="N163" s="38"/>
-      <c r="O163" s="39"/>
-      <c r="P163" s="38"/>
-      <c r="Q163" s="39"/>
-      <c r="R163" s="38"/>
-      <c r="S163" s="40"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
-      <c r="AA163" s="2"/>
-      <c r="AB163" s="2"/>
-      <c r="AC163" s="2"/>
-      <c r="AD163" s="2"/>
-      <c r="AE163" s="2"/>
-      <c r="AF163" s="2"/>
-      <c r="AG163" s="2"/>
-      <c r="AH163" s="2"/>
-      <c r="AI163" s="2"/>
-      <c r="AJ163" s="2"/>
-      <c r="AK163" s="2"/>
-      <c r="AL163" s="2"/>
-      <c r="AM163" s="2"/>
-      <c r="AN163" s="2"/>
-      <c r="AO163" s="2"/>
-      <c r="AP163" s="2"/>
-      <c r="AQ163" s="2"/>
-      <c r="AR163" s="2"/>
-      <c r="AS163" s="2"/>
-      <c r="AT163" s="2"/>
-      <c r="AU163" s="2"/>
-      <c r="AV163" s="2"/>
-      <c r="AW163" s="2"/>
-      <c r="AX163" s="2"/>
-      <c r="AY163" s="2"/>
-      <c r="AZ163" s="2"/>
-      <c r="BA163" s="2"/>
-      <c r="BB163" s="2"/>
-      <c r="BC163" s="2"/>
-      <c r="BD163" s="2"/>
-      <c r="BE163" s="2"/>
-      <c r="BF163" s="2"/>
-      <c r="BG163" s="2"/>
-      <c r="BH163" s="2"/>
-      <c r="BI163" s="2"/>
-      <c r="BJ163" s="2"/>
-      <c r="BK163" s="2"/>
-      <c r="BL163" s="2"/>
-      <c r="BM163" s="2"/>
-      <c r="BN163" s="2"/>
-      <c r="BO163" s="2"/>
-      <c r="BP163" s="2"/>
-      <c r="BQ163" s="2"/>
-      <c r="BR163" s="2"/>
-      <c r="BS163" s="2"/>
-      <c r="BT163" s="2"/>
-      <c r="BU163" s="2"/>
-      <c r="BV163" s="2"/>
-      <c r="BW163" s="2"/>
-      <c r="BX163" s="2"/>
-      <c r="BY163" s="2"/>
-      <c r="BZ163" s="2"/>
-      <c r="CA163" s="2"/>
-      <c r="CB163" s="2"/>
-      <c r="CC163" s="2"/>
-      <c r="CD163" s="2"/>
-      <c r="CE163" s="2"/>
-      <c r="CF163" s="2"/>
-      <c r="CG163" s="2"/>
-      <c r="CH163" s="2"/>
-      <c r="CI163" s="2"/>
-      <c r="CJ163" s="2"/>
-      <c r="CK163" s="2"/>
-      <c r="CL163" s="2"/>
-      <c r="CM163" s="2"/>
-      <c r="CN163" s="2"/>
-      <c r="CO163" s="2"/>
-      <c r="CP163" s="2"/>
-      <c r="CQ163" s="2"/>
-      <c r="CR163" s="2"/>
-      <c r="CS163" s="2"/>
-      <c r="CT163" s="2"/>
-      <c r="CU163" s="2"/>
-      <c r="CV163" s="2"/>
-      <c r="CW163" s="2"/>
-      <c r="CX163" s="2"/>
-      <c r="CY163" s="2"/>
-      <c r="CZ163" s="2"/>
-      <c r="DA163" s="2"/>
-      <c r="DB163" s="2"/>
-      <c r="DC163" s="2"/>
-      <c r="DD163" s="2"/>
-    </row>
-    <row r="164" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="22"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="41"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="41"/>
-      <c r="G164" s="42"/>
-      <c r="H164" s="41"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="41"/>
-      <c r="K164" s="42"/>
-      <c r="L164" s="41"/>
-      <c r="M164" s="42"/>
-      <c r="N164" s="41"/>
-      <c r="O164" s="42"/>
-      <c r="P164" s="41"/>
-      <c r="Q164" s="42"/>
-      <c r="R164" s="41"/>
-      <c r="S164" s="43"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
-      <c r="AA164" s="2"/>
-      <c r="AB164" s="2"/>
-      <c r="AC164" s="2"/>
-      <c r="AD164" s="2"/>
-      <c r="AE164" s="2"/>
-      <c r="AF164" s="2"/>
-      <c r="AG164" s="2"/>
-      <c r="AH164" s="2"/>
-      <c r="AI164" s="2"/>
-      <c r="AJ164" s="2"/>
-      <c r="AK164" s="2"/>
-      <c r="AL164" s="2"/>
-      <c r="AM164" s="2"/>
-      <c r="AN164" s="2"/>
-      <c r="AO164" s="2"/>
-      <c r="AP164" s="2"/>
-      <c r="AQ164" s="2"/>
-      <c r="AR164" s="2"/>
-      <c r="AS164" s="2"/>
-      <c r="AT164" s="2"/>
-      <c r="AU164" s="2"/>
-      <c r="AV164" s="2"/>
-      <c r="AW164" s="2"/>
-      <c r="AX164" s="2"/>
-      <c r="AY164" s="2"/>
-      <c r="AZ164" s="2"/>
-      <c r="BA164" s="2"/>
-      <c r="BB164" s="2"/>
-      <c r="BC164" s="2"/>
-      <c r="BD164" s="2"/>
-      <c r="BE164" s="2"/>
-      <c r="BF164" s="2"/>
-      <c r="BG164" s="2"/>
-      <c r="BH164" s="2"/>
-      <c r="BI164" s="2"/>
-      <c r="BJ164" s="2"/>
-      <c r="BK164" s="2"/>
-      <c r="BL164" s="2"/>
-      <c r="BM164" s="2"/>
-      <c r="BN164" s="2"/>
-      <c r="BO164" s="2"/>
-      <c r="BP164" s="2"/>
-      <c r="BQ164" s="2"/>
-      <c r="BR164" s="2"/>
-      <c r="BS164" s="2"/>
-      <c r="BT164" s="2"/>
-      <c r="BU164" s="2"/>
-      <c r="BV164" s="2"/>
-      <c r="BW164" s="2"/>
-      <c r="BX164" s="2"/>
-      <c r="BY164" s="2"/>
-      <c r="BZ164" s="2"/>
-      <c r="CA164" s="2"/>
-      <c r="CB164" s="2"/>
-      <c r="CC164" s="2"/>
-      <c r="CD164" s="2"/>
-      <c r="CE164" s="2"/>
-      <c r="CF164" s="2"/>
-      <c r="CG164" s="2"/>
-      <c r="CH164" s="2"/>
-      <c r="CI164" s="2"/>
-      <c r="CJ164" s="2"/>
-      <c r="CK164" s="2"/>
-      <c r="CL164" s="2"/>
-      <c r="CM164" s="2"/>
-      <c r="CN164" s="2"/>
-      <c r="CO164" s="2"/>
-      <c r="CP164" s="2"/>
-      <c r="CQ164" s="2"/>
-      <c r="CR164" s="2"/>
-      <c r="CS164" s="2"/>
-      <c r="CT164" s="2"/>
-      <c r="CU164" s="2"/>
-      <c r="CV164" s="2"/>
-      <c r="CW164" s="2"/>
-      <c r="CX164" s="2"/>
-      <c r="CY164" s="2"/>
-      <c r="CZ164" s="2"/>
-      <c r="DA164" s="2"/>
-      <c r="DB164" s="2"/>
-      <c r="DC164" s="2"/>
-      <c r="DD164" s="2"/>
-    </row>
-    <row r="165" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="22"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="45"/>
-      <c r="L165" s="44"/>
-      <c r="M165" s="45"/>
-      <c r="N165" s="44"/>
-      <c r="O165" s="45"/>
-      <c r="P165" s="44"/>
-      <c r="Q165" s="45"/>
-      <c r="R165" s="44"/>
-      <c r="S165" s="46"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
-      <c r="AA165" s="2"/>
-      <c r="AB165" s="2"/>
-      <c r="AC165" s="2"/>
-      <c r="AD165" s="2"/>
-      <c r="AE165" s="2"/>
-      <c r="AF165" s="2"/>
-      <c r="AG165" s="2"/>
-      <c r="AH165" s="2"/>
-      <c r="AI165" s="2"/>
-      <c r="AJ165" s="2"/>
-      <c r="AK165" s="2"/>
-      <c r="AL165" s="2"/>
-      <c r="AM165" s="2"/>
-      <c r="AN165" s="2"/>
-      <c r="AO165" s="2"/>
-      <c r="AP165" s="2"/>
-      <c r="AQ165" s="2"/>
-      <c r="AR165" s="2"/>
-      <c r="AS165" s="2"/>
-      <c r="AT165" s="2"/>
-      <c r="AU165" s="2"/>
-      <c r="AV165" s="2"/>
-      <c r="AW165" s="2"/>
-      <c r="AX165" s="2"/>
-      <c r="AY165" s="2"/>
-      <c r="AZ165" s="2"/>
-      <c r="BA165" s="2"/>
-      <c r="BB165" s="2"/>
-      <c r="BC165" s="2"/>
-      <c r="BD165" s="2"/>
-      <c r="BE165" s="2"/>
-      <c r="BF165" s="2"/>
-      <c r="BG165" s="2"/>
-      <c r="BH165" s="2"/>
-      <c r="BI165" s="2"/>
-      <c r="BJ165" s="2"/>
-      <c r="BK165" s="2"/>
-      <c r="BL165" s="2"/>
-      <c r="BM165" s="2"/>
-      <c r="BN165" s="2"/>
-      <c r="BO165" s="2"/>
-      <c r="BP165" s="2"/>
-      <c r="BQ165" s="2"/>
-      <c r="BR165" s="2"/>
-      <c r="BS165" s="2"/>
-      <c r="BT165" s="2"/>
-      <c r="BU165" s="2"/>
-      <c r="BV165" s="2"/>
-      <c r="BW165" s="2"/>
-      <c r="BX165" s="2"/>
-      <c r="BY165" s="2"/>
-      <c r="BZ165" s="2"/>
-      <c r="CA165" s="2"/>
-      <c r="CB165" s="2"/>
-      <c r="CC165" s="2"/>
-      <c r="CD165" s="2"/>
-      <c r="CE165" s="2"/>
-      <c r="CF165" s="2"/>
-      <c r="CG165" s="2"/>
-      <c r="CH165" s="2"/>
-      <c r="CI165" s="2"/>
-      <c r="CJ165" s="2"/>
-      <c r="CK165" s="2"/>
-      <c r="CL165" s="2"/>
-      <c r="CM165" s="2"/>
-      <c r="CN165" s="2"/>
-      <c r="CO165" s="2"/>
-      <c r="CP165" s="2"/>
-      <c r="CQ165" s="2"/>
-      <c r="CR165" s="2"/>
-      <c r="CS165" s="2"/>
-      <c r="CT165" s="2"/>
-      <c r="CU165" s="2"/>
-      <c r="CV165" s="2"/>
-      <c r="CW165" s="2"/>
-      <c r="CX165" s="2"/>
-      <c r="CY165" s="2"/>
-      <c r="CZ165" s="2"/>
-      <c r="DA165" s="2"/>
-      <c r="DB165" s="2"/>
-      <c r="DC165" s="2"/>
-      <c r="DD165" s="2"/>
-    </row>
-    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D166" s="38"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="39"/>
-      <c r="J166" s="38"/>
-      <c r="K166" s="39"/>
-      <c r="L166" s="38"/>
-      <c r="M166" s="39"/>
-      <c r="N166" s="38"/>
-      <c r="O166" s="39"/>
-      <c r="P166" s="38"/>
-      <c r="Q166" s="39"/>
-      <c r="R166" s="38"/>
-      <c r="S166" s="40"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
-      <c r="AA166" s="2"/>
-      <c r="AB166" s="2"/>
-      <c r="AC166" s="2"/>
-      <c r="AD166" s="2"/>
-      <c r="AE166" s="2"/>
-      <c r="AF166" s="2"/>
-      <c r="AG166" s="2"/>
-      <c r="AH166" s="2"/>
-      <c r="AI166" s="2"/>
-      <c r="AJ166" s="2"/>
-      <c r="AK166" s="2"/>
-      <c r="AL166" s="2"/>
-      <c r="AM166" s="2"/>
-      <c r="AN166" s="2"/>
-      <c r="AO166" s="2"/>
-      <c r="AP166" s="2"/>
-      <c r="AQ166" s="2"/>
-      <c r="AR166" s="2"/>
-      <c r="AS166" s="2"/>
-      <c r="AT166" s="2"/>
-      <c r="AU166" s="2"/>
-      <c r="AV166" s="2"/>
-      <c r="AW166" s="2"/>
-      <c r="AX166" s="2"/>
-      <c r="AY166" s="2"/>
-      <c r="AZ166" s="2"/>
-      <c r="BA166" s="2"/>
-      <c r="BB166" s="2"/>
-      <c r="BC166" s="2"/>
-      <c r="BD166" s="2"/>
-      <c r="BE166" s="2"/>
-      <c r="BF166" s="2"/>
-      <c r="BG166" s="2"/>
-      <c r="BH166" s="2"/>
-      <c r="BI166" s="2"/>
-      <c r="BJ166" s="2"/>
-      <c r="BK166" s="2"/>
-      <c r="BL166" s="2"/>
-      <c r="BM166" s="2"/>
-      <c r="BN166" s="2"/>
-      <c r="BO166" s="2"/>
-      <c r="BP166" s="2"/>
-      <c r="BQ166" s="2"/>
-      <c r="BR166" s="2"/>
-      <c r="BS166" s="2"/>
-      <c r="BT166" s="2"/>
-      <c r="BU166" s="2"/>
-      <c r="BV166" s="2"/>
-      <c r="BW166" s="2"/>
-      <c r="BX166" s="2"/>
-      <c r="BY166" s="2"/>
-      <c r="BZ166" s="2"/>
-      <c r="CA166" s="2"/>
-      <c r="CB166" s="2"/>
-      <c r="CC166" s="2"/>
-      <c r="CD166" s="2"/>
-      <c r="CE166" s="2"/>
-      <c r="CF166" s="2"/>
-      <c r="CG166" s="2"/>
-      <c r="CH166" s="2"/>
-      <c r="CI166" s="2"/>
-      <c r="CJ166" s="2"/>
-      <c r="CK166" s="2"/>
-      <c r="CL166" s="2"/>
-      <c r="CM166" s="2"/>
-      <c r="CN166" s="2"/>
-      <c r="CO166" s="2"/>
-      <c r="CP166" s="2"/>
-      <c r="CQ166" s="2"/>
-      <c r="CR166" s="2"/>
-      <c r="CS166" s="2"/>
-      <c r="CT166" s="2"/>
-      <c r="CU166" s="2"/>
-      <c r="CV166" s="2"/>
-      <c r="CW166" s="2"/>
-      <c r="CX166" s="2"/>
-      <c r="CY166" s="2"/>
-      <c r="CZ166" s="2"/>
-      <c r="DA166" s="2"/>
-      <c r="DB166" s="2"/>
-      <c r="DC166" s="2"/>
-      <c r="DD166" s="2"/>
-    </row>
-    <row r="167" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="22"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="41"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="41"/>
-      <c r="I167" s="42"/>
-      <c r="J167" s="41"/>
-      <c r="K167" s="42"/>
-      <c r="L167" s="41"/>
-      <c r="M167" s="42"/>
-      <c r="N167" s="41"/>
-      <c r="O167" s="42"/>
-      <c r="P167" s="41"/>
-      <c r="Q167" s="42"/>
-      <c r="R167" s="41"/>
-      <c r="S167" s="43"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
-      <c r="AB167" s="2"/>
-      <c r="AC167" s="2"/>
-      <c r="AD167" s="2"/>
-      <c r="AE167" s="2"/>
-      <c r="AF167" s="2"/>
-      <c r="AG167" s="2"/>
-      <c r="AH167" s="2"/>
-      <c r="AI167" s="2"/>
-      <c r="AJ167" s="2"/>
-      <c r="AK167" s="2"/>
-      <c r="AL167" s="2"/>
-      <c r="AM167" s="2"/>
-      <c r="AN167" s="2"/>
-      <c r="AO167" s="2"/>
-      <c r="AP167" s="2"/>
-      <c r="AQ167" s="2"/>
-      <c r="AR167" s="2"/>
-      <c r="AS167" s="2"/>
-      <c r="AT167" s="2"/>
-      <c r="AU167" s="2"/>
-      <c r="AV167" s="2"/>
-      <c r="AW167" s="2"/>
-      <c r="AX167" s="2"/>
-      <c r="AY167" s="2"/>
-      <c r="AZ167" s="2"/>
-      <c r="BA167" s="2"/>
-      <c r="BB167" s="2"/>
-      <c r="BC167" s="2"/>
-      <c r="BD167" s="2"/>
-      <c r="BE167" s="2"/>
-      <c r="BF167" s="2"/>
-      <c r="BG167" s="2"/>
-      <c r="BH167" s="2"/>
-      <c r="BI167" s="2"/>
-      <c r="BJ167" s="2"/>
-      <c r="BK167" s="2"/>
-      <c r="BL167" s="2"/>
-      <c r="BM167" s="2"/>
-      <c r="BN167" s="2"/>
-      <c r="BO167" s="2"/>
-      <c r="BP167" s="2"/>
-      <c r="BQ167" s="2"/>
-      <c r="BR167" s="2"/>
-      <c r="BS167" s="2"/>
-      <c r="BT167" s="2"/>
-      <c r="BU167" s="2"/>
-      <c r="BV167" s="2"/>
-      <c r="BW167" s="2"/>
-      <c r="BX167" s="2"/>
-      <c r="BY167" s="2"/>
-      <c r="BZ167" s="2"/>
-      <c r="CA167" s="2"/>
-      <c r="CB167" s="2"/>
-      <c r="CC167" s="2"/>
-      <c r="CD167" s="2"/>
-      <c r="CE167" s="2"/>
-      <c r="CF167" s="2"/>
-      <c r="CG167" s="2"/>
-      <c r="CH167" s="2"/>
-      <c r="CI167" s="2"/>
-      <c r="CJ167" s="2"/>
-      <c r="CK167" s="2"/>
-      <c r="CL167" s="2"/>
-      <c r="CM167" s="2"/>
-      <c r="CN167" s="2"/>
-      <c r="CO167" s="2"/>
-      <c r="CP167" s="2"/>
-      <c r="CQ167" s="2"/>
-      <c r="CR167" s="2"/>
-      <c r="CS167" s="2"/>
-      <c r="CT167" s="2"/>
-      <c r="CU167" s="2"/>
-      <c r="CV167" s="2"/>
-      <c r="CW167" s="2"/>
-      <c r="CX167" s="2"/>
-      <c r="CY167" s="2"/>
-      <c r="CZ167" s="2"/>
-      <c r="DA167" s="2"/>
-      <c r="DB167" s="2"/>
-      <c r="DC167" s="2"/>
-      <c r="DD167" s="2"/>
-    </row>
-    <row r="168" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="45"/>
-      <c r="H168" s="44"/>
-      <c r="I168" s="45"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="45"/>
-      <c r="L168" s="44"/>
-      <c r="M168" s="45"/>
-      <c r="N168" s="44"/>
-      <c r="O168" s="45"/>
-      <c r="P168" s="44"/>
-      <c r="Q168" s="45"/>
-      <c r="R168" s="44"/>
-      <c r="S168" s="46"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-      <c r="AB168" s="2"/>
-      <c r="AC168" s="2"/>
-      <c r="AD168" s="2"/>
-      <c r="AE168" s="2"/>
-      <c r="AF168" s="2"/>
-      <c r="AG168" s="2"/>
-      <c r="AH168" s="2"/>
-      <c r="AI168" s="2"/>
-      <c r="AJ168" s="2"/>
-      <c r="AK168" s="2"/>
-      <c r="AL168" s="2"/>
-      <c r="AM168" s="2"/>
-      <c r="AN168" s="2"/>
-      <c r="AO168" s="2"/>
-      <c r="AP168" s="2"/>
-      <c r="AQ168" s="2"/>
-      <c r="AR168" s="2"/>
-      <c r="AS168" s="2"/>
-      <c r="AT168" s="2"/>
-      <c r="AU168" s="2"/>
-      <c r="AV168" s="2"/>
-      <c r="AW168" s="2"/>
-      <c r="AX168" s="2"/>
-      <c r="AY168" s="2"/>
-      <c r="AZ168" s="2"/>
-      <c r="BA168" s="2"/>
-      <c r="BB168" s="2"/>
-      <c r="BC168" s="2"/>
-      <c r="BD168" s="2"/>
-      <c r="BE168" s="2"/>
-      <c r="BF168" s="2"/>
-      <c r="BG168" s="2"/>
-      <c r="BH168" s="2"/>
-      <c r="BI168" s="2"/>
-      <c r="BJ168" s="2"/>
-      <c r="BK168" s="2"/>
-      <c r="BL168" s="2"/>
-      <c r="BM168" s="2"/>
-      <c r="BN168" s="2"/>
-      <c r="BO168" s="2"/>
-      <c r="BP168" s="2"/>
-      <c r="BQ168" s="2"/>
-      <c r="BR168" s="2"/>
-      <c r="BS168" s="2"/>
-      <c r="BT168" s="2"/>
-      <c r="BU168" s="2"/>
-      <c r="BV168" s="2"/>
-      <c r="BW168" s="2"/>
-      <c r="BX168" s="2"/>
-      <c r="BY168" s="2"/>
-      <c r="BZ168" s="2"/>
-      <c r="CA168" s="2"/>
-      <c r="CB168" s="2"/>
-      <c r="CC168" s="2"/>
-      <c r="CD168" s="2"/>
-      <c r="CE168" s="2"/>
-      <c r="CF168" s="2"/>
-      <c r="CG168" s="2"/>
-      <c r="CH168" s="2"/>
-      <c r="CI168" s="2"/>
-      <c r="CJ168" s="2"/>
-      <c r="CK168" s="2"/>
-      <c r="CL168" s="2"/>
-      <c r="CM168" s="2"/>
-      <c r="CN168" s="2"/>
-      <c r="CO168" s="2"/>
-      <c r="CP168" s="2"/>
-      <c r="CQ168" s="2"/>
-      <c r="CR168" s="2"/>
-      <c r="CS168" s="2"/>
-      <c r="CT168" s="2"/>
-      <c r="CU168" s="2"/>
-      <c r="CV168" s="2"/>
-      <c r="CW168" s="2"/>
-      <c r="CX168" s="2"/>
-      <c r="CY168" s="2"/>
-      <c r="CZ168" s="2"/>
-      <c r="DA168" s="2"/>
-      <c r="DB168" s="2"/>
-      <c r="DC168" s="2"/>
-      <c r="DD168" s="2"/>
-    </row>
-    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="22"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D169" s="38"/>
-      <c r="E169" s="39"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="39"/>
-      <c r="J169" s="38"/>
-      <c r="K169" s="39"/>
-      <c r="L169" s="38"/>
-      <c r="M169" s="39"/>
-      <c r="N169" s="38"/>
-      <c r="O169" s="39"/>
-      <c r="P169" s="38"/>
-      <c r="Q169" s="39"/>
-      <c r="R169" s="38"/>
-      <c r="S169" s="40"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
-      <c r="AB169" s="2"/>
-      <c r="AC169" s="2"/>
-      <c r="AD169" s="2"/>
-      <c r="AE169" s="2"/>
-      <c r="AF169" s="2"/>
-      <c r="AG169" s="2"/>
-      <c r="AH169" s="2"/>
-      <c r="AI169" s="2"/>
-      <c r="AJ169" s="2"/>
-      <c r="AK169" s="2"/>
-      <c r="AL169" s="2"/>
-      <c r="AM169" s="2"/>
-      <c r="AN169" s="2"/>
-      <c r="AO169" s="2"/>
-      <c r="AP169" s="2"/>
-      <c r="AQ169" s="2"/>
-      <c r="AR169" s="2"/>
-      <c r="AS169" s="2"/>
-      <c r="AT169" s="2"/>
-      <c r="AU169" s="2"/>
-      <c r="AV169" s="2"/>
-      <c r="AW169" s="2"/>
-      <c r="AX169" s="2"/>
-      <c r="AY169" s="2"/>
-      <c r="AZ169" s="2"/>
-      <c r="BA169" s="2"/>
-      <c r="BB169" s="2"/>
-      <c r="BC169" s="2"/>
-      <c r="BD169" s="2"/>
-      <c r="BE169" s="2"/>
-      <c r="BF169" s="2"/>
-      <c r="BG169" s="2"/>
-      <c r="BH169" s="2"/>
-      <c r="BI169" s="2"/>
-      <c r="BJ169" s="2"/>
-      <c r="BK169" s="2"/>
-      <c r="BL169" s="2"/>
-      <c r="BM169" s="2"/>
-      <c r="BN169" s="2"/>
-      <c r="BO169" s="2"/>
-      <c r="BP169" s="2"/>
-      <c r="BQ169" s="2"/>
-      <c r="BR169" s="2"/>
-      <c r="BS169" s="2"/>
-      <c r="BT169" s="2"/>
-      <c r="BU169" s="2"/>
-      <c r="BV169" s="2"/>
-      <c r="BW169" s="2"/>
-      <c r="BX169" s="2"/>
-      <c r="BY169" s="2"/>
-      <c r="BZ169" s="2"/>
-      <c r="CA169" s="2"/>
-      <c r="CB169" s="2"/>
-      <c r="CC169" s="2"/>
-      <c r="CD169" s="2"/>
-      <c r="CE169" s="2"/>
-      <c r="CF169" s="2"/>
-      <c r="CG169" s="2"/>
-      <c r="CH169" s="2"/>
-      <c r="CI169" s="2"/>
-      <c r="CJ169" s="2"/>
-      <c r="CK169" s="2"/>
-      <c r="CL169" s="2"/>
-      <c r="CM169" s="2"/>
-      <c r="CN169" s="2"/>
-      <c r="CO169" s="2"/>
-      <c r="CP169" s="2"/>
-      <c r="CQ169" s="2"/>
-      <c r="CR169" s="2"/>
-      <c r="CS169" s="2"/>
-      <c r="CT169" s="2"/>
-      <c r="CU169" s="2"/>
-      <c r="CV169" s="2"/>
-      <c r="CW169" s="2"/>
-      <c r="CX169" s="2"/>
-      <c r="CY169" s="2"/>
-      <c r="CZ169" s="2"/>
-      <c r="DA169" s="2"/>
-      <c r="DB169" s="2"/>
-      <c r="DC169" s="2"/>
-      <c r="DD169" s="2"/>
-    </row>
-    <row r="170" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="22"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="42"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="41"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="41"/>
-      <c r="M170" s="42"/>
-      <c r="N170" s="41"/>
-      <c r="O170" s="42"/>
-      <c r="P170" s="41"/>
-      <c r="Q170" s="42"/>
-      <c r="R170" s="41"/>
-      <c r="S170" s="43"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
-      <c r="AA170" s="2"/>
-      <c r="AB170" s="2"/>
-      <c r="AC170" s="2"/>
-      <c r="AD170" s="2"/>
-      <c r="AE170" s="2"/>
-      <c r="AF170" s="2"/>
-      <c r="AG170" s="2"/>
-      <c r="AH170" s="2"/>
-      <c r="AI170" s="2"/>
-      <c r="AJ170" s="2"/>
-      <c r="AK170" s="2"/>
-      <c r="AL170" s="2"/>
-      <c r="AM170" s="2"/>
-      <c r="AN170" s="2"/>
-      <c r="AO170" s="2"/>
-      <c r="AP170" s="2"/>
-      <c r="AQ170" s="2"/>
-      <c r="AR170" s="2"/>
-      <c r="AS170" s="2"/>
-      <c r="AT170" s="2"/>
-      <c r="AU170" s="2"/>
-      <c r="AV170" s="2"/>
-      <c r="AW170" s="2"/>
-      <c r="AX170" s="2"/>
-      <c r="AY170" s="2"/>
-      <c r="AZ170" s="2"/>
-      <c r="BA170" s="2"/>
-      <c r="BB170" s="2"/>
-      <c r="BC170" s="2"/>
-      <c r="BD170" s="2"/>
-      <c r="BE170" s="2"/>
-      <c r="BF170" s="2"/>
-      <c r="BG170" s="2"/>
-      <c r="BH170" s="2"/>
-      <c r="BI170" s="2"/>
-      <c r="BJ170" s="2"/>
-      <c r="BK170" s="2"/>
-      <c r="BL170" s="2"/>
-      <c r="BM170" s="2"/>
-      <c r="BN170" s="2"/>
-      <c r="BO170" s="2"/>
-      <c r="BP170" s="2"/>
-      <c r="BQ170" s="2"/>
-      <c r="BR170" s="2"/>
-      <c r="BS170" s="2"/>
-      <c r="BT170" s="2"/>
-      <c r="BU170" s="2"/>
-      <c r="BV170" s="2"/>
-      <c r="BW170" s="2"/>
-      <c r="BX170" s="2"/>
-      <c r="BY170" s="2"/>
-      <c r="BZ170" s="2"/>
-      <c r="CA170" s="2"/>
-      <c r="CB170" s="2"/>
-      <c r="CC170" s="2"/>
-      <c r="CD170" s="2"/>
-      <c r="CE170" s="2"/>
-      <c r="CF170" s="2"/>
-      <c r="CG170" s="2"/>
-      <c r="CH170" s="2"/>
-      <c r="CI170" s="2"/>
-      <c r="CJ170" s="2"/>
-      <c r="CK170" s="2"/>
-      <c r="CL170" s="2"/>
-      <c r="CM170" s="2"/>
-      <c r="CN170" s="2"/>
-      <c r="CO170" s="2"/>
-      <c r="CP170" s="2"/>
-      <c r="CQ170" s="2"/>
-      <c r="CR170" s="2"/>
-      <c r="CS170" s="2"/>
-      <c r="CT170" s="2"/>
-      <c r="CU170" s="2"/>
-      <c r="CV170" s="2"/>
-      <c r="CW170" s="2"/>
-      <c r="CX170" s="2"/>
-      <c r="CY170" s="2"/>
-      <c r="CZ170" s="2"/>
-      <c r="DA170" s="2"/>
-      <c r="DB170" s="2"/>
-      <c r="DC170" s="2"/>
-      <c r="DD170" s="2"/>
-    </row>
-    <row r="171" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="22"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="44"/>
-      <c r="E171" s="45"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="45"/>
-      <c r="H171" s="44"/>
-      <c r="I171" s="45"/>
-      <c r="J171" s="44"/>
-      <c r="K171" s="45"/>
-      <c r="L171" s="44"/>
-      <c r="M171" s="45"/>
-      <c r="N171" s="44"/>
-      <c r="O171" s="45"/>
-      <c r="P171" s="44"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="44"/>
-      <c r="S171" s="46"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-      <c r="AC171" s="2"/>
-      <c r="AD171" s="2"/>
-      <c r="AE171" s="2"/>
-      <c r="AF171" s="2"/>
-      <c r="AG171" s="2"/>
-      <c r="AH171" s="2"/>
-      <c r="AI171" s="2"/>
-      <c r="AJ171" s="2"/>
-      <c r="AK171" s="2"/>
-      <c r="AL171" s="2"/>
-      <c r="AM171" s="2"/>
-      <c r="AN171" s="2"/>
-      <c r="AO171" s="2"/>
-      <c r="AP171" s="2"/>
-      <c r="AQ171" s="2"/>
-      <c r="AR171" s="2"/>
-      <c r="AS171" s="2"/>
-      <c r="AT171" s="2"/>
-      <c r="AU171" s="2"/>
-      <c r="AV171" s="2"/>
-      <c r="AW171" s="2"/>
-      <c r="AX171" s="2"/>
-      <c r="AY171" s="2"/>
-      <c r="AZ171" s="2"/>
-      <c r="BA171" s="2"/>
-      <c r="BB171" s="2"/>
-      <c r="BC171" s="2"/>
-      <c r="BD171" s="2"/>
-      <c r="BE171" s="2"/>
-      <c r="BF171" s="2"/>
-      <c r="BG171" s="2"/>
-      <c r="BH171" s="2"/>
-      <c r="BI171" s="2"/>
-      <c r="BJ171" s="2"/>
-      <c r="BK171" s="2"/>
-      <c r="BL171" s="2"/>
-      <c r="BM171" s="2"/>
-      <c r="BN171" s="2"/>
-      <c r="BO171" s="2"/>
-      <c r="BP171" s="2"/>
-      <c r="BQ171" s="2"/>
-      <c r="BR171" s="2"/>
-      <c r="BS171" s="2"/>
-      <c r="BT171" s="2"/>
-      <c r="BU171" s="2"/>
-      <c r="BV171" s="2"/>
-      <c r="BW171" s="2"/>
-      <c r="BX171" s="2"/>
-      <c r="BY171" s="2"/>
-      <c r="BZ171" s="2"/>
-      <c r="CA171" s="2"/>
-      <c r="CB171" s="2"/>
-      <c r="CC171" s="2"/>
-      <c r="CD171" s="2"/>
-      <c r="CE171" s="2"/>
-      <c r="CF171" s="2"/>
-      <c r="CG171" s="2"/>
-      <c r="CH171" s="2"/>
-      <c r="CI171" s="2"/>
-      <c r="CJ171" s="2"/>
-      <c r="CK171" s="2"/>
-      <c r="CL171" s="2"/>
-      <c r="CM171" s="2"/>
-      <c r="CN171" s="2"/>
-      <c r="CO171" s="2"/>
-      <c r="CP171" s="2"/>
-      <c r="CQ171" s="2"/>
-      <c r="CR171" s="2"/>
-      <c r="CS171" s="2"/>
-      <c r="CT171" s="2"/>
-      <c r="CU171" s="2"/>
-      <c r="CV171" s="2"/>
-      <c r="CW171" s="2"/>
-      <c r="CX171" s="2"/>
-      <c r="CY171" s="2"/>
-      <c r="CZ171" s="2"/>
-      <c r="DA171" s="2"/>
-      <c r="DB171" s="2"/>
-      <c r="DC171" s="2"/>
-      <c r="DD171" s="2"/>
-    </row>
-    <row r="172" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="22"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D172" s="38"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="39"/>
-      <c r="H172" s="38"/>
-      <c r="I172" s="39"/>
-      <c r="J172" s="38"/>
-      <c r="K172" s="39"/>
-      <c r="L172" s="38"/>
-      <c r="M172" s="39"/>
-      <c r="N172" s="38"/>
-      <c r="O172" s="39"/>
-      <c r="P172" s="38"/>
-      <c r="Q172" s="39"/>
-      <c r="R172" s="38"/>
-      <c r="S172" s="40"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2"/>
-      <c r="AD172" s="2"/>
-      <c r="AE172" s="2"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2"/>
-      <c r="AI172" s="2"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
-      <c r="AN172" s="2"/>
-      <c r="AO172" s="2"/>
-      <c r="AP172" s="2"/>
-      <c r="AQ172" s="2"/>
-      <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
-      <c r="AT172" s="2"/>
-      <c r="AU172" s="2"/>
-      <c r="AV172" s="2"/>
-      <c r="AW172" s="2"/>
-      <c r="AX172" s="2"/>
-      <c r="AY172" s="2"/>
-      <c r="AZ172" s="2"/>
-      <c r="BA172" s="2"/>
-      <c r="BB172" s="2"/>
-      <c r="BC172" s="2"/>
-      <c r="BD172" s="2"/>
-      <c r="BE172" s="2"/>
-      <c r="BF172" s="2"/>
-      <c r="BG172" s="2"/>
-      <c r="BH172" s="2"/>
-      <c r="BI172" s="2"/>
-      <c r="BJ172" s="2"/>
-      <c r="BK172" s="2"/>
-      <c r="BL172" s="2"/>
-      <c r="BM172" s="2"/>
-      <c r="BN172" s="2"/>
-      <c r="BO172" s="2"/>
-      <c r="BP172" s="2"/>
-      <c r="BQ172" s="2"/>
-      <c r="BR172" s="2"/>
-      <c r="BS172" s="2"/>
-      <c r="BT172" s="2"/>
-      <c r="BU172" s="2"/>
-      <c r="BV172" s="2"/>
-      <c r="BW172" s="2"/>
-      <c r="BX172" s="2"/>
-      <c r="BY172" s="2"/>
-      <c r="BZ172" s="2"/>
-      <c r="CA172" s="2"/>
-      <c r="CB172" s="2"/>
-      <c r="CC172" s="2"/>
-      <c r="CD172" s="2"/>
-      <c r="CE172" s="2"/>
-      <c r="CF172" s="2"/>
-      <c r="CG172" s="2"/>
-      <c r="CH172" s="2"/>
-      <c r="CI172" s="2"/>
-      <c r="CJ172" s="2"/>
-      <c r="CK172" s="2"/>
-      <c r="CL172" s="2"/>
-      <c r="CM172" s="2"/>
-      <c r="CN172" s="2"/>
-      <c r="CO172" s="2"/>
-      <c r="CP172" s="2"/>
-      <c r="CQ172" s="2"/>
-      <c r="CR172" s="2"/>
-      <c r="CS172" s="2"/>
-      <c r="CT172" s="2"/>
-      <c r="CU172" s="2"/>
-      <c r="CV172" s="2"/>
-      <c r="CW172" s="2"/>
-      <c r="CX172" s="2"/>
-      <c r="CY172" s="2"/>
-      <c r="CZ172" s="2"/>
-      <c r="DA172" s="2"/>
-      <c r="DB172" s="2"/>
-      <c r="DC172" s="2"/>
-      <c r="DD172" s="2"/>
-    </row>
-    <row r="173" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="22"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="42"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="41"/>
-      <c r="M173" s="42"/>
-      <c r="N173" s="41"/>
-      <c r="O173" s="42"/>
-      <c r="P173" s="41"/>
-      <c r="Q173" s="42"/>
-      <c r="R173" s="41"/>
-      <c r="S173" s="43"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
-      <c r="AB173" s="2"/>
-      <c r="AC173" s="2"/>
-      <c r="AD173" s="2"/>
-      <c r="AE173" s="2"/>
-      <c r="AF173" s="2"/>
-      <c r="AG173" s="2"/>
-      <c r="AH173" s="2"/>
-      <c r="AI173" s="2"/>
-      <c r="AJ173" s="2"/>
-      <c r="AK173" s="2"/>
-      <c r="AL173" s="2"/>
-      <c r="AM173" s="2"/>
-      <c r="AN173" s="2"/>
-      <c r="AO173" s="2"/>
-      <c r="AP173" s="2"/>
-      <c r="AQ173" s="2"/>
-      <c r="AR173" s="2"/>
-      <c r="AS173" s="2"/>
-      <c r="AT173" s="2"/>
-      <c r="AU173" s="2"/>
-      <c r="AV173" s="2"/>
-      <c r="AW173" s="2"/>
-      <c r="AX173" s="2"/>
-      <c r="AY173" s="2"/>
-      <c r="AZ173" s="2"/>
-      <c r="BA173" s="2"/>
-      <c r="BB173" s="2"/>
-      <c r="BC173" s="2"/>
-      <c r="BD173" s="2"/>
-      <c r="BE173" s="2"/>
-      <c r="BF173" s="2"/>
-      <c r="BG173" s="2"/>
-      <c r="BH173" s="2"/>
-      <c r="BI173" s="2"/>
-      <c r="BJ173" s="2"/>
-      <c r="BK173" s="2"/>
-      <c r="BL173" s="2"/>
-      <c r="BM173" s="2"/>
-      <c r="BN173" s="2"/>
-      <c r="BO173" s="2"/>
-      <c r="BP173" s="2"/>
-      <c r="BQ173" s="2"/>
-      <c r="BR173" s="2"/>
-      <c r="BS173" s="2"/>
-      <c r="BT173" s="2"/>
-      <c r="BU173" s="2"/>
-      <c r="BV173" s="2"/>
-      <c r="BW173" s="2"/>
-      <c r="BX173" s="2"/>
-      <c r="BY173" s="2"/>
-      <c r="BZ173" s="2"/>
-      <c r="CA173" s="2"/>
-      <c r="CB173" s="2"/>
-      <c r="CC173" s="2"/>
-      <c r="CD173" s="2"/>
-      <c r="CE173" s="2"/>
-      <c r="CF173" s="2"/>
-      <c r="CG173" s="2"/>
-      <c r="CH173" s="2"/>
-      <c r="CI173" s="2"/>
-      <c r="CJ173" s="2"/>
-      <c r="CK173" s="2"/>
-      <c r="CL173" s="2"/>
-      <c r="CM173" s="2"/>
-      <c r="CN173" s="2"/>
-      <c r="CO173" s="2"/>
-      <c r="CP173" s="2"/>
-      <c r="CQ173" s="2"/>
-      <c r="CR173" s="2"/>
-      <c r="CS173" s="2"/>
-      <c r="CT173" s="2"/>
-      <c r="CU173" s="2"/>
-      <c r="CV173" s="2"/>
-      <c r="CW173" s="2"/>
-      <c r="CX173" s="2"/>
-      <c r="CY173" s="2"/>
-      <c r="CZ173" s="2"/>
-      <c r="DA173" s="2"/>
-      <c r="DB173" s="2"/>
-      <c r="DC173" s="2"/>
-      <c r="DD173" s="2"/>
-    </row>
-    <row r="174" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="22"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="44"/>
-      <c r="E174" s="45"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="45"/>
-      <c r="H174" s="44"/>
-      <c r="I174" s="45"/>
-      <c r="J174" s="44"/>
-      <c r="K174" s="45"/>
-      <c r="L174" s="44"/>
-      <c r="M174" s="45"/>
-      <c r="N174" s="44"/>
-      <c r="O174" s="45"/>
-      <c r="P174" s="44"/>
-      <c r="Q174" s="45"/>
-      <c r="R174" s="44"/>
-      <c r="S174" s="46"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-      <c r="AB174" s="2"/>
-      <c r="AC174" s="2"/>
-      <c r="AD174" s="2"/>
-      <c r="AE174" s="2"/>
-      <c r="AF174" s="2"/>
-      <c r="AG174" s="2"/>
-      <c r="AH174" s="2"/>
-      <c r="AI174" s="2"/>
-      <c r="AJ174" s="2"/>
-      <c r="AK174" s="2"/>
-      <c r="AL174" s="2"/>
-      <c r="AM174" s="2"/>
-      <c r="AN174" s="2"/>
-      <c r="AO174" s="2"/>
-      <c r="AP174" s="2"/>
-      <c r="AQ174" s="2"/>
-      <c r="AR174" s="2"/>
-      <c r="AS174" s="2"/>
-      <c r="AT174" s="2"/>
-      <c r="AU174" s="2"/>
-      <c r="AV174" s="2"/>
-      <c r="AW174" s="2"/>
-      <c r="AX174" s="2"/>
-      <c r="AY174" s="2"/>
-      <c r="AZ174" s="2"/>
-      <c r="BA174" s="2"/>
-      <c r="BB174" s="2"/>
-      <c r="BC174" s="2"/>
-      <c r="BD174" s="2"/>
-      <c r="BE174" s="2"/>
-      <c r="BF174" s="2"/>
-      <c r="BG174" s="2"/>
-      <c r="BH174" s="2"/>
-      <c r="BI174" s="2"/>
-      <c r="BJ174" s="2"/>
-      <c r="BK174" s="2"/>
-      <c r="BL174" s="2"/>
-      <c r="BM174" s="2"/>
-      <c r="BN174" s="2"/>
-      <c r="BO174" s="2"/>
-      <c r="BP174" s="2"/>
-      <c r="BQ174" s="2"/>
-      <c r="BR174" s="2"/>
-      <c r="BS174" s="2"/>
-      <c r="BT174" s="2"/>
-      <c r="BU174" s="2"/>
-      <c r="BV174" s="2"/>
-      <c r="BW174" s="2"/>
-      <c r="BX174" s="2"/>
-      <c r="BY174" s="2"/>
-      <c r="BZ174" s="2"/>
-      <c r="CA174" s="2"/>
-      <c r="CB174" s="2"/>
-      <c r="CC174" s="2"/>
-      <c r="CD174" s="2"/>
-      <c r="CE174" s="2"/>
-      <c r="CF174" s="2"/>
-      <c r="CG174" s="2"/>
-      <c r="CH174" s="2"/>
-      <c r="CI174" s="2"/>
-      <c r="CJ174" s="2"/>
-      <c r="CK174" s="2"/>
-      <c r="CL174" s="2"/>
-      <c r="CM174" s="2"/>
-      <c r="CN174" s="2"/>
-      <c r="CO174" s="2"/>
-      <c r="CP174" s="2"/>
-      <c r="CQ174" s="2"/>
-      <c r="CR174" s="2"/>
-      <c r="CS174" s="2"/>
-      <c r="CT174" s="2"/>
-      <c r="CU174" s="2"/>
-      <c r="CV174" s="2"/>
-      <c r="CW174" s="2"/>
-      <c r="CX174" s="2"/>
-      <c r="CY174" s="2"/>
-      <c r="CZ174" s="2"/>
-      <c r="DA174" s="2"/>
-      <c r="DB174" s="2"/>
-      <c r="DC174" s="2"/>
-      <c r="DD174" s="2"/>
-    </row>
-    <row r="175" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="47"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="38"/>
-      <c r="E175" s="39"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="39"/>
-      <c r="H175" s="38"/>
-      <c r="I175" s="39"/>
-      <c r="J175" s="38"/>
-      <c r="K175" s="39"/>
-      <c r="L175" s="38"/>
-      <c r="M175" s="39"/>
-      <c r="N175" s="38"/>
-      <c r="O175" s="39"/>
-      <c r="P175" s="38"/>
-      <c r="Q175" s="39"/>
-      <c r="R175" s="38"/>
-      <c r="S175" s="40"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
-      <c r="AB175" s="2"/>
-      <c r="AC175" s="2"/>
-      <c r="AD175" s="2"/>
-      <c r="AE175" s="2"/>
-      <c r="AF175" s="2"/>
-      <c r="AG175" s="2"/>
-      <c r="AH175" s="2"/>
-      <c r="AI175" s="2"/>
-      <c r="AJ175" s="2"/>
-      <c r="AK175" s="2"/>
-      <c r="AL175" s="2"/>
-      <c r="AM175" s="2"/>
-      <c r="AN175" s="2"/>
-      <c r="AO175" s="2"/>
-      <c r="AP175" s="2"/>
-      <c r="AQ175" s="2"/>
-      <c r="AR175" s="2"/>
-      <c r="AS175" s="2"/>
-      <c r="AT175" s="2"/>
-      <c r="AU175" s="2"/>
-      <c r="AV175" s="2"/>
-      <c r="AW175" s="2"/>
-      <c r="AX175" s="2"/>
-      <c r="AY175" s="2"/>
-      <c r="AZ175" s="2"/>
-      <c r="BA175" s="2"/>
-      <c r="BB175" s="2"/>
-      <c r="BC175" s="2"/>
-      <c r="BD175" s="2"/>
-      <c r="BE175" s="2"/>
-      <c r="BF175" s="2"/>
-      <c r="BG175" s="2"/>
-      <c r="BH175" s="2"/>
-      <c r="BI175" s="2"/>
-      <c r="BJ175" s="2"/>
-      <c r="BK175" s="2"/>
-      <c r="BL175" s="2"/>
-      <c r="BM175" s="2"/>
-      <c r="BN175" s="2"/>
-      <c r="BO175" s="2"/>
-      <c r="BP175" s="2"/>
-      <c r="BQ175" s="2"/>
-      <c r="BR175" s="2"/>
-      <c r="BS175" s="2"/>
-      <c r="BT175" s="2"/>
-      <c r="BU175" s="2"/>
-      <c r="BV175" s="2"/>
-      <c r="BW175" s="2"/>
-      <c r="BX175" s="2"/>
-      <c r="BY175" s="2"/>
-      <c r="BZ175" s="2"/>
-      <c r="CA175" s="2"/>
-      <c r="CB175" s="2"/>
-      <c r="CC175" s="2"/>
-      <c r="CD175" s="2"/>
-      <c r="CE175" s="2"/>
-      <c r="CF175" s="2"/>
-      <c r="CG175" s="2"/>
-      <c r="CH175" s="2"/>
-      <c r="CI175" s="2"/>
-      <c r="CJ175" s="2"/>
-      <c r="CK175" s="2"/>
-      <c r="CL175" s="2"/>
-      <c r="CM175" s="2"/>
-      <c r="CN175" s="2"/>
-      <c r="CO175" s="2"/>
-      <c r="CP175" s="2"/>
-      <c r="CQ175" s="2"/>
-      <c r="CR175" s="2"/>
-      <c r="CS175" s="2"/>
-      <c r="CT175" s="2"/>
-      <c r="CU175" s="2"/>
-      <c r="CV175" s="2"/>
-      <c r="CW175" s="2"/>
-      <c r="CX175" s="2"/>
-      <c r="CY175" s="2"/>
-      <c r="CZ175" s="2"/>
-      <c r="DA175" s="2"/>
-      <c r="DB175" s="2"/>
-      <c r="DC175" s="2"/>
-      <c r="DD175" s="2"/>
-    </row>
-    <row r="176" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="47"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="64"/>
-      <c r="E176" s="65"/>
-      <c r="F176" s="64"/>
-      <c r="G176" s="65"/>
-      <c r="H176" s="64"/>
-      <c r="I176" s="65"/>
-      <c r="J176" s="64"/>
-      <c r="K176" s="65"/>
-      <c r="L176" s="64"/>
-      <c r="M176" s="65"/>
-      <c r="N176" s="64"/>
-      <c r="O176" s="65"/>
-      <c r="P176" s="64"/>
-      <c r="Q176" s="65"/>
-      <c r="R176" s="64"/>
-      <c r="S176" s="48"/>
-    </row>
-    <row r="177" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="50"/>
-      <c r="B177" s="51"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="66"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="66"/>
-      <c r="G177" s="67"/>
-      <c r="H177" s="66"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="66"/>
-      <c r="K177" s="67"/>
-      <c r="L177" s="66"/>
-      <c r="M177" s="67"/>
-      <c r="N177" s="66"/>
-      <c r="O177" s="67"/>
-      <c r="P177" s="66"/>
-      <c r="Q177" s="67"/>
-      <c r="R177" s="66"/>
-      <c r="S177" s="51"/>
-    </row>
+    <row r="157" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="178" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="179" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="B180" s="68"/>
-      <c r="C180" s="68"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="68"/>
-      <c r="F180" s="68"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="68"/>
-      <c r="I180" s="68"/>
-      <c r="J180" s="68"/>
-    </row>
+    <row r="180" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="181" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="183" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -21477,32 +18854,8 @@
     <row r="302" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="303" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="304" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="405">
+  <mergeCells count="382">
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -21540,15 +18893,8 @@
     <mergeCell ref="A16:A39"/>
     <mergeCell ref="B16:B39"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D17:S18"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
@@ -21604,20 +18950,15 @@
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:S29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:S30"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:S30"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C39"/>
@@ -21684,6 +19025,9 @@
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="C58:C60"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R60:S60"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
@@ -21737,7 +19081,9 @@
     <mergeCell ref="R81:S81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="D82:S82"/>
-    <mergeCell ref="D83:S83"/>
+    <mergeCell ref="D83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
     <mergeCell ref="D84:O84"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="R84:S84"/>
@@ -21813,27 +19159,21 @@
     <mergeCell ref="N111:O111"/>
     <mergeCell ref="R111:S111"/>
     <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:S112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:S113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:S114"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:S112"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:S113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:S114"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="C121:C123"/>
     <mergeCell ref="A124:A147"/>
     <mergeCell ref="B124:B147"/>
     <mergeCell ref="C124:C126"/>
-    <mergeCell ref="D124:S124"/>
-    <mergeCell ref="D125:S125"/>
-    <mergeCell ref="D126:S126"/>
     <mergeCell ref="C127:C129"/>
     <mergeCell ref="D127:E127"/>
     <mergeCell ref="F127:G127"/>
@@ -21886,28 +19226,18 @@
     <mergeCell ref="P135:Q135"/>
     <mergeCell ref="R135:S135"/>
     <mergeCell ref="C136:C138"/>
-    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="P136:Q136"/>
     <mergeCell ref="R136:S136"/>
-    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="P137:Q137"/>
     <mergeCell ref="R137:S137"/>
-    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="P138:Q138"/>
     <mergeCell ref="R138:S138"/>
     <mergeCell ref="C139:C141"/>
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="C148:C150"/>
-    <mergeCell ref="A151:A174"/>
-    <mergeCell ref="B151:B174"/>
     <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="A180:J180"/>
+    <mergeCell ref="A156:J156"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/python/table.xlsx
+++ b/python/table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="213">
   <si>
     <t xml:space="preserve">УТВЕРЖДАЮ</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Дневная форма получения образования</t>
   </si>
   <si>
-    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (19.09.2022 - 24.09.2022)</t>
+    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (10.10.2022 - 15.10.2022)</t>
   </si>
   <si>
     <t xml:space="preserve">№</t>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">1 курс</t>
   </si>
   <si>
+    <t xml:space="preserve">Информационные системы и технологии</t>
+  </si>
+  <si>
     <t xml:space="preserve">Математика и информатика</t>
   </si>
   <si>
@@ -145,7 +148,7 @@
     <t xml:space="preserve">Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">19 Сентября 2022</t>
+    <t xml:space="preserve">10 Октября 2022</t>
   </si>
   <si>
     <t xml:space="preserve">1     (08.00-09.25)</t>
@@ -154,6 +157,9 @@
     <t xml:space="preserve">Физическая культура (пз)</t>
   </si>
   <si>
+    <t xml:space="preserve">Шатуха И.Г. (ст.пр.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2     (09.35-11.00)</t>
   </si>
   <si>
@@ -178,7 +184,7 @@
     <t xml:space="preserve">Математический анализ (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">Воробьёв С.Н. (доц.)</t>
+    <t xml:space="preserve">Шлапаков С.А. (доц.)</t>
   </si>
   <si>
     <t xml:space="preserve">Булгакова Н.В. (ст.пр.)</t>
@@ -190,24 +196,27 @@
     <t xml:space="preserve">Исаченко Ю.В. (пр.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Столяренко А.Ю. (пр.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Иванова Ж.В. (доц.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ермоченко С.А. (доц.)*</t>
+    <t xml:space="preserve">Сергеенко С.В. (ст.пр.)</t>
   </si>
   <si>
     <t xml:space="preserve">Трубников Ю.В. (проф.)</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд. 526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 412</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 534</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 526</t>
-  </si>
-  <si>
     <t xml:space="preserve">ауд. 307</t>
   </si>
   <si>
@@ -268,375 +277,375 @@
     <t xml:space="preserve">ауд. 219</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд. 302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4     (13.05-14.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы компьютерной графики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в анализ (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в высшую математику (лк)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов В.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 141</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 213</t>
   </si>
   <si>
+    <t xml:space="preserve">5     (14.40-16.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6     (16.35-18.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7     (18.10-19.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гончарова С.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8     (19.45-21.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вторник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мехович А.П. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">История белорусской государственности (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы программной инженерии (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасность жизнедеятельности человека (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пархимович Н.Н. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ермоченко С.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дударев А.Н. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программирование в визуализированных средах (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шедько В.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 200е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика и мультимедиа (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы информатики (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы программной инженерии (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исаченко А.С. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стайнова А.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы компьютерной графики (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы психологии и педагогики (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы и методологии программирования (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенова Н.С. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чиркина А.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы психологии и педагогики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Механика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. спортзал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курат. час</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павлыш Э.В. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Четверг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы конструирования программ (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в специальность (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы конструирования программ (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в специальность (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная физика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 321</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4     (13.05-14.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы компьютерной графики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в анализ (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов В.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 141</t>
+    <t xml:space="preserve">ауд. 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы высшей алгебры (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архитектура вычислительных систем (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Давлятова Е.В. (доц.)</t>
   </si>
   <si>
     <t xml:space="preserve">ауд. 615</t>
   </si>
   <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы высшей алгебры (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Механика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пятница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технологии разработки программного обеспечения (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программирование в визуализированных средах (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика (лк)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 413а</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5     (14.40-16.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончарова С.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6     (16.35-18.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7     (18.10-19.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8     (19.45-21.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вторник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейная алгебра (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мехович А.П. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">История белорусской государственности (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы программной инженерии (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Безопасность жизнедеятельности человека (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пархимович Н.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ермоченко С.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дударев А.Н. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы информатики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чиркина А.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 200е</t>
-  </si>
-  <si>
     <t xml:space="preserve">ауд. 536</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 612а</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика и мультимедиа (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы программной инженерии (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Механика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исаченко А.С. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Методы обработки результатов измерений (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы компьютерной графики (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы психологии и педагогики (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы и методологии программирования (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Математическая логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикладная информатика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семенова Н.С. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы психологии и педагогики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Четверг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы конструирования программ (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в специальность (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономическая теория (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в высшую математику (лк)(фак-в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы конструирования программ (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в специальность (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономическая теория (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная физика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы высшей алгебры (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архитектура вычислительных систем (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Давлятова Е.В. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы высшей алгебры (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикладная информатика (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Механика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пятница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Сентября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технологии разработки программного обеспечения (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы информатики (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 605</t>
-  </si>
-  <si>
     <t xml:space="preserve">Технологии разработки программного обеспечения (лаб)</t>
   </si>
   <si>
-    <t xml:space="preserve">Программирование в визуализированных средах (лаб)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Белорусский язык (профессиональная лексика) (пз)</t>
   </si>
   <si>
@@ -647,9 +656,6 @@
   </si>
   <si>
     <t xml:space="preserve">Орлова Н.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 612</t>
   </si>
   <si>
     <t xml:space="preserve">Декан факультета математики и информационных технологий _________________ Е.Н. Залесская</t>
@@ -732,16 +738,16 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
     </font>
     <font>
@@ -771,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -871,37 +877,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thick"/>
-      <top style="thin"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -935,23 +920,23 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thick"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thin"/>
-      <top/>
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1075,9 +1060,23 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thick"/>
-      <right style="thick"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1106,7 +1105,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1211,23 +1210,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1235,27 +1258,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,55 +1294,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1339,48 +1338,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1442,14 +1425,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1008000</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,8 +1445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7326000" y="31424400"/>
-          <a:ext cx="1008000" cy="703440"/>
+          <a:off x="7326000" y="31392360"/>
+          <a:ext cx="1008000" cy="703800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,22 +1462,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DD304"/>
+  <dimension ref="A1:DD301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q87" activeCellId="0" sqref="Q87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="4" style="1" width="21.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="4" style="1" width="21.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,34 +2215,36 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="2"/>
@@ -2357,35 +2342,35 @@
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="2"/>
@@ -2483,52 +2468,52 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2622,16 +2607,16 @@
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -2644,10 +2629,14 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="P16" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="R16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="26"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2742,22 +2731,24 @@
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2852,22 +2843,22 @@
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2961,43 +2952,43 @@
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
+      <c r="C19" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
+      <c r="D19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="28" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28" t="s">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29" t="s">
+      <c r="K19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="34"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -3091,39 +3082,41 @@
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="30" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="32" t="s">
+      <c r="K20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="32"/>
+      <c r="L20" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="29"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3217,41 +3210,41 @@
     <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33" t="s">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34" t="s">
+      <c r="K21" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="34"/>
+      <c r="L21" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="37"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3345,47 +3338,47 @@
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28" t="s">
+      <c r="C22" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28" t="s">
+      <c r="D22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" s="28" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="S22" s="29"/>
+      <c r="I22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="34"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -3479,45 +3472,45 @@
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="30" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="31" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="I23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="32" t="s">
+      <c r="J23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="32"/>
+      <c r="L23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="S23" s="29"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -3611,45 +3604,45 @@
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="33" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="33" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" s="34"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" s="37"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -3743,47 +3736,47 @@
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="28" t="s">
+      <c r="C25" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28" t="s">
+      <c r="D25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q25" s="28" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="R25" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="S25" s="29"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="S25" s="34"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -3877,43 +3870,45 @@
     <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="S26" s="29"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -4007,45 +4002,45 @@
     <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="33" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33" t="s">
+      <c r="I27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="S27" s="34"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27" s="37"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -4139,31 +4134,29 @@
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
+      <c r="C28" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -4257,29 +4250,27 @@
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="43"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -4373,29 +4364,27 @@
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="46"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -4489,8 +4478,8 @@
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="27" t="s">
-        <v>101</v>
+      <c r="C31" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
@@ -4601,7 +4590,7 @@
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="27"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
       <c r="F32" s="41"/>
@@ -4711,7 +4700,7 @@
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="27"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
       <c r="F33" s="44"/>
@@ -4821,25 +4810,29 @@
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="27" t="s">
-        <v>102</v>
+      <c r="C34" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
       <c r="F34" s="38"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
+      <c r="H34" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="38"/>
       <c r="O34" s="39"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="40"/>
+      <c r="R34" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="S34" s="33"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -4933,23 +4926,27 @@
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
       <c r="F35" s="41"/>
       <c r="G35" s="42"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42"/>
+      <c r="H35" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
       <c r="N35" s="41"/>
       <c r="O35" s="42"/>
       <c r="P35" s="41"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="43"/>
+      <c r="R35" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="S35" s="28"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -5043,23 +5040,27 @@
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="27"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
       <c r="F36" s="44"/>
       <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
+      <c r="H36" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="44"/>
       <c r="O36" s="45"/>
       <c r="P36" s="44"/>
       <c r="Q36" s="45"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="46"/>
+      <c r="R36" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="S36" s="36"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -5153,8 +5154,8 @@
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="27" t="s">
-        <v>103</v>
+      <c r="C37" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
@@ -5265,7 +5266,7 @@
     <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="27"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="41"/>
       <c r="E38" s="42"/>
       <c r="F38" s="41"/>
@@ -5375,7 +5376,7 @@
     <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="27"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="44"/>
       <c r="E39" s="45"/>
       <c r="F39" s="44"/>
@@ -5814,13 +5815,13 @@
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="56"/>
@@ -6151,41 +6152,41 @@
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28" t="s">
+      <c r="C46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="S46" s="29"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S46" s="34"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -6279,37 +6280,39 @@
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M47" s="31"/>
-      <c r="N47" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="S47" s="32"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="S47" s="29"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -6403,39 +6406,39 @@
     <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M48" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="N48" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="S48" s="34"/>
+      <c r="M48" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="37"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -6529,35 +6532,35 @@
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28" t="s">
+      <c r="C49" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="29" t="s">
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="29"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="S49" s="34"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -6651,33 +6654,33 @@
     <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="S50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="S50" s="29"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -6771,33 +6774,33 @@
     <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S51" s="34"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="S51" s="37"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -6891,37 +6894,37 @@
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28" t="s">
+      <c r="C52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K52" s="28"/>
-      <c r="L52" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
+      <c r="D52" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -7015,33 +7018,35 @@
     <row r="53" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="28"/>
+      <c r="L53" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -7135,35 +7140,35 @@
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="33" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -7257,41 +7262,43 @@
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="27" t="s">
-        <v>97</v>
+      <c r="C55" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="O55" s="28" t="s">
-        <v>128</v>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="P55" s="38"/>
       <c r="Q55" s="39"/>
-      <c r="R55" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="S55" s="29"/>
+      <c r="R55" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S55" s="34"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -7385,37 +7392,41 @@
     <row r="56" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="27"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="41"/>
       <c r="E56" s="42"/>
-      <c r="F56" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="31"/>
-      <c r="J56" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M56" s="30"/>
-      <c r="N56" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O56" s="31" t="s">
-        <v>132</v>
+      <c r="F56" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M56" s="28"/>
+      <c r="N56" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O56" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="P56" s="41"/>
       <c r="Q56" s="42"/>
-      <c r="R56" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="S56" s="32"/>
+      <c r="R56" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56" s="29"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -7509,39 +7520,41 @@
     <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="44"/>
       <c r="E57" s="45"/>
-      <c r="F57" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="O57" s="33" t="s">
-        <v>136</v>
+      <c r="F57" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="P57" s="44"/>
       <c r="Q57" s="45"/>
-      <c r="R57" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="S57" s="34"/>
+      <c r="R57" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="S57" s="37"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -7635,8 +7648,8 @@
     <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="27" t="s">
-        <v>101</v>
+      <c r="C58" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
@@ -7652,10 +7665,8 @@
       <c r="O58" s="39"/>
       <c r="P58" s="38"/>
       <c r="Q58" s="39"/>
-      <c r="R58" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="S58" s="29"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="40"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -7749,7 +7760,7 @@
     <row r="59" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
       <c r="F59" s="41"/>
@@ -7764,10 +7775,8 @@
       <c r="O59" s="42"/>
       <c r="P59" s="41"/>
       <c r="Q59" s="42"/>
-      <c r="R59" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="S59" s="32"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="43"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -7861,7 +7870,7 @@
     <row r="60" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="44"/>
       <c r="E60" s="45"/>
       <c r="F60" s="44"/>
@@ -7876,10 +7885,8 @@
       <c r="O60" s="45"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="45"/>
-      <c r="R60" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="S60" s="34"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="46"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -7973,8 +7980,8 @@
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="27" t="s">
-        <v>102</v>
+      <c r="C61" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
@@ -8085,7 +8092,7 @@
     <row r="62" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="41"/>
       <c r="E62" s="42"/>
       <c r="F62" s="41"/>
@@ -8195,7 +8202,7 @@
     <row r="63" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="44"/>
       <c r="E63" s="45"/>
       <c r="F63" s="44"/>
@@ -8305,8 +8312,8 @@
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="27" t="s">
-        <v>103</v>
+      <c r="C64" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
@@ -8417,7 +8424,7 @@
     <row r="65" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="41"/>
       <c r="E65" s="42"/>
       <c r="F65" s="41"/>
@@ -8527,7 +8534,7 @@
     <row r="66" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="44"/>
       <c r="E66" s="45"/>
       <c r="F66" s="44"/>
@@ -8966,13 +8973,13 @@
     </row>
     <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="56"/>
@@ -9303,42 +9310,42 @@
     <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28" t="s">
+      <c r="C73" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28" t="s">
+      <c r="E73" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28" t="s">
+      <c r="G73" s="33"/>
+      <c r="H73" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="S73" s="29" t="s">
-        <v>71</v>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S73" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -9433,40 +9440,40 @@
     <row r="74" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="S74" s="60" t="s">
-        <v>92</v>
+      <c r="C74" s="32"/>
+      <c r="D74" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S74" s="59" t="s">
+        <v>95</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -9561,40 +9568,40 @@
     <row r="75" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33" t="s">
+      <c r="C75" s="32"/>
+      <c r="D75" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="S75" s="34" t="s">
-        <v>63</v>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="S75" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -9689,41 +9696,41 @@
     <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28" t="s">
+      <c r="C76" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="O76" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P76" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q76" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="R76" s="29" t="s">
+      <c r="G76" s="33"/>
+      <c r="H76" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="S76" s="29"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O76" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P76" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="R76" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="S76" s="34"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -9817,39 +9824,39 @@
     <row r="77" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="O77" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P77" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="R77" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="S77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P77" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="R77" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S77" s="29"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -9943,39 +9950,39 @@
     <row r="78" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O78" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="P78" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q78" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="R78" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="S78" s="34"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O78" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="R78" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="S78" s="37"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -10069,47 +10076,47 @@
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="K79" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L79" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="O79" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P79" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q79" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="R79" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="S79" s="29"/>
+      <c r="C79" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K79" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L79" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O79" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P79" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q79" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S79" s="34"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -10203,43 +10210,45 @@
     <row r="80" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="30" t="s">
+      <c r="C80" s="32"/>
+      <c r="D80" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" s="28"/>
+      <c r="J80" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M80" s="28"/>
+      <c r="N80" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="O80" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="R80" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I80" s="30"/>
-      <c r="J80" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K80" s="31"/>
-      <c r="L80" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M80" s="30"/>
-      <c r="N80" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="O80" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P80" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="R80" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="S80" s="32"/>
+      <c r="S80" s="29"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -10333,45 +10342,45 @@
     <row r="81" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K81" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="L81" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O81" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="P81" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q81" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="R81" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="S81" s="34"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K81" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O81" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="P81" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q81" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="R81" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="S81" s="37"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -10465,27 +10474,27 @@
     <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="61"/>
+      <c r="C82" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -10579,23 +10588,23 @@
     <row r="83" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
@@ -10689,23 +10698,25 @@
     <row r="84" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="63"/>
-      <c r="S84" s="63"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -10799,8 +10810,8 @@
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
-      <c r="C85" s="27" t="s">
-        <v>101</v>
+      <c r="C85" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D85" s="38"/>
       <c r="E85" s="39"/>
@@ -10814,8 +10825,10 @@
       <c r="M85" s="39"/>
       <c r="N85" s="38"/>
       <c r="O85" s="39"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="39"/>
+      <c r="P85" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q85" s="33"/>
       <c r="R85" s="38"/>
       <c r="S85" s="40"/>
       <c r="T85" s="2"/>
@@ -10911,7 +10924,7 @@
     <row r="86" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="27"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="41"/>
       <c r="E86" s="42"/>
       <c r="F86" s="41"/>
@@ -10924,8 +10937,10 @@
       <c r="M86" s="42"/>
       <c r="N86" s="41"/>
       <c r="O86" s="42"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="42"/>
+      <c r="P86" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q86" s="28"/>
       <c r="R86" s="41"/>
       <c r="S86" s="43"/>
       <c r="T86" s="2"/>
@@ -11021,7 +11036,7 @@
     <row r="87" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="27"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="44"/>
       <c r="E87" s="45"/>
       <c r="F87" s="44"/>
@@ -11034,8 +11049,10 @@
       <c r="M87" s="45"/>
       <c r="N87" s="44"/>
       <c r="O87" s="45"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="45"/>
+      <c r="P87" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q87" s="36"/>
       <c r="R87" s="44"/>
       <c r="S87" s="46"/>
       <c r="T87" s="2"/>
@@ -11131,8 +11148,8 @@
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="27" t="s">
-        <v>102</v>
+      <c r="C88" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D88" s="38"/>
       <c r="E88" s="39"/>
@@ -11243,7 +11260,7 @@
     <row r="89" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="27"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="41"/>
       <c r="E89" s="42"/>
       <c r="F89" s="41"/>
@@ -11353,7 +11370,7 @@
     <row r="90" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="27"/>
+      <c r="C90" s="32"/>
       <c r="D90" s="44"/>
       <c r="E90" s="45"/>
       <c r="F90" s="44"/>
@@ -11463,8 +11480,8 @@
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
-      <c r="C91" s="27" t="s">
-        <v>103</v>
+      <c r="C91" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="39"/>
@@ -11575,7 +11592,7 @@
     <row r="92" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="27"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="41"/>
       <c r="E92" s="42"/>
       <c r="F92" s="41"/>
@@ -11685,7 +11702,7 @@
     <row r="93" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
-      <c r="C93" s="27"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="44"/>
       <c r="E93" s="45"/>
       <c r="F93" s="44"/>
@@ -12124,13 +12141,13 @@
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="22" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D97" s="55"/>
       <c r="E97" s="56"/>
@@ -12461,41 +12478,41 @@
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
-      <c r="C100" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M100" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="N100" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="S100" s="29"/>
+      <c r="C100" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M100" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N100" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="S100" s="34"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
@@ -12589,37 +12606,39 @@
     <row r="101" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M101" s="31"/>
-      <c r="N101" s="30" t="s">
+      <c r="C101" s="32"/>
+      <c r="D101" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M101" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="N101" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="S101" s="32"/>
+      <c r="S101" s="29"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
@@ -12713,39 +12732,39 @@
     <row r="102" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33" t="s">
+      <c r="C102" s="32"/>
+      <c r="D102" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M102" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="N102" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M102" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="N102" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="O102" s="33"/>
-      <c r="P102" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q102" s="33"/>
-      <c r="R102" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="S102" s="34"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="S102" s="37"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
@@ -12839,45 +12858,45 @@
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
-      <c r="C103" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="J103" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="S103" s="29"/>
+      <c r="C103" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H103" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="I103" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J103" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="S103" s="34"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
@@ -12971,43 +12990,43 @@
     <row r="104" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E104" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F104" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I104" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J104" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="30"/>
-      <c r="N104" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O104" s="30"/>
-      <c r="P104" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q104" s="30"/>
-      <c r="R104" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="S104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="J104" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="S104" s="29"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
@@ -13101,43 +13120,43 @@
     <row r="105" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H105" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="I105" s="33" t="s">
+      <c r="C105" s="32"/>
+      <c r="D105" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H105" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="I105" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J105" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="J105" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q105" s="33"/>
-      <c r="R105" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="S105" s="34"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="S105" s="37"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
@@ -13231,45 +13250,45 @@
     <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
-      <c r="C106" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q106" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="R106" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="S106" s="29"/>
+      <c r="C106" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="K106" s="33"/>
+      <c r="L106" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M106" s="33"/>
+      <c r="N106" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O106" s="33"/>
+      <c r="P106" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q106" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="R106" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="S106" s="34"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
@@ -13363,43 +13382,43 @@
     <row r="107" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H107" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30" t="s">
+      <c r="C107" s="32"/>
+      <c r="D107" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" s="28"/>
+      <c r="F107" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O107" s="30"/>
-      <c r="P107" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q107" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="R107" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="S107" s="32"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O107" s="28"/>
+      <c r="P107" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q107" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="R107" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S107" s="29"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
@@ -13493,43 +13512,43 @@
     <row r="108" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G108" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H108" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q108" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="R108" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="S108" s="34"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G108" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H108" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O108" s="36"/>
+      <c r="P108" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q108" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="R108" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="S108" s="37"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
@@ -13623,43 +13642,43 @@
     <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
-      <c r="C109" s="27" t="s">
-        <v>97</v>
+      <c r="C109" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="D109" s="38"/>
       <c r="E109" s="39"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I109" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="J109" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="M109" s="28"/>
-      <c r="N109" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O109" s="28"/>
-      <c r="P109" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q109" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="R109" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="S109" s="29"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I109" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J109" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="O109" s="33"/>
+      <c r="P109" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q109" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="R109" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="S109" s="34"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
@@ -13753,39 +13772,41 @@
     <row r="110" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
-      <c r="C110" s="27"/>
+      <c r="C110" s="32"/>
       <c r="D110" s="41"/>
       <c r="E110" s="42"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H110" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I110" s="31"/>
-      <c r="J110" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M110" s="30"/>
-      <c r="N110" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O110" s="30"/>
-      <c r="P110" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q110" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="R110" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="S110" s="32"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J110" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O110" s="28"/>
+      <c r="P110" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q110" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="R110" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="S110" s="29"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
@@ -13879,41 +13900,41 @@
     <row r="111" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
-      <c r="C111" s="27"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="44"/>
       <c r="E111" s="45"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H111" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="I111" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J111" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="M111" s="33"/>
-      <c r="N111" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O111" s="33"/>
-      <c r="P111" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q111" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="R111" s="34" t="s">
+      <c r="F111" s="60"/>
+      <c r="G111" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H111" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J111" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q111" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="R111" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="S111" s="34"/>
+      <c r="S111" s="37"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
@@ -14007,31 +14028,29 @@
     <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
-      <c r="C112" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="O112" s="35"/>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="35"/>
-      <c r="S112" s="35"/>
+      <c r="C112" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="34"/>
+      <c r="S112" s="34"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
@@ -14125,29 +14144,27 @@
     <row r="113" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="K113" s="30"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="30"/>
-      <c r="N113" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="O113" s="36"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="36"/>
-      <c r="R113" s="36"/>
-      <c r="S113" s="36"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="M113" s="58"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="58"/>
+      <c r="Q113" s="58"/>
+      <c r="R113" s="58"/>
+      <c r="S113" s="58"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
@@ -14241,24 +14258,22 @@
     <row r="114" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="33"/>
-      <c r="N114" s="37" t="s">
-        <v>99</v>
-      </c>
+      <c r="C114" s="32"/>
+      <c r="D114" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
       <c r="O114" s="37"/>
       <c r="P114" s="37"/>
       <c r="Q114" s="37"/>
@@ -14357,8 +14372,8 @@
     <row r="115" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
-      <c r="C115" s="27" t="s">
-        <v>102</v>
+      <c r="C115" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D115" s="38"/>
       <c r="E115" s="39"/>
@@ -14469,7 +14484,7 @@
     <row r="116" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
-      <c r="C116" s="27"/>
+      <c r="C116" s="32"/>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
       <c r="F116" s="41"/>
@@ -14579,7 +14594,7 @@
     <row r="117" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
-      <c r="C117" s="27"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="44"/>
       <c r="E117" s="45"/>
       <c r="F117" s="44"/>
@@ -14689,8 +14704,8 @@
     <row r="118" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
-      <c r="C118" s="27" t="s">
-        <v>103</v>
+      <c r="C118" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="39"/>
@@ -14801,7 +14816,7 @@
     <row r="119" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
-      <c r="C119" s="27"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="41"/>
       <c r="E119" s="42"/>
       <c r="F119" s="41"/>
@@ -14911,7 +14926,7 @@
     <row r="120" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
-      <c r="C120" s="27"/>
+      <c r="C120" s="32"/>
       <c r="D120" s="44"/>
       <c r="E120" s="45"/>
       <c r="F120" s="44"/>
@@ -15350,20 +15365,22 @@
     </row>
     <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D124" s="55"/>
       <c r="E124" s="56"/>
       <c r="F124" s="55"/>
       <c r="G124" s="56"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="56"/>
+      <c r="H124" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I124" s="25"/>
       <c r="J124" s="55"/>
       <c r="K124" s="56"/>
       <c r="L124" s="55"/>
@@ -15472,8 +15489,10 @@
       <c r="E125" s="42"/>
       <c r="F125" s="41"/>
       <c r="G125" s="42"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="42"/>
+      <c r="H125" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125" s="28"/>
       <c r="J125" s="41"/>
       <c r="K125" s="42"/>
       <c r="L125" s="41"/>
@@ -15582,8 +15601,10 @@
       <c r="E126" s="45"/>
       <c r="F126" s="44"/>
       <c r="G126" s="45"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="45"/>
+      <c r="H126" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I126" s="36"/>
       <c r="J126" s="44"/>
       <c r="K126" s="45"/>
       <c r="L126" s="44"/>
@@ -15687,43 +15708,43 @@
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
-      <c r="C127" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D127" s="28" t="s">
+      <c r="C127" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="O127" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P127" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q127" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="M127" s="28"/>
-      <c r="N127" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="O127" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="P127" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q127" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="R127" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="S127" s="29"/>
+      <c r="R127" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="S127" s="34"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
@@ -15817,39 +15838,41 @@
     <row r="128" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="I128" s="30"/>
-      <c r="J128" s="30"/>
-      <c r="K128" s="30"/>
-      <c r="L128" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M128" s="30"/>
-      <c r="N128" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31" t="s">
+      <c r="C128" s="32"/>
+      <c r="D128" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M128" s="28"/>
+      <c r="N128" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="Q128" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="R128" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="S128" s="32"/>
+      <c r="O128" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="P128" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q128" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="R128" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="S128" s="29"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
@@ -15943,41 +15966,41 @@
     <row r="129" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="33" t="s">
+      <c r="C129" s="32"/>
+      <c r="D129" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M129" s="36"/>
+      <c r="N129" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="O129" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="P129" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="M129" s="33"/>
-      <c r="N129" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O129" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="P129" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q129" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="R129" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="S129" s="34"/>
+      <c r="Q129" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="R129" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="S129" s="37"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
@@ -16071,43 +16094,43 @@
     <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
-      <c r="C130" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="M130" s="28"/>
-      <c r="N130" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="O130" s="28"/>
-      <c r="P130" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q130" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="R130" s="29" t="s">
+      <c r="C130" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="S130" s="29"/>
+      <c r="D130" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I130" s="33"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O130" s="33"/>
+      <c r="P130" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q130" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="R130" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S130" s="34"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
@@ -16201,41 +16224,41 @@
     <row r="131" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="I131" s="30"/>
-      <c r="J131" s="30"/>
-      <c r="K131" s="30"/>
-      <c r="L131" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="M131" s="30"/>
-      <c r="N131" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O131" s="30"/>
-      <c r="P131" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q131" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="R131" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="S131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M131" s="28"/>
+      <c r="N131" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="O131" s="28"/>
+      <c r="P131" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q131" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="R131" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="S131" s="29"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
@@ -16329,41 +16352,41 @@
     <row r="132" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F132" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M132" s="33"/>
-      <c r="N132" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="O132" s="33"/>
-      <c r="P132" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q132" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="R132" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="S132" s="34"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="O132" s="36"/>
+      <c r="P132" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q132" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="R132" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S132" s="37"/>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
@@ -16457,45 +16480,45 @@
     <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
-      <c r="C133" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D133" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G133" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="H133" s="28" t="s">
+      <c r="C133" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G133" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="H133" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="O133" s="28"/>
-      <c r="P133" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q133" s="28"/>
-      <c r="R133" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="S133" s="29"/>
+      <c r="S133" s="34"/>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
@@ -16589,41 +16612,43 @@
     <row r="134" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F134" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G134" s="31"/>
-      <c r="H134" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I134" s="30"/>
-      <c r="J134" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="K134" s="30"/>
-      <c r="L134" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="M134" s="30"/>
-      <c r="N134" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O134" s="30"/>
-      <c r="P134" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q134" s="30"/>
-      <c r="R134" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="S134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F134" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G134" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H134" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K134" s="28"/>
+      <c r="L134" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M134" s="28"/>
+      <c r="N134" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="O134" s="28"/>
+      <c r="P134" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q134" s="28"/>
+      <c r="R134" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="S134" s="29"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
@@ -16717,43 +16742,43 @@
     <row r="135" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G135" s="33" t="s">
+      <c r="C135" s="32"/>
+      <c r="D135" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F135" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G135" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H135" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="H135" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="I135" s="33"/>
-      <c r="J135" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="K135" s="33"/>
-      <c r="L135" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M135" s="33"/>
-      <c r="N135" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="O135" s="33"/>
-      <c r="P135" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q135" s="33"/>
-      <c r="R135" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="S135" s="34"/>
+      <c r="M135" s="36"/>
+      <c r="N135" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="O135" s="36"/>
+      <c r="P135" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q135" s="36"/>
+      <c r="R135" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S135" s="37"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
@@ -16847,37 +16872,37 @@
     <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
-      <c r="C136" s="27" t="s">
-        <v>97</v>
+      <c r="C136" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="D136" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E136" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F136" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="F136" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="G136" s="64" t="s">
-        <v>204</v>
-      </c>
+      <c r="G136" s="33"/>
       <c r="H136" s="38"/>
       <c r="I136" s="39"/>
       <c r="J136" s="38"/>
       <c r="K136" s="39"/>
       <c r="L136" s="38"/>
       <c r="M136" s="39"/>
-      <c r="N136" s="38"/>
-      <c r="O136" s="39"/>
-      <c r="P136" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q136" s="28"/>
-      <c r="R136" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="S136" s="29"/>
+      <c r="N136" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="S136" s="34"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
@@ -16971,35 +16996,35 @@
     <row r="137" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E137" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F137" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G137" s="31" t="s">
-        <v>148</v>
-      </c>
+      <c r="C137" s="32"/>
+      <c r="D137" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G137" s="27"/>
       <c r="H137" s="41"/>
       <c r="I137" s="42"/>
       <c r="J137" s="41"/>
       <c r="K137" s="42"/>
       <c r="L137" s="41"/>
       <c r="M137" s="42"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="42"/>
-      <c r="P137" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q137" s="30"/>
-      <c r="R137" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S137" s="32"/>
+      <c r="N137" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O137" s="28"/>
+      <c r="P137" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q137" s="28"/>
+      <c r="R137" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="S137" s="29"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
@@ -17093,35 +17118,35 @@
     <row r="138" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G138" s="33" t="s">
-        <v>123</v>
-      </c>
+      <c r="C138" s="32"/>
+      <c r="D138" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F138" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G138" s="60"/>
       <c r="H138" s="44"/>
       <c r="I138" s="45"/>
       <c r="J138" s="44"/>
       <c r="K138" s="45"/>
       <c r="L138" s="44"/>
       <c r="M138" s="45"/>
-      <c r="N138" s="44"/>
-      <c r="O138" s="45"/>
-      <c r="P138" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q138" s="33"/>
-      <c r="R138" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="S138" s="34"/>
+      <c r="N138" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q138" s="36"/>
+      <c r="R138" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="S138" s="37"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
@@ -17215,8 +17240,8 @@
     <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
-      <c r="C139" s="27" t="s">
-        <v>101</v>
+      <c r="C139" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D139" s="38"/>
       <c r="E139" s="39"/>
@@ -17327,7 +17352,7 @@
     <row r="140" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
-      <c r="C140" s="27"/>
+      <c r="C140" s="32"/>
       <c r="D140" s="41"/>
       <c r="E140" s="42"/>
       <c r="F140" s="41"/>
@@ -17437,7 +17462,7 @@
     <row r="141" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="27"/>
+      <c r="C141" s="32"/>
       <c r="D141" s="44"/>
       <c r="E141" s="45"/>
       <c r="F141" s="44"/>
@@ -17547,8 +17572,8 @@
     <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
-      <c r="C142" s="27" t="s">
-        <v>102</v>
+      <c r="C142" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="39"/>
@@ -17659,7 +17684,7 @@
     <row r="143" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
-      <c r="C143" s="27"/>
+      <c r="C143" s="32"/>
       <c r="D143" s="41"/>
       <c r="E143" s="42"/>
       <c r="F143" s="41"/>
@@ -17769,7 +17794,7 @@
     <row r="144" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
-      <c r="C144" s="27"/>
+      <c r="C144" s="32"/>
       <c r="D144" s="44"/>
       <c r="E144" s="45"/>
       <c r="F144" s="44"/>
@@ -17879,8 +17904,8 @@
     <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
-      <c r="C145" s="27" t="s">
-        <v>103</v>
+      <c r="C145" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D145" s="38"/>
       <c r="E145" s="39"/>
@@ -17991,7 +18016,7 @@
     <row r="146" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
-      <c r="C146" s="27"/>
+      <c r="C146" s="32"/>
       <c r="D146" s="41"/>
       <c r="E146" s="42"/>
       <c r="F146" s="41"/>
@@ -18101,7 +18126,7 @@
     <row r="147" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
-      <c r="C147" s="27"/>
+      <c r="C147" s="32"/>
       <c r="D147" s="44"/>
       <c r="E147" s="45"/>
       <c r="F147" s="44"/>
@@ -18538,174 +18563,25 @@
       <c r="DC150" s="2"/>
       <c r="DD150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="47"/>
-      <c r="B151" s="48"/>
-      <c r="C151" s="49"/>
-      <c r="D151" s="38"/>
-      <c r="E151" s="39"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="39"/>
-      <c r="J151" s="38"/>
-      <c r="K151" s="39"/>
-      <c r="L151" s="38"/>
-      <c r="M151" s="39"/>
-      <c r="N151" s="38"/>
-      <c r="O151" s="39"/>
-      <c r="P151" s="38"/>
-      <c r="Q151" s="39"/>
-      <c r="R151" s="38"/>
-      <c r="S151" s="40"/>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2"/>
-      <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
-      <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
-      <c r="AA151" s="2"/>
-      <c r="AB151" s="2"/>
-      <c r="AC151" s="2"/>
-      <c r="AD151" s="2"/>
-      <c r="AE151" s="2"/>
-      <c r="AF151" s="2"/>
-      <c r="AG151" s="2"/>
-      <c r="AH151" s="2"/>
-      <c r="AI151" s="2"/>
-      <c r="AJ151" s="2"/>
-      <c r="AK151" s="2"/>
-      <c r="AL151" s="2"/>
-      <c r="AM151" s="2"/>
-      <c r="AN151" s="2"/>
-      <c r="AO151" s="2"/>
-      <c r="AP151" s="2"/>
-      <c r="AQ151" s="2"/>
-      <c r="AR151" s="2"/>
-      <c r="AS151" s="2"/>
-      <c r="AT151" s="2"/>
-      <c r="AU151" s="2"/>
-      <c r="AV151" s="2"/>
-      <c r="AW151" s="2"/>
-      <c r="AX151" s="2"/>
-      <c r="AY151" s="2"/>
-      <c r="AZ151" s="2"/>
-      <c r="BA151" s="2"/>
-      <c r="BB151" s="2"/>
-      <c r="BC151" s="2"/>
-      <c r="BD151" s="2"/>
-      <c r="BE151" s="2"/>
-      <c r="BF151" s="2"/>
-      <c r="BG151" s="2"/>
-      <c r="BH151" s="2"/>
-      <c r="BI151" s="2"/>
-      <c r="BJ151" s="2"/>
-      <c r="BK151" s="2"/>
-      <c r="BL151" s="2"/>
-      <c r="BM151" s="2"/>
-      <c r="BN151" s="2"/>
-      <c r="BO151" s="2"/>
-      <c r="BP151" s="2"/>
-      <c r="BQ151" s="2"/>
-      <c r="BR151" s="2"/>
-      <c r="BS151" s="2"/>
-      <c r="BT151" s="2"/>
-      <c r="BU151" s="2"/>
-      <c r="BV151" s="2"/>
-      <c r="BW151" s="2"/>
-      <c r="BX151" s="2"/>
-      <c r="BY151" s="2"/>
-      <c r="BZ151" s="2"/>
-      <c r="CA151" s="2"/>
-      <c r="CB151" s="2"/>
-      <c r="CC151" s="2"/>
-      <c r="CD151" s="2"/>
-      <c r="CE151" s="2"/>
-      <c r="CF151" s="2"/>
-      <c r="CG151" s="2"/>
-      <c r="CH151" s="2"/>
-      <c r="CI151" s="2"/>
-      <c r="CJ151" s="2"/>
-      <c r="CK151" s="2"/>
-      <c r="CL151" s="2"/>
-      <c r="CM151" s="2"/>
-      <c r="CN151" s="2"/>
-      <c r="CO151" s="2"/>
-      <c r="CP151" s="2"/>
-      <c r="CQ151" s="2"/>
-      <c r="CR151" s="2"/>
-      <c r="CS151" s="2"/>
-      <c r="CT151" s="2"/>
-      <c r="CU151" s="2"/>
-      <c r="CV151" s="2"/>
-      <c r="CW151" s="2"/>
-      <c r="CX151" s="2"/>
-      <c r="CY151" s="2"/>
-      <c r="CZ151" s="2"/>
-      <c r="DA151" s="2"/>
-      <c r="DB151" s="2"/>
-      <c r="DC151" s="2"/>
-      <c r="DD151" s="2"/>
-    </row>
-    <row r="152" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="47"/>
-      <c r="B152" s="48"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="66"/>
-      <c r="H152" s="65"/>
-      <c r="I152" s="66"/>
-      <c r="J152" s="65"/>
-      <c r="K152" s="66"/>
-      <c r="L152" s="65"/>
-      <c r="M152" s="66"/>
-      <c r="N152" s="65"/>
-      <c r="O152" s="66"/>
-      <c r="P152" s="65"/>
-      <c r="Q152" s="66"/>
-      <c r="R152" s="65"/>
-      <c r="S152" s="48"/>
-    </row>
-    <row r="153" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="50"/>
-      <c r="B153" s="51"/>
-      <c r="C153" s="49"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="67"/>
-      <c r="I153" s="68"/>
-      <c r="J153" s="67"/>
-      <c r="K153" s="68"/>
-      <c r="L153" s="67"/>
-      <c r="M153" s="68"/>
-      <c r="N153" s="67"/>
-      <c r="O153" s="68"/>
-      <c r="P153" s="67"/>
-      <c r="Q153" s="68"/>
-      <c r="R153" s="67"/>
-      <c r="S153" s="51"/>
+    <row r="151" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" s="65"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="65"/>
+      <c r="I153" s="65"/>
+      <c r="J153" s="65"/>
     </row>
     <row r="154" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="155" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B156" s="69"/>
-      <c r="C156" s="69"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="69"/>
-      <c r="F156" s="69"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="69"/>
-      <c r="I156" s="69"/>
-      <c r="J156" s="69"/>
-    </row>
+    <row r="156" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="159" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18851,11 +18727,8 @@
     <row r="299" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="300" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="301" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="390">
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -18893,8 +18766,15 @@
     <mergeCell ref="A16:A39"/>
     <mergeCell ref="B16:B39"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:S16"/>
-    <mergeCell ref="D17:S18"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
@@ -18950,17 +18830,20 @@
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="N30:Q30"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="R36:S36"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="A43:A66"/>
@@ -19025,9 +18908,6 @@
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="C58:C60"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R60:S60"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
@@ -19081,13 +18961,12 @@
     <mergeCell ref="R81:S81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="D82:S82"/>
-    <mergeCell ref="D83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="D84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="D83:S83"/>
+    <mergeCell ref="D84:S84"/>
     <mergeCell ref="C85:C87"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="C94:C96"/>
@@ -19159,21 +19038,21 @@
     <mergeCell ref="N111:O111"/>
     <mergeCell ref="R111:S111"/>
     <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:S112"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:S113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:S114"/>
+    <mergeCell ref="D112:K112"/>
+    <mergeCell ref="L112:S112"/>
+    <mergeCell ref="D113:K113"/>
+    <mergeCell ref="L113:S113"/>
+    <mergeCell ref="D114:K114"/>
+    <mergeCell ref="L114:S114"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="C121:C123"/>
     <mergeCell ref="A124:A147"/>
     <mergeCell ref="B124:B147"/>
     <mergeCell ref="C124:C126"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
     <mergeCell ref="C127:C129"/>
     <mergeCell ref="D127:E127"/>
     <mergeCell ref="F127:G127"/>
@@ -19226,18 +19105,20 @@
     <mergeCell ref="P135:Q135"/>
     <mergeCell ref="R135:S135"/>
     <mergeCell ref="C136:C138"/>
+    <mergeCell ref="N136:O136"/>
     <mergeCell ref="P136:Q136"/>
     <mergeCell ref="R136:S136"/>
+    <mergeCell ref="N137:O137"/>
     <mergeCell ref="P137:Q137"/>
     <mergeCell ref="R137:S137"/>
+    <mergeCell ref="N138:O138"/>
     <mergeCell ref="P138:Q138"/>
     <mergeCell ref="R138:S138"/>
     <mergeCell ref="C139:C141"/>
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A153:J153"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/python/table.xlsx
+++ b/python/table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="220">
   <si>
     <t xml:space="preserve">УТВЕРЖДАЮ</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Дневная форма получения образования</t>
   </si>
   <si>
-    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (10.10.2022 - 15.10.2022)</t>
+    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (17.10.2022 - 22.10.2022)</t>
   </si>
   <si>
     <t xml:space="preserve">№</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">10 Октября 2022</t>
+    <t xml:space="preserve">17 Октября 2022</t>
   </si>
   <si>
     <t xml:space="preserve">1     (08.00-09.25)</t>
@@ -211,376 +211,409 @@
     <t xml:space="preserve">ауд. 526</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд. 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3     (11.30-12.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра и аналитическая геометрия (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы алгоритмизации и программирования (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмизация и программирование (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математический анализ (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кажекина Л.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Балло Ю.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкатуло Н.М. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Л.В. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корчевская Е.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернявский М.М. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4     (13.05-14.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы компьютерной графики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в анализ (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в высшую математику (пз)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов В.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5     (14.40-16.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">История белорусской государственности (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Механика (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шрамук Е.П. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Денисенко Т.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6     (16.35-18.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7     (18.10-19.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гончарова С.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8     (19.45-21.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вторник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Орг. собр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мехович А.П. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">История белорусской государственности (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы программной инженерии (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасность жизнедеятельности человека (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пархимович Н.Н. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ермоченко С.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дударев А.Н. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 612а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы информатики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чиркина А.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 200е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика и мультимедиа (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы информатики (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы программной инженерии (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исаченко А.С. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стайнова А.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 333</t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд. 412</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3     (11.30-12.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейная алгебра и аналитическая геометрия (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейная алгебра (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы алгоритмизации и программирования (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритмизация и программирование (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Математический анализ (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кажекина Л.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Балло Ю.А. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкатуло Н.М. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванова Л.В. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корчевская Е.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чернявский М.М. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4     (13.05-14.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы компьютерной графики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в анализ (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в высшую математику (лк)(фак-в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов В.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 141</t>
+    <t xml:space="preserve">Среда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы компьютерной графики (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы психологии и педагогики (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы и методологии программирования (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикладная информатика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенова Н.С. (ст.пр.)</t>
   </si>
   <si>
     <t xml:space="preserve">ауд. 213</t>
   </si>
   <si>
-    <t xml:space="preserve">5     (14.40-16.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6     (16.35-18.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7     (18.10-19.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончарова С.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8     (19.45-21.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вторник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Октября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Линейная алгебра (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мехович А.П. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">История белорусской государственности (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы программной инженерии (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Безопасность жизнедеятельности человека (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пархимович Н.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ермоченко С.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дударев А.Н. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Программирование в визуализированных средах (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шедько В.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 200е</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика и мультимедиа (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы информатики (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы программной инженерии (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исаченко А.С. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стайнова А.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 333</t>
+    <t xml:space="preserve">ауд. 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы психологии и педагогики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Механика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. спортзал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы библиотечно-библиографических знаний (лк)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Погребняк А.Б. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Четверг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Октября 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курат. час</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы конструирования программ (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в специальность (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы конструирования программ (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение в специальность (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная физика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 134</t>
   </si>
   <si>
     <t xml:space="preserve">ауд. 622</t>
   </si>
   <si>
-    <t xml:space="preserve">Среда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Октября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы компьютерной графики (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы психологии и педагогики (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы и методологии программирования (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Математическая логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прикладная информатика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семенова Н.С. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чиркина А.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы психологии и педагогики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Механика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сапелко Т.И. (ст.пр.)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. спортзал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курат. час</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Павлыш Э.В. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Четверг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Октября 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы конструирования программ (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в специальность (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономическая теория (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия и линейная алгебра (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы конструирования программ (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение в специальность (лаб)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономическая теория (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная физика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
+    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
   </si>
   <si>
     <t xml:space="preserve">Основы высшей алгебры (лк)</t>
@@ -592,15 +625,6 @@
     <t xml:space="preserve">Архитектура вычислительных систем (лаб)</t>
   </si>
   <si>
-    <t xml:space="preserve">Давлятова Е.В. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Основы высшей алгебры (пз)</t>
   </si>
   <si>
@@ -610,10 +634,13 @@
     <t xml:space="preserve">Механика (пз)</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд. 630</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пятница</t>
   </si>
   <si>
-    <t xml:space="preserve">14 Октября 2022</t>
+    <t xml:space="preserve">21 Октября 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Технологии разработки программного обеспечения (лк)</t>
@@ -625,10 +652,7 @@
     <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 416</t>
+    <t xml:space="preserve">ауд. 703</t>
   </si>
   <si>
     <t xml:space="preserve">Программирование в визуализированных средах (лаб)</t>
@@ -637,10 +661,7 @@
     <t xml:space="preserve">Компьютерная графика (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 413а</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 536</t>
+    <t xml:space="preserve">ауд. 301</t>
   </si>
   <si>
     <t xml:space="preserve">Технологии разработки программного обеспечения (лаб)</t>
@@ -777,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="46">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -940,7 +961,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="thick"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom/>
@@ -954,9 +982,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thick"/>
-      <top style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -969,16 +1004,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thick"/>
+      <right style="thin"/>
       <top/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -990,9 +1025,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thick"/>
       <top/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1105,7 +1147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1258,7 +1300,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1274,15 +1320,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,55 +1356,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1350,20 +1428,40 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1425,14 +1523,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1008000</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1445,8 +1543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7326000" y="31392360"/>
-          <a:ext cx="1008000" cy="703800"/>
+          <a:off x="7326000" y="31424400"/>
+          <a:ext cx="1008000" cy="703440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,10 +1564,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DD301"/>
+  <dimension ref="A1:DD304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30:E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3636,11 +3734,11 @@
         <v>66</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="36"/>
       <c r="R24" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="2"/>
@@ -3737,14 +3835,14 @@
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33" t="s">
@@ -3760,21 +3858,21 @@
         <v>73</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S25" s="34"/>
       <c r="T25" s="2"/>
@@ -3892,7 +3990,7 @@
         <v>79</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="28" t="s">
@@ -3903,10 +4001,10 @@
         <v>58</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S26" s="29"/>
       <c r="T26" s="2"/>
@@ -4003,32 +4101,32 @@
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="36"/>
+      <c r="D27" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="38"/>
       <c r="F27" s="36" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36" t="s">
         <v>84</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="M27" s="36"/>
       <c r="N27" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O27" s="36"/>
       <c r="P27" s="36" t="s">
@@ -4134,29 +4232,35 @@
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="32" t="s">
-        <v>99</v>
+      <c r="C28" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="33"/>
       <c r="N28" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="40"/>
+      <c r="R28" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="S28" s="43"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -4250,27 +4354,33 @@
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="28"/>
       <c r="N29" s="28" t="s">
         <v>77</v>
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="43"/>
+      <c r="R29" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" s="29"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -4364,27 +4474,33 @@
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="36" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E30" s="36"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="36"/>
       <c r="N30" s="36" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="46"/>
+      <c r="R30" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" s="52"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -4479,24 +4595,26 @@
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="S31" s="43"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -4591,22 +4709,24 @@
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="43"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="S32" s="29"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -4701,22 +4821,24 @@
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="46"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="52"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -4811,28 +4933,28 @@
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="33" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S34" s="33"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="34"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -4927,26 +5049,26 @@
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="S35" s="28"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S35" s="29"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -5041,26 +5163,26 @@
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="36" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="S36" s="36"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="S36" s="37"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -5155,24 +5277,24 @@
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="53"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -5267,22 +5389,22 @@
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="43"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="54"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -5377,22 +5499,22 @@
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="46"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="55"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -5484,25 +5606,25 @@
       <c r="DD39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="40"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="53"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -5594,25 +5716,25 @@
       <c r="DD40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="43"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="54"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -5704,25 +5826,25 @@
       <c r="DD41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="54"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="63"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -5815,30 +5937,32 @@
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="57"/>
+      <c r="D43" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -5933,22 +6057,22 @@
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="43"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -6043,22 +6167,22 @@
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="46"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -6156,15 +6280,15 @@
         <v>46</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="33" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
@@ -6176,15 +6300,15 @@
         <v>50</v>
       </c>
       <c r="N46" s="33" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O46" s="33"/>
       <c r="P46" s="33" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q46" s="33"/>
       <c r="R46" s="34" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="S46" s="34"/>
       <c r="T46" s="2"/>
@@ -6290,13 +6414,13 @@
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" s="35" t="s">
         <v>58</v>
@@ -6408,11 +6532,11 @@
       <c r="B48" s="23"/>
       <c r="C48" s="32"/>
       <c r="D48" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="36"/>
       <c r="F48" s="36" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36" t="s">
@@ -6428,15 +6552,15 @@
         <v>66</v>
       </c>
       <c r="N48" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O48" s="36"/>
       <c r="P48" s="36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q48" s="36"/>
       <c r="R48" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S48" s="37"/>
       <c r="T48" s="2"/>
@@ -6536,7 +6660,7 @@
         <v>70</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
@@ -6546,19 +6670,19 @@
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M49" s="33"/>
       <c r="N49" s="33" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O49" s="33"/>
       <c r="P49" s="33" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q49" s="33"/>
       <c r="R49" s="34" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="S49" s="34"/>
       <c r="T49" s="2"/>
@@ -6656,7 +6780,7 @@
       <c r="B50" s="23"/>
       <c r="C50" s="32"/>
       <c r="D50" s="28" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -6670,7 +6794,7 @@
       </c>
       <c r="M50" s="28"/>
       <c r="N50" s="28" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O50" s="28"/>
       <c r="P50" s="28" t="s">
@@ -6678,7 +6802,7 @@
       </c>
       <c r="Q50" s="28"/>
       <c r="R50" s="29" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="S50" s="29"/>
       <c r="T50" s="2"/>
@@ -6776,7 +6900,7 @@
       <c r="B51" s="23"/>
       <c r="C51" s="32"/>
       <c r="D51" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
@@ -6790,15 +6914,15 @@
       </c>
       <c r="M51" s="36"/>
       <c r="N51" s="36" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="O51" s="36"/>
       <c r="P51" s="36" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="Q51" s="36"/>
       <c r="R51" s="37" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="S51" s="37"/>
       <c r="T51" s="2"/>
@@ -6895,7 +7019,7 @@
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="33" t="s">
         <v>74</v>
@@ -6904,19 +7028,19 @@
         <v>74</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="33" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I52" s="33"/>
       <c r="J52" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" s="33"/>
       <c r="L52" s="34" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -7026,27 +7150,27 @@
         <v>80</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I53" s="28"/>
       <c r="J53" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K53" s="28"/>
-      <c r="L53" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
+      <c r="L53" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -7148,7 +7272,7 @@
         <v>84</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36" t="s">
@@ -7160,7 +7284,7 @@
       </c>
       <c r="K54" s="36"/>
       <c r="L54" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M54" s="37"/>
       <c r="N54" s="37"/>
@@ -7263,15 +7387,17 @@
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="33"/>
       <c r="F55" s="33" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H55" s="33" t="s">
         <v>50</v>
@@ -7280,23 +7406,23 @@
         <v>50</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K55" s="33"/>
       <c r="L55" s="33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M55" s="33"/>
       <c r="N55" s="33" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O55" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="39"/>
+        <v>142</v>
+      </c>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="41"/>
       <c r="R55" s="34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="S55" s="34"/>
       <c r="T55" s="2"/>
@@ -7393,13 +7519,15 @@
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="32"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
+      <c r="D56" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="28"/>
       <c r="F56" s="35" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>57</v>
@@ -7408,21 +7536,21 @@
         <v>58</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K56" s="28"/>
       <c r="L56" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M56" s="28"/>
       <c r="N56" s="35" t="s">
         <v>80</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="42"/>
+        <v>146</v>
+      </c>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="47"/>
       <c r="R56" s="29" t="s">
         <v>54</v>
       </c>
@@ -7521,13 +7649,15 @@
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="45"/>
+      <c r="D57" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="36"/>
       <c r="F57" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H57" s="36" t="s">
         <v>65</v>
@@ -7536,23 +7666,23 @@
         <v>66</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K57" s="36"/>
       <c r="L57" s="36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M57" s="36"/>
       <c r="N57" s="36" t="s">
         <v>86</v>
       </c>
       <c r="O57" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="45"/>
+        <v>150</v>
+      </c>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="51"/>
       <c r="R57" s="37" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="S57" s="37"/>
       <c r="T57" s="2"/>
@@ -7649,24 +7779,26 @@
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="53"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -7761,22 +7893,24 @@
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="43"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="54"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -7871,22 +8005,24 @@
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="32"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="46"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="55"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -7981,24 +8117,24 @@
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="40"/>
+        <v>113</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="53"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -8093,22 +8229,22 @@
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="43"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="54"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -8203,22 +8339,22 @@
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="46"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="55"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -8313,24 +8449,24 @@
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="D64" s="42"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="53"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -8425,22 +8561,22 @@
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="43"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="54"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -8535,22 +8671,22 @@
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="46"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="55"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -8642,25 +8778,25 @@
       <c r="DD66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="40"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="53"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -8752,25 +8888,25 @@
       <c r="DD67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="43"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="54"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -8862,25 +8998,25 @@
       <c r="DD68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="54"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="63"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -8973,30 +9109,30 @@
     </row>
     <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="22" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="57"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="65"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="65"/>
+      <c r="S70" s="67"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -9091,22 +9227,22 @@
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="42"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="43"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="54"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -9201,22 +9337,22 @@
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="46"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="55"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -9314,37 +9450,37 @@
         <v>46</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G73" s="33"/>
       <c r="H73" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I73" s="33"/>
       <c r="J73" s="33" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
       <c r="M73" s="33"/>
       <c r="N73" s="33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O73" s="33"/>
       <c r="P73" s="33" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q73" s="33"/>
       <c r="R73" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="S73" s="34" t="s">
+      <c r="S73" s="43" t="s">
         <v>74</v>
       </c>
       <c r="T73" s="2"/>
@@ -9442,17 +9578,17 @@
       <c r="B74" s="23"/>
       <c r="C74" s="32"/>
       <c r="D74" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I74" s="28"/>
       <c r="J74" s="28" t="s">
@@ -9462,18 +9598,18 @@
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="O74" s="28"/>
       <c r="P74" s="28" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q74" s="28"/>
       <c r="R74" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="S74" s="59" t="s">
-        <v>95</v>
+      <c r="S74" s="68" t="s">
+        <v>96</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -9570,13 +9706,13 @@
       <c r="B75" s="23"/>
       <c r="C75" s="32"/>
       <c r="D75" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="36" t="s">
@@ -9584,17 +9720,17 @@
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
       <c r="N75" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O75" s="36"/>
       <c r="P75" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q75" s="36"/>
       <c r="R75" s="36" t="s">
@@ -9704,11 +9840,11 @@
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="33" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G76" s="33"/>
       <c r="H76" s="33" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I76" s="33"/>
       <c r="J76" s="33"/>
@@ -9716,19 +9852,19 @@
       <c r="L76" s="33"/>
       <c r="M76" s="33"/>
       <c r="N76" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O76" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P76" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q76" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R76" s="34" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="S76" s="34"/>
       <c r="T76" s="2"/>
@@ -9830,11 +9966,11 @@
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
@@ -9844,9 +9980,7 @@
       <c r="N77" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="O77" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="O77" s="35"/>
       <c r="P77" s="35" t="s">
         <v>79</v>
       </c>
@@ -9854,7 +9988,7 @@
         <v>77</v>
       </c>
       <c r="R77" s="29" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="S77" s="29"/>
       <c r="T77" s="2"/>
@@ -9960,7 +10094,7 @@
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
@@ -9968,11 +10102,9 @@
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
       <c r="N78" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="O78" s="36" t="s">
-        <v>66</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O78" s="30"/>
       <c r="P78" s="36" t="s">
         <v>66</v>
       </c>
@@ -9980,7 +10112,7 @@
         <v>84</v>
       </c>
       <c r="R78" s="37" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="S78" s="37"/>
       <c r="T78" s="2"/>
@@ -10077,18 +10209,18 @@
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D79" s="33" t="s">
         <v>76</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G79" s="33"/>
       <c r="H79" s="33" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I79" s="33"/>
       <c r="J79" s="33" t="s">
@@ -10098,23 +10230,23 @@
         <v>50</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M79" s="33"/>
       <c r="N79" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O79" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P79" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q79" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R79" s="34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="S79" s="34"/>
       <c r="T79" s="2"/>
@@ -10216,7 +10348,7 @@
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G80" s="28"/>
       <c r="H80" s="28" t="s">
@@ -10236,9 +10368,7 @@
       <c r="N80" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="O80" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="O80" s="35"/>
       <c r="P80" s="35" t="s">
         <v>79</v>
       </c>
@@ -10344,41 +10474,37 @@
       <c r="B81" s="23"/>
       <c r="C81" s="32"/>
       <c r="D81" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="36" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="36" t="s">
         <v>66</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L81" s="36" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="M81" s="36"/>
-      <c r="N81" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="O81" s="36" t="s">
-        <v>163</v>
-      </c>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
       <c r="P81" s="36" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q81" s="36" t="s">
         <v>84</v>
       </c>
       <c r="R81" s="37" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="S81" s="37"/>
       <c r="T81" s="2"/>
@@ -10475,7 +10601,7 @@
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>44</v>
@@ -10700,7 +10826,7 @@
       <c r="B84" s="23"/>
       <c r="C84" s="32"/>
       <c r="D84" s="37" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
@@ -10811,26 +10937,30 @@
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="33" t="s">
-        <v>165</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="33"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
       <c r="Q85" s="33"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="40"/>
+      <c r="R85" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="S85" s="34"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
@@ -10925,24 +11055,28 @@
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="32"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="28" t="s">
-        <v>166</v>
-      </c>
+      <c r="D86" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="28"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
       <c r="Q86" s="28"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="43"/>
+      <c r="R86" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="S86" s="29"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
@@ -11037,24 +11171,28 @@
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="36" t="s">
-        <v>86</v>
-      </c>
+      <c r="D87" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
       <c r="Q87" s="36"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="46"/>
+      <c r="R87" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="S87" s="37"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
@@ -11149,24 +11287,24 @@
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="40"/>
+        <v>113</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="53"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -11261,22 +11399,22 @@
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="32"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="43"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="54"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
@@ -11371,22 +11509,22 @@
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="32"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="45"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="46"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="50"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="50"/>
+      <c r="S90" s="55"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
@@ -11481,24 +11619,24 @@
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="D91" s="42"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="53"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
@@ -11593,22 +11731,22 @@
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="32"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="42"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="42"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="43"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="54"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
@@ -11703,22 +11841,22 @@
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="32"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="45"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="45"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="46"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="50"/>
+      <c r="S93" s="55"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
@@ -11810,25 +11948,25 @@
       <c r="DD93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="47"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="40"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="53"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
@@ -11920,25 +12058,25 @@
       <c r="DD94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="47"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="42"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="43"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="46"/>
+      <c r="S95" s="54"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
@@ -12030,25 +12168,25 @@
       <c r="DD95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="50"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="52"/>
-      <c r="S96" s="54"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="62"/>
+      <c r="P96" s="61"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="61"/>
+      <c r="S96" s="63"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
@@ -12141,30 +12279,32 @@
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="55"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="56"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="56"/>
-      <c r="R97" s="55"/>
-      <c r="S97" s="57"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="66"/>
+      <c r="N97" s="65"/>
+      <c r="O97" s="66"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="66"/>
+      <c r="R97" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="S97" s="26"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
@@ -12259,22 +12399,24 @@
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="24"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="42"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="42"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="43"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="47"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="S98" s="29"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
@@ -12369,22 +12511,22 @@
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="24"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="45"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="45"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="46"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="50"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="31"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
@@ -12482,15 +12624,15 @@
         <v>46</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G100" s="33"/>
       <c r="H100" s="33" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
@@ -12506,11 +12648,11 @@
       </c>
       <c r="O100" s="33"/>
       <c r="P100" s="33" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q100" s="33"/>
       <c r="R100" s="34" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="S100" s="34"/>
       <c r="T100" s="2"/>
@@ -12612,17 +12754,17 @@
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G101" s="28"/>
       <c r="H101" s="28" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I101" s="28"/>
       <c r="J101" s="28"/>
       <c r="K101" s="28"/>
       <c r="L101" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M101" s="35" t="s">
         <v>58</v>
@@ -12632,7 +12774,7 @@
       </c>
       <c r="O101" s="28"/>
       <c r="P101" s="28" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q101" s="28"/>
       <c r="R101" s="29" t="s">
@@ -12734,15 +12876,15 @@
       <c r="B102" s="23"/>
       <c r="C102" s="32"/>
       <c r="D102" s="36" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G102" s="36"/>
       <c r="H102" s="36" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
@@ -12751,18 +12893,18 @@
         <v>65</v>
       </c>
       <c r="M102" s="36" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N102" s="36" t="s">
         <v>83</v>
       </c>
       <c r="O102" s="36"/>
       <c r="P102" s="36" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="Q102" s="36"/>
       <c r="R102" s="37" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="S102" s="37"/>
       <c r="T102" s="2"/>
@@ -12862,25 +13004,25 @@
         <v>70</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="J103" s="33" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K103" s="33"/>
       <c r="L103" s="33"/>
@@ -12890,11 +13032,11 @@
       </c>
       <c r="O103" s="33"/>
       <c r="P103" s="33" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q103" s="33"/>
       <c r="R103" s="34" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="S103" s="34"/>
       <c r="T103" s="2"/>
@@ -12992,10 +13134,10 @@
       <c r="B104" s="23"/>
       <c r="C104" s="32"/>
       <c r="D104" s="35" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F104" s="35" t="s">
         <v>77</v>
@@ -13007,7 +13149,7 @@
         <v>57</v>
       </c>
       <c r="I104" s="35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J104" s="28" t="s">
         <v>81</v>
@@ -13020,11 +13162,11 @@
       </c>
       <c r="O104" s="28"/>
       <c r="P104" s="28" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q104" s="28"/>
       <c r="R104" s="29" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="S104" s="29"/>
       <c r="T104" s="2"/>
@@ -13131,30 +13273,30 @@
         <v>84</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="H105" s="36" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I105" s="36" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J105" s="36" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="K105" s="36"/>
       <c r="L105" s="36"/>
       <c r="M105" s="36"/>
       <c r="N105" s="36" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="O105" s="36"/>
       <c r="P105" s="36" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="Q105" s="36"/>
       <c r="R105" s="37" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="S105" s="37"/>
       <c r="T105" s="2"/>
@@ -13251,42 +13393,40 @@
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E106" s="33"/>
+        <v>89</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="33" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="33" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K106" s="33"/>
       <c r="L106" s="33" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M106" s="33"/>
       <c r="N106" s="33" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="33" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q106" s="33" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="R106" s="34" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="S106" s="34"/>
       <c r="T106" s="2"/>
@@ -13383,10 +13523,8 @@
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E107" s="28"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47"/>
       <c r="F107" s="35" t="s">
         <v>77</v>
       </c>
@@ -13398,25 +13536,25 @@
       </c>
       <c r="I107" s="28"/>
       <c r="J107" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="K107" s="28"/>
       <c r="L107" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M107" s="28"/>
       <c r="N107" s="28" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="O107" s="28"/>
       <c r="P107" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q107" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R107" s="29" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="S107" s="29"/>
       <c r="T107" s="2"/>
@@ -13513,34 +13651,32 @@
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="32"/>
-      <c r="D108" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" s="36"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="51"/>
       <c r="F108" s="36" t="s">
         <v>84</v>
       </c>
       <c r="G108" s="36" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="H108" s="36" t="s">
         <v>64</v>
       </c>
       <c r="I108" s="36"/>
       <c r="J108" s="36" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="K108" s="36"/>
       <c r="L108" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M108" s="36"/>
       <c r="N108" s="36" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="O108" s="36"/>
       <c r="P108" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q108" s="36" t="s">
         <v>66</v>
@@ -13643,13 +13779,13 @@
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="41"/>
       <c r="F109" s="33"/>
       <c r="G109" s="33" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H109" s="33" t="s">
         <v>50</v>
@@ -13658,11 +13794,11 @@
         <v>50</v>
       </c>
       <c r="J109" s="33" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="K109" s="33"/>
       <c r="L109" s="33" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M109" s="33"/>
       <c r="N109" s="33" t="s">
@@ -13670,13 +13806,13 @@
       </c>
       <c r="O109" s="33"/>
       <c r="P109" s="33" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q109" s="33" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R109" s="34" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S109" s="34"/>
       <c r="T109" s="2"/>
@@ -13773,11 +13909,11 @@
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="32"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="42"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="47"/>
       <c r="F110" s="27"/>
       <c r="G110" s="35" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H110" s="35" t="s">
         <v>57</v>
@@ -13786,11 +13922,11 @@
         <v>58</v>
       </c>
       <c r="J110" s="28" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="K110" s="28"/>
       <c r="L110" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M110" s="28"/>
       <c r="N110" s="28" t="s">
@@ -13798,10 +13934,10 @@
       </c>
       <c r="O110" s="28"/>
       <c r="P110" s="35" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q110" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R110" s="29" t="s">
         <v>82</v>
@@ -13901,11 +14037,11 @@
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="32"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="60"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="69"/>
       <c r="G111" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H111" s="36" t="s">
         <v>65</v>
@@ -13914,25 +14050,25 @@
         <v>66</v>
       </c>
       <c r="J111" s="36" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="K111" s="36"/>
       <c r="L111" s="36" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M111" s="36"/>
       <c r="N111" s="36" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O111" s="36"/>
       <c r="P111" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q111" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="R111" s="37" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="S111" s="37"/>
       <c r="T111" s="2"/>
@@ -14029,21 +14165,21 @@
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="61"/>
-      <c r="L112" s="34" t="s">
-        <v>100</v>
-      </c>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
       <c r="M112" s="34"/>
       <c r="N112" s="34"/>
       <c r="O112" s="34"/>
@@ -14145,26 +14281,26 @@
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="32"/>
-      <c r="D113" s="62" t="s">
+      <c r="D113" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
-      <c r="L113" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="M113" s="58"/>
-      <c r="N113" s="58"/>
-      <c r="O113" s="58"/>
-      <c r="P113" s="58"/>
-      <c r="Q113" s="58"/>
-      <c r="R113" s="58"/>
-      <c r="S113" s="58"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="K113" s="64"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="64"/>
+      <c r="N113" s="64"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="64"/>
+      <c r="S113" s="64"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
@@ -14259,19 +14395,19 @@
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="32"/>
-      <c r="D114" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="63"/>
-      <c r="J114" s="63"/>
-      <c r="K114" s="63"/>
-      <c r="L114" s="37" t="s">
-        <v>105</v>
-      </c>
+      <c r="D114" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
       <c r="M114" s="37"/>
       <c r="N114" s="37"/>
       <c r="O114" s="37"/>
@@ -14373,24 +14509,24 @@
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D115" s="38"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="39"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="39"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="38"/>
-      <c r="S115" s="40"/>
+        <v>113</v>
+      </c>
+      <c r="D115" s="42"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="41"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="41"/>
+      <c r="P115" s="42"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="53"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
@@ -14485,22 +14621,22 @@
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="32"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="41"/>
-      <c r="O116" s="42"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="41"/>
-      <c r="S116" s="43"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="47"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="47"/>
+      <c r="R116" s="46"/>
+      <c r="S116" s="54"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
@@ -14595,22 +14731,22 @@
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="32"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="45"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="45"/>
-      <c r="R117" s="44"/>
-      <c r="S117" s="46"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="50"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="51"/>
+      <c r="P117" s="50"/>
+      <c r="Q117" s="51"/>
+      <c r="R117" s="50"/>
+      <c r="S117" s="55"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
@@ -14705,24 +14841,24 @@
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="39"/>
-      <c r="P118" s="38"/>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="38"/>
-      <c r="S118" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="D118" s="42"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="41"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="53"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
@@ -14817,22 +14953,22 @@
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="42"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="41"/>
-      <c r="S119" s="43"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="47"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="47"/>
+      <c r="R119" s="46"/>
+      <c r="S119" s="54"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
@@ -14927,22 +15063,22 @@
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="32"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="44"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="44"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="44"/>
-      <c r="O120" s="45"/>
-      <c r="P120" s="44"/>
-      <c r="Q120" s="45"/>
-      <c r="R120" s="44"/>
-      <c r="S120" s="46"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="50"/>
+      <c r="O120" s="51"/>
+      <c r="P120" s="50"/>
+      <c r="Q120" s="51"/>
+      <c r="R120" s="50"/>
+      <c r="S120" s="55"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
@@ -15034,25 +15170,25 @@
       <c r="DD120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="47"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="39"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="39"/>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="39"/>
-      <c r="R121" s="38"/>
-      <c r="S121" s="40"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="42"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="42"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="42"/>
+      <c r="S121" s="53"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
@@ -15144,25 +15280,25 @@
       <c r="DD121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="47"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="42"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="42"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="43"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="47"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="47"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="47"/>
+      <c r="R122" s="46"/>
+      <c r="S122" s="54"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
@@ -15254,25 +15390,25 @@
       <c r="DD122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="50"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="52"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="53"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="53"/>
-      <c r="R123" s="52"/>
-      <c r="S123" s="54"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="62"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="62"/>
+      <c r="N123" s="61"/>
+      <c r="O123" s="62"/>
+      <c r="P123" s="61"/>
+      <c r="Q123" s="62"/>
+      <c r="R123" s="61"/>
+      <c r="S123" s="63"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
@@ -15365,32 +15501,34 @@
     </row>
     <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="55"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="56"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="66"/>
       <c r="H124" s="25" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I124" s="25"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="55"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="55"/>
-      <c r="Q124" s="56"/>
-      <c r="R124" s="55"/>
-      <c r="S124" s="57"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="66"/>
+      <c r="N124" s="65"/>
+      <c r="O124" s="66"/>
+      <c r="P124" s="65"/>
+      <c r="Q124" s="66"/>
+      <c r="R124" s="73"/>
+      <c r="S124" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
@@ -15485,24 +15623,26 @@
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="42"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="47"/>
       <c r="H125" s="28" t="s">
         <v>80</v>
       </c>
       <c r="I125" s="28"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="42"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="42"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="42"/>
-      <c r="P125" s="41"/>
-      <c r="Q125" s="42"/>
-      <c r="R125" s="41"/>
-      <c r="S125" s="43"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="47"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="47"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="47"/>
+      <c r="P125" s="46"/>
+      <c r="Q125" s="47"/>
+      <c r="R125" s="27"/>
+      <c r="S125" s="68" t="s">
+        <v>108</v>
+      </c>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
@@ -15597,24 +15737,26 @@
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="45"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="51"/>
       <c r="H126" s="36" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="I126" s="36"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="45"/>
-      <c r="L126" s="44"/>
-      <c r="M126" s="45"/>
-      <c r="N126" s="44"/>
-      <c r="O126" s="45"/>
-      <c r="P126" s="44"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="44"/>
-      <c r="S126" s="46"/>
+      <c r="J126" s="50"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="50"/>
+      <c r="M126" s="51"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="51"/>
+      <c r="P126" s="50"/>
+      <c r="Q126" s="51"/>
+      <c r="R126" s="69"/>
+      <c r="S126" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
@@ -15712,11 +15854,11 @@
         <v>46</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="33" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G127" s="33"/>
       <c r="H127" s="33" t="s">
@@ -15730,19 +15872,19 @@
       </c>
       <c r="M127" s="33"/>
       <c r="N127" s="33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O127" s="33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P127" s="33" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q127" s="33" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R127" s="34" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="S127" s="34"/>
       <c r="T127" s="2"/>
@@ -15840,37 +15982,37 @@
       <c r="B128" s="23"/>
       <c r="C128" s="32"/>
       <c r="D128" s="28" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G128" s="28"/>
       <c r="H128" s="28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I128" s="28"/>
       <c r="J128" s="28"/>
       <c r="K128" s="28"/>
       <c r="L128" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M128" s="28"/>
       <c r="N128" s="35" t="s">
         <v>55</v>
       </c>
       <c r="O128" s="35" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P128" s="35" t="s">
         <v>57</v>
       </c>
       <c r="Q128" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R128" s="29" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="S128" s="29"/>
       <c r="T128" s="2"/>
@@ -15968,7 +16110,7 @@
       <c r="B129" s="23"/>
       <c r="C129" s="32"/>
       <c r="D129" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E129" s="36"/>
       <c r="F129" s="36" t="s">
@@ -15982,14 +16124,14 @@
       <c r="J129" s="36"/>
       <c r="K129" s="36"/>
       <c r="L129" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M129" s="36"/>
       <c r="N129" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O129" s="36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P129" s="36" t="s">
         <v>65</v>
@@ -15998,7 +16140,7 @@
         <v>66</v>
       </c>
       <c r="R129" s="37" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="S129" s="37"/>
       <c r="T129" s="2"/>
@@ -16098,13 +16240,13 @@
         <v>70</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G130" s="33"/>
       <c r="H130" s="33" t="s">
@@ -16114,7 +16256,7 @@
       <c r="J130" s="33"/>
       <c r="K130" s="33"/>
       <c r="L130" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M130" s="33"/>
       <c r="N130" s="33" t="s">
@@ -16122,10 +16264,10 @@
       </c>
       <c r="O130" s="33"/>
       <c r="P130" s="33" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q130" s="33" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="R130" s="34" t="s">
         <v>73</v>
@@ -16232,28 +16374,28 @@
         <v>79</v>
       </c>
       <c r="F131" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G131" s="28"/>
       <c r="H131" s="28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I131" s="28"/>
       <c r="J131" s="28"/>
       <c r="K131" s="28"/>
       <c r="L131" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M131" s="28"/>
       <c r="N131" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="O131" s="28"/>
       <c r="P131" s="35" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="Q131" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R131" s="29" t="s">
         <v>77</v>
@@ -16354,13 +16496,13 @@
       <c r="B132" s="23"/>
       <c r="C132" s="32"/>
       <c r="D132" s="36" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="E132" s="36" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="36" t="s">
@@ -16370,18 +16512,18 @@
       <c r="J132" s="36"/>
       <c r="K132" s="36"/>
       <c r="L132" s="36" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M132" s="36"/>
       <c r="N132" s="36" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O132" s="36"/>
       <c r="P132" s="36" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Q132" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="R132" s="37" t="s">
         <v>84</v>
@@ -16481,19 +16623,19 @@
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G133" s="64" t="s">
-        <v>203</v>
+        <v>140</v>
+      </c>
+      <c r="G133" s="74" t="s">
+        <v>211</v>
       </c>
       <c r="H133" s="33" t="s">
         <v>76</v>
@@ -16504,15 +16646,15 @@
       </c>
       <c r="K133" s="33"/>
       <c r="L133" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M133" s="33"/>
       <c r="N133" s="33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O133" s="33"/>
       <c r="P133" s="33" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q133" s="33"/>
       <c r="R133" s="34" t="s">
@@ -16620,25 +16762,25 @@
         <v>79</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G134" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H134" s="28" t="s">
         <v>56</v>
       </c>
       <c r="I134" s="28"/>
       <c r="J134" s="28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K134" s="28"/>
       <c r="L134" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M134" s="28"/>
       <c r="N134" s="28" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="O134" s="28"/>
       <c r="P134" s="28" t="s">
@@ -16744,39 +16886,39 @@
       <c r="B135" s="23"/>
       <c r="C135" s="32"/>
       <c r="D135" s="36" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E135" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G135" s="36" t="s">
         <v>66</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="I135" s="36"/>
       <c r="J135" s="36" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="K135" s="36"/>
       <c r="L135" s="36" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="M135" s="36"/>
       <c r="N135" s="36" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="O135" s="36"/>
       <c r="P135" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q135" s="36"/>
       <c r="R135" s="37" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="S135" s="37"/>
       <c r="T135" s="2"/>
@@ -16873,34 +17015,36 @@
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D136" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E136" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="F136" s="64" t="s">
-        <v>203</v>
+        <v>101</v>
+      </c>
+      <c r="D136" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E136" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="F136" s="74" t="s">
+        <v>211</v>
       </c>
       <c r="G136" s="33"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="39"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="38"/>
-      <c r="M136" s="39"/>
+      <c r="H136" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I136" s="33"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="41"/>
       <c r="N136" s="33" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O136" s="33"/>
       <c r="P136" s="33" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q136" s="33"/>
       <c r="R136" s="34" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="S136" s="34"/>
       <c r="T136" s="2"/>
@@ -16998,31 +17142,33 @@
       <c r="B137" s="23"/>
       <c r="C137" s="32"/>
       <c r="D137" s="35" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G137" s="27"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="42"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="42"/>
+      <c r="H137" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I137" s="28"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="47"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="47"/>
       <c r="N137" s="28" t="s">
         <v>59</v>
       </c>
       <c r="O137" s="28"/>
       <c r="P137" s="28" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q137" s="28"/>
       <c r="R137" s="29" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="S137" s="29"/>
       <c r="T137" s="2"/>
@@ -17120,31 +17266,33 @@
       <c r="B138" s="23"/>
       <c r="C138" s="32"/>
       <c r="D138" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E138" s="36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F138" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G138" s="60"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="45"/>
-      <c r="J138" s="44"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="44"/>
-      <c r="M138" s="45"/>
+        <v>115</v>
+      </c>
+      <c r="G138" s="69"/>
+      <c r="H138" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I138" s="36"/>
+      <c r="J138" s="50"/>
+      <c r="K138" s="51"/>
+      <c r="L138" s="50"/>
+      <c r="M138" s="51"/>
       <c r="N138" s="36" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="O138" s="36"/>
       <c r="P138" s="36" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="Q138" s="36"/>
       <c r="R138" s="37" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S138" s="37"/>
       <c r="T138" s="2"/>
@@ -17241,24 +17389,26 @@
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D139" s="38"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="39"/>
-      <c r="L139" s="38"/>
-      <c r="M139" s="39"/>
-      <c r="N139" s="38"/>
-      <c r="O139" s="39"/>
-      <c r="P139" s="38"/>
-      <c r="Q139" s="39"/>
-      <c r="R139" s="38"/>
-      <c r="S139" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="D139" s="42"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="41"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="41"/>
+      <c r="P139" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q139" s="33"/>
+      <c r="R139" s="42"/>
+      <c r="S139" s="53"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
@@ -17353,22 +17503,24 @@
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="32"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="42"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="41"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="41"/>
-      <c r="M140" s="42"/>
-      <c r="N140" s="41"/>
-      <c r="O140" s="42"/>
-      <c r="P140" s="41"/>
-      <c r="Q140" s="42"/>
-      <c r="R140" s="41"/>
-      <c r="S140" s="43"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="46"/>
+      <c r="K140" s="47"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="47"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q140" s="28"/>
+      <c r="R140" s="46"/>
+      <c r="S140" s="54"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
@@ -17463,22 +17615,24 @@
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="32"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="45"/>
-      <c r="J141" s="44"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="44"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="44"/>
-      <c r="O141" s="45"/>
-      <c r="P141" s="44"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="44"/>
-      <c r="S141" s="46"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="51"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="51"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="51"/>
+      <c r="P141" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q141" s="36"/>
+      <c r="R141" s="50"/>
+      <c r="S141" s="55"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
@@ -17573,24 +17727,24 @@
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="39"/>
-      <c r="L142" s="38"/>
-      <c r="M142" s="39"/>
-      <c r="N142" s="38"/>
-      <c r="O142" s="39"/>
-      <c r="P142" s="38"/>
-      <c r="Q142" s="39"/>
-      <c r="R142" s="38"/>
-      <c r="S142" s="40"/>
+        <v>113</v>
+      </c>
+      <c r="D142" s="42"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="42"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="42"/>
+      <c r="K142" s="41"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="41"/>
+      <c r="N142" s="42"/>
+      <c r="O142" s="41"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="41"/>
+      <c r="R142" s="42"/>
+      <c r="S142" s="53"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
@@ -17685,22 +17839,22 @@
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="32"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="42"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="41"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="41"/>
-      <c r="M143" s="42"/>
-      <c r="N143" s="41"/>
-      <c r="O143" s="42"/>
-      <c r="P143" s="41"/>
-      <c r="Q143" s="42"/>
-      <c r="R143" s="41"/>
-      <c r="S143" s="43"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="46"/>
+      <c r="K143" s="47"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="47"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="47"/>
+      <c r="R143" s="46"/>
+      <c r="S143" s="54"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
@@ -17795,22 +17949,22 @@
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="32"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="45"/>
-      <c r="J144" s="44"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="44"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="44"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="44"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="44"/>
-      <c r="S144" s="46"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="51"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="51"/>
+      <c r="P144" s="50"/>
+      <c r="Q144" s="51"/>
+      <c r="R144" s="50"/>
+      <c r="S144" s="55"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
@@ -17905,24 +18059,24 @@
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D145" s="38"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="39"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="39"/>
-      <c r="L145" s="38"/>
-      <c r="M145" s="39"/>
-      <c r="N145" s="38"/>
-      <c r="O145" s="39"/>
-      <c r="P145" s="38"/>
-      <c r="Q145" s="39"/>
-      <c r="R145" s="38"/>
-      <c r="S145" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="D145" s="42"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="42"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="41"/>
+      <c r="N145" s="42"/>
+      <c r="O145" s="41"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="41"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="53"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
@@ -18017,22 +18171,22 @@
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="32"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="41"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="41"/>
-      <c r="M146" s="42"/>
-      <c r="N146" s="41"/>
-      <c r="O146" s="42"/>
-      <c r="P146" s="41"/>
-      <c r="Q146" s="42"/>
-      <c r="R146" s="41"/>
-      <c r="S146" s="43"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="47"/>
+      <c r="J146" s="46"/>
+      <c r="K146" s="47"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="46"/>
+      <c r="S146" s="54"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
@@ -18127,22 +18281,22 @@
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="32"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="44"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="44"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="44"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="44"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="44"/>
-      <c r="S147" s="46"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="50"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="51"/>
+      <c r="L147" s="50"/>
+      <c r="M147" s="51"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="51"/>
+      <c r="P147" s="50"/>
+      <c r="Q147" s="51"/>
+      <c r="R147" s="50"/>
+      <c r="S147" s="55"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
@@ -18234,25 +18388,25 @@
       <c r="DD147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="47"/>
-      <c r="B148" s="48"/>
-      <c r="C148" s="49"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="39"/>
-      <c r="J148" s="38"/>
-      <c r="K148" s="39"/>
-      <c r="L148" s="38"/>
-      <c r="M148" s="39"/>
-      <c r="N148" s="38"/>
-      <c r="O148" s="39"/>
-      <c r="P148" s="38"/>
-      <c r="Q148" s="39"/>
-      <c r="R148" s="38"/>
-      <c r="S148" s="40"/>
+      <c r="A148" s="56"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="41"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="41"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="41"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="41"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="53"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
@@ -18344,25 +18498,25 @@
       <c r="DD148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="47"/>
-      <c r="B149" s="48"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="42"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="41"/>
-      <c r="K149" s="42"/>
-      <c r="L149" s="41"/>
-      <c r="M149" s="42"/>
-      <c r="N149" s="41"/>
-      <c r="O149" s="42"/>
-      <c r="P149" s="41"/>
-      <c r="Q149" s="42"/>
-      <c r="R149" s="41"/>
-      <c r="S149" s="43"/>
+      <c r="A149" s="56"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="47"/>
+      <c r="J149" s="46"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="46"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="46"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="46"/>
+      <c r="S149" s="54"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
@@ -18454,25 +18608,25 @@
       <c r="DD149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="50"/>
-      <c r="B150" s="51"/>
-      <c r="C150" s="49"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="52"/>
-      <c r="G150" s="53"/>
-      <c r="H150" s="52"/>
-      <c r="I150" s="53"/>
-      <c r="J150" s="52"/>
-      <c r="K150" s="53"/>
-      <c r="L150" s="52"/>
-      <c r="M150" s="53"/>
-      <c r="N150" s="52"/>
-      <c r="O150" s="53"/>
-      <c r="P150" s="52"/>
-      <c r="Q150" s="53"/>
-      <c r="R150" s="52"/>
-      <c r="S150" s="54"/>
+      <c r="A150" s="59"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="62"/>
+      <c r="J150" s="61"/>
+      <c r="K150" s="62"/>
+      <c r="L150" s="61"/>
+      <c r="M150" s="62"/>
+      <c r="N150" s="61"/>
+      <c r="O150" s="62"/>
+      <c r="P150" s="61"/>
+      <c r="Q150" s="62"/>
+      <c r="R150" s="61"/>
+      <c r="S150" s="63"/>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
@@ -18563,25 +18717,174 @@
       <c r="DC150" s="2"/>
       <c r="DD150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="B153" s="65"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="65"/>
-      <c r="F153" s="65"/>
-      <c r="G153" s="65"/>
-      <c r="H153" s="65"/>
-      <c r="I153" s="65"/>
-      <c r="J153" s="65"/>
+    <row r="151" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="56"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="41"/>
+      <c r="F151" s="42"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="42"/>
+      <c r="K151" s="41"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="41"/>
+      <c r="N151" s="42"/>
+      <c r="O151" s="41"/>
+      <c r="P151" s="42"/>
+      <c r="Q151" s="41"/>
+      <c r="R151" s="42"/>
+      <c r="S151" s="53"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="2"/>
+      <c r="X151" s="2"/>
+      <c r="Y151" s="2"/>
+      <c r="Z151" s="2"/>
+      <c r="AA151" s="2"/>
+      <c r="AB151" s="2"/>
+      <c r="AC151" s="2"/>
+      <c r="AD151" s="2"/>
+      <c r="AE151" s="2"/>
+      <c r="AF151" s="2"/>
+      <c r="AG151" s="2"/>
+      <c r="AH151" s="2"/>
+      <c r="AI151" s="2"/>
+      <c r="AJ151" s="2"/>
+      <c r="AK151" s="2"/>
+      <c r="AL151" s="2"/>
+      <c r="AM151" s="2"/>
+      <c r="AN151" s="2"/>
+      <c r="AO151" s="2"/>
+      <c r="AP151" s="2"/>
+      <c r="AQ151" s="2"/>
+      <c r="AR151" s="2"/>
+      <c r="AS151" s="2"/>
+      <c r="AT151" s="2"/>
+      <c r="AU151" s="2"/>
+      <c r="AV151" s="2"/>
+      <c r="AW151" s="2"/>
+      <c r="AX151" s="2"/>
+      <c r="AY151" s="2"/>
+      <c r="AZ151" s="2"/>
+      <c r="BA151" s="2"/>
+      <c r="BB151" s="2"/>
+      <c r="BC151" s="2"/>
+      <c r="BD151" s="2"/>
+      <c r="BE151" s="2"/>
+      <c r="BF151" s="2"/>
+      <c r="BG151" s="2"/>
+      <c r="BH151" s="2"/>
+      <c r="BI151" s="2"/>
+      <c r="BJ151" s="2"/>
+      <c r="BK151" s="2"/>
+      <c r="BL151" s="2"/>
+      <c r="BM151" s="2"/>
+      <c r="BN151" s="2"/>
+      <c r="BO151" s="2"/>
+      <c r="BP151" s="2"/>
+      <c r="BQ151" s="2"/>
+      <c r="BR151" s="2"/>
+      <c r="BS151" s="2"/>
+      <c r="BT151" s="2"/>
+      <c r="BU151" s="2"/>
+      <c r="BV151" s="2"/>
+      <c r="BW151" s="2"/>
+      <c r="BX151" s="2"/>
+      <c r="BY151" s="2"/>
+      <c r="BZ151" s="2"/>
+      <c r="CA151" s="2"/>
+      <c r="CB151" s="2"/>
+      <c r="CC151" s="2"/>
+      <c r="CD151" s="2"/>
+      <c r="CE151" s="2"/>
+      <c r="CF151" s="2"/>
+      <c r="CG151" s="2"/>
+      <c r="CH151" s="2"/>
+      <c r="CI151" s="2"/>
+      <c r="CJ151" s="2"/>
+      <c r="CK151" s="2"/>
+      <c r="CL151" s="2"/>
+      <c r="CM151" s="2"/>
+      <c r="CN151" s="2"/>
+      <c r="CO151" s="2"/>
+      <c r="CP151" s="2"/>
+      <c r="CQ151" s="2"/>
+      <c r="CR151" s="2"/>
+      <c r="CS151" s="2"/>
+      <c r="CT151" s="2"/>
+      <c r="CU151" s="2"/>
+      <c r="CV151" s="2"/>
+      <c r="CW151" s="2"/>
+      <c r="CX151" s="2"/>
+      <c r="CY151" s="2"/>
+      <c r="CZ151" s="2"/>
+      <c r="DA151" s="2"/>
+      <c r="DB151" s="2"/>
+      <c r="DC151" s="2"/>
+      <c r="DD151" s="2"/>
+    </row>
+    <row r="152" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="56"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="76"/>
+      <c r="J152" s="75"/>
+      <c r="K152" s="76"/>
+      <c r="L152" s="75"/>
+      <c r="M152" s="76"/>
+      <c r="N152" s="75"/>
+      <c r="O152" s="76"/>
+      <c r="P152" s="75"/>
+      <c r="Q152" s="76"/>
+      <c r="R152" s="75"/>
+      <c r="S152" s="57"/>
+    </row>
+    <row r="153" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="59"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="78"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="78"/>
+      <c r="H153" s="77"/>
+      <c r="I153" s="78"/>
+      <c r="J153" s="77"/>
+      <c r="K153" s="78"/>
+      <c r="L153" s="77"/>
+      <c r="M153" s="78"/>
+      <c r="N153" s="77"/>
+      <c r="O153" s="78"/>
+      <c r="P153" s="77"/>
+      <c r="Q153" s="78"/>
+      <c r="R153" s="77"/>
+      <c r="S153" s="60"/>
     </row>
     <row r="154" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="155" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" s="79"/>
+      <c r="C156" s="79"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
+      <c r="I156" s="79"/>
+      <c r="J156" s="79"/>
+    </row>
     <row r="157" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="159" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18727,8 +19030,11 @@
     <row r="299" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="300" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="301" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="390">
+  <mergeCells count="418">
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -18831,10 +19137,16 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
@@ -18849,6 +19161,9 @@
     <mergeCell ref="A43:A66"/>
     <mergeCell ref="B43:B66"/>
     <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:S43"/>
+    <mergeCell ref="D44:S44"/>
+    <mergeCell ref="D45:S45"/>
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
@@ -18898,16 +19213,22 @@
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:S54"/>
     <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="R55:S55"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="R56:S56"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="C58:C60"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
@@ -18964,15 +19285,24 @@
     <mergeCell ref="D83:S83"/>
     <mergeCell ref="D84:S84"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="H85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="H86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="H87:Q87"/>
+    <mergeCell ref="R87:S87"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="A97:A120"/>
     <mergeCell ref="B97:B120"/>
     <mergeCell ref="C97:C99"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="R99:S99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="F100:G100"/>
@@ -19006,19 +19336,16 @@
     <mergeCell ref="P105:Q105"/>
     <mergeCell ref="R105:S105"/>
     <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:E106"/>
     <mergeCell ref="H106:I106"/>
     <mergeCell ref="J106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
     <mergeCell ref="R106:S106"/>
-    <mergeCell ref="D107:E107"/>
     <mergeCell ref="H107:I107"/>
     <mergeCell ref="J107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
     <mergeCell ref="R107:S107"/>
-    <mergeCell ref="D108:E108"/>
     <mergeCell ref="H108:I108"/>
     <mergeCell ref="J108:K108"/>
     <mergeCell ref="L108:M108"/>
@@ -19038,12 +19365,12 @@
     <mergeCell ref="N111:O111"/>
     <mergeCell ref="R111:S111"/>
     <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:K112"/>
-    <mergeCell ref="L112:S112"/>
-    <mergeCell ref="D113:K113"/>
-    <mergeCell ref="L113:S113"/>
-    <mergeCell ref="D114:K114"/>
-    <mergeCell ref="L114:S114"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="J112:S112"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="J113:S113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="J114:S114"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="C121:C123"/>
@@ -19105,20 +19432,27 @@
     <mergeCell ref="P135:Q135"/>
     <mergeCell ref="R135:S135"/>
     <mergeCell ref="C136:C138"/>
+    <mergeCell ref="H136:I136"/>
     <mergeCell ref="N136:O136"/>
     <mergeCell ref="P136:Q136"/>
     <mergeCell ref="R136:S136"/>
+    <mergeCell ref="H137:I137"/>
     <mergeCell ref="N137:O137"/>
     <mergeCell ref="P137:Q137"/>
     <mergeCell ref="R137:S137"/>
+    <mergeCell ref="H138:I138"/>
     <mergeCell ref="N138:O138"/>
     <mergeCell ref="P138:Q138"/>
     <mergeCell ref="R138:S138"/>
     <mergeCell ref="C139:C141"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="P141:Q141"/>
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="C148:C150"/>
-    <mergeCell ref="A153:J153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="A156:J156"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/python/table.xlsx
+++ b/python/table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="218">
   <si>
     <t xml:space="preserve">УТВЕРЖДАЮ</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">_______________ Бобрик М.Ю. </t>
   </si>
   <si>
-    <t xml:space="preserve">« 3 » февраля 2023г.</t>
+    <t xml:space="preserve">«10» февраля 2023г.</t>
   </si>
   <si>
     <t xml:space="preserve">Факультет: Математики и информационных технологий</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Дневная форма получения образования</t>
   </si>
   <si>
-    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (06.02.2023 - 11.02.2023)</t>
+    <t xml:space="preserve">РАСПИСАНИЕ УЧЕБНЫХ ЗАНЯТИЙ (13.02.2023 - 18.02.2023)</t>
   </si>
   <si>
     <t xml:space="preserve">№</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">6 Февраля 2023</t>
+    <t xml:space="preserve">13 Февраля 2023</t>
   </si>
   <si>
     <t xml:space="preserve">1     (08.00-09.25)</t>
@@ -160,67 +160,100 @@
     <t xml:space="preserve">2     (09.35-11.00)</t>
   </si>
   <si>
+    <t xml:space="preserve">Объектно-ориентированное проектирование и программирование (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Языки и технологии программирования (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теория множеств и логика высказываний (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математический анализ (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Машинно-ориентированное программирование (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшая математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белорусский язык (профессиональная лексика) (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Столяренко А.Ю. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов В.А. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александрович Т.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеенко С.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шлапаков С.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зайцева Е.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 509a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 413а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3     (11.30-12.55)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Основы алгоритмизации и программирования (лк)</t>
   </si>
   <si>
     <t xml:space="preserve">Дифференциальное исчисление (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">Математический анализ (лк)</t>
+    <t xml:space="preserve">Иностранный язык (пз)</t>
   </si>
   <si>
-    <t xml:space="preserve">Дифференциальное и интегральное исчисление (лк)</t>
+    <t xml:space="preserve">Линейная алгебра (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">Экономическая теория (лк)</t>
+    <t xml:space="preserve">Высшая математика (пз)</t>
   </si>
   <si>
     <t xml:space="preserve">Корчевская Е.А. (доц.)</t>
   </si>
   <si>
     <t xml:space="preserve">Подоксенов М.Н. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванова Ж.В. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3     (11.30-12.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иностранный язык (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конструирование программного обеспечения (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы менеджмента (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александрович Т.А. (ст.пр.)</t>
   </si>
   <si>
     <t xml:space="preserve">Кажекина Л.В. (ст.пр.)</t>
@@ -232,64 +265,52 @@
     <t xml:space="preserve">Шкатуло Н.М. (ст.пр.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Сергеенко С.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Салахова Ю.Ш. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трубников Ю.В. (проф.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 612</t>
+    <t xml:space="preserve">ауд. 530</t>
   </si>
   <si>
     <t xml:space="preserve">ауд. 219</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 302</t>
+    <t xml:space="preserve">ауд. 308</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 703</t>
+    <t xml:space="preserve">ауд. 333</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 317</t>
+    <t xml:space="preserve">ауд. 526</t>
   </si>
   <si>
     <t xml:space="preserve">4     (13.05-14.30)</t>
   </si>
   <si>
-    <t xml:space="preserve">Объектно-ориентированное проектирование и программирование (лк)</t>
+    <t xml:space="preserve">Разработка кросс-платформенных приложений (лаб)</t>
   </si>
   <si>
-    <t xml:space="preserve">Алгебраические структуры и теория чисел (лк)</t>
+    <t xml:space="preserve">Конструирование программного обеспечения (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">Линейная алгебра (лк)</t>
+    <t xml:space="preserve">Алгоритмизация и программирование (лаб)</t>
   </si>
   <si>
-    <t xml:space="preserve">Алгоритмы и структуры данных (лк)</t>
+    <t xml:space="preserve">Философия (пз)</t>
   </si>
   <si>
-    <t xml:space="preserve">Дифференциальные и интегральные уравнения (лк)</t>
+    <t xml:space="preserve">Боярщонок Н.М. (пр.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
+    <t xml:space="preserve">ауд. 302</t>
   </si>
   <si>
-    <t xml:space="preserve">Никитин А.И. (доц.)</t>
+    <t xml:space="preserve">ауд. 326</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 128</t>
+    <t xml:space="preserve">ауд. 221</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд. 531</t>
+    <t xml:space="preserve">ауд. 425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 422</t>
   </si>
   <si>
     <t xml:space="preserve">5     (14.40-16.05)</t>
@@ -298,19 +319,7 @@
     <t xml:space="preserve">Иностранный язык (пз)(фак-в)</t>
   </si>
   <si>
-    <t xml:space="preserve">Иностранный язык (общее владение) (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончарова С.А. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Гончарова С.А. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 303 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 303</t>
   </si>
   <si>
     <t xml:space="preserve">6     (16.35-18.00)</t>
@@ -325,115 +334,7 @@
     <t xml:space="preserve">Вторник</t>
   </si>
   <si>
-    <t xml:space="preserve">7 Февраля 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Профессиональная культура специалиста (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пышненко О.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тетерина В.В. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 509a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Методы алгоритмизации (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы тестирования программного обеспечения (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белорусский язык (профессиональная лексика) (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгоритмизация и программирование (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Молекулярная физика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шедько В.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дедова Е.С. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Караулова Т.Б. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антонович Д.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Философия (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рудковский Э.И. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Февраля 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теория множеств и логика высказываний (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка кросс-платформенных приложений (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экономика организации (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Элементарная физика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семёнов М.Г. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Янкевич Е.М. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 412</t>
+    <t xml:space="preserve">14 Февраля 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Элементарная математика (лк)</t>
@@ -442,94 +343,334 @@
     <t xml:space="preserve">Основы и методологии программирования (лк)</t>
   </si>
   <si>
+    <t xml:space="preserve">Экономика организации (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медиакультура личности (лк)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрова Т.К. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жук Т.Д. (пр.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Устименко В.В. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исаченко Ю.В. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янкевич Е.М. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витько Е.А. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 200е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объектно-ориентированное проектирование и программирование (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методы алгоритмизации (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмы и структуры данных (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы алгоритмизации и программирования (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дифференциальные и интегральные уравнения (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпаков С.А. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мехович А.П. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Л.В. (пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трубников Ю.В. (проф.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебраические структуры и теория чисел (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дифференциальное и интегральное исчисление (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмы и структуры данных (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дедова Е.С. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воробьев Н.Т. (проф.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Ж.В. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Никитин А.И. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рудковский Э.И. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВП (практика)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математические методы компьютерной графики (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численные методы (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономическая теория (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ализарчик Л.Л. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трацевская Л.Ф. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Февраля 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курат. час</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павлыш Э.В. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математический анализ (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Философия (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Численные методы (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теория множеств и логика высказываний (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линейная алгебра (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 218</t>
   </si>
   <si>
     <t xml:space="preserve">Языки и технологии программирования (лк)</t>
   </si>
   <si>
+    <t xml:space="preserve">Дифференциальное исчисление (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика и математическая логика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная физика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавитова Т.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радюль О.Ю. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Четверг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Февраля 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методы алгоритмизации (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы тестирования программного обеспечения (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка кросс-платформенных приложений (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конструирование программного обеспечения (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экономика организации (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Элементарная физика (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шедько В.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семёнов М.Г. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискретная математика (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иностранный язык (профессиональный) (пз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белорусский язык (профессиональная лексика) (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коррупция и её общественная опасность (лк)(фак-в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путова Н.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы менеджмента (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салахова Ю.Ш. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгебраические структуры и теория чисел (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дифференциальное и интегральное исчисление (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профессиональная культура специалиста (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гелясина Е.В. (доц.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пятница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 Февраля 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная графика и мультимедиа (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алгоритмизация и программирование (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Булгакова Н.В. (ст.пр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аналитическая геометрия (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы и методологии программирования (лаб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системная интеграция и конфигурирование программного обеспечения (лк)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд. 531</t>
+  </si>
+  <si>
     <t xml:space="preserve">Социальная психология (лк)</t>
   </si>
   <si>
-    <t xml:space="preserve">Алгебра и теория чисел (лк)</t>
+    <t xml:space="preserve">Иностранный язык(null) (пз)(фак-в)</t>
   </si>
   <si>
     <t xml:space="preserve">Косаревская Т.Е. (доц.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Мехович А.П. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Четверг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 Февраля 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшая математика (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шлапаков С.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алгебра и теория чисел (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Машинно-ориентированное программирование (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Численные методы (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Витько Е.А. (доц.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пятница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Февраля 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Математические методы компьютерной графики (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системная интеграция и конфигурирование программного обеспечения (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд. 301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компьютерная графика и мультимедиа (лк)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белорусский язык (профессиональная лексика) (пз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Булгакова Н.В. (ст.пр.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зайцева Е.А. (ст.пр.)</t>
+    <t xml:space="preserve">Экономическая теория (пз)</t>
   </si>
   <si>
     <t xml:space="preserve">Суббота</t>
   </si>
   <si>
-    <t xml:space="preserve">11 Февраля 2023</t>
+    <t xml:space="preserve">18 Февраля 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Декан факультета математики и информационных технологий _________________ Е.Н. Залесская</t>
@@ -542,7 +683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -569,13 +710,6 @@
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -632,20 +766,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
@@ -672,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -946,6 +1066,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -972,7 +1099,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -993,11 +1120,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1005,7 +1128,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,6 +1152,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1041,39 +1176,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,11 +1208,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1101,6 +1228,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1109,19 +1240,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1141,6 +1268,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1149,19 +1280,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1189,7 +1312,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1225,11 +1348,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,7 +1372,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1351,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:DD328"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5:S5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M130" activeCellId="0" sqref="M130:M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1392,57 +1515,57 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1748,27 +1871,27 @@
       <c r="DD9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1967,43 +2090,43 @@
       <c r="DD11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12" t="s">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13" t="s">
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="13"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -2095,41 +2218,41 @@
       <c r="DD12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15" t="s">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16" t="s">
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="16"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -2221,41 +2344,41 @@
       <c r="DD13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19" t="s">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="19"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -2347,55 +2470,55 @@
       <c r="DD14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="20" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="21" t="s">
         <v>40</v>
       </c>
       <c r="T15" s="2"/>
@@ -2489,33 +2612,33 @@
       <c r="DD15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2607,25 +2730,25 @@
       <c r="DD16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2717,25 +2840,25 @@
       <c r="DD17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2827,39 +2950,41 @@
       <c r="DD18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="30"/>
       <c r="R19" s="31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S19" s="31"/>
       <c r="T19" s="2"/>
@@ -2953,39 +3078,41 @@
       <c r="DD19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32" t="s">
+      <c r="E20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="34"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3077,39 +3204,41 @@
       <c r="DD20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="S21" s="35"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="36"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3201,45 +3330,45 @@
       <c r="DD21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="29" t="s">
-        <v>61</v>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="M22" s="30"/>
       <c r="N22" s="30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O22" s="30"/>
       <c r="P22" s="30" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="30"/>
       <c r="R22" s="31" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="S22" s="31"/>
       <c r="T22" s="2"/>
@@ -3333,43 +3462,43 @@
       <c r="DD22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="33"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="34"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -3461,43 +3590,43 @@
       <c r="DD23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34" t="s">
-        <v>74</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="I24" s="37"/>
-      <c r="J24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S24" s="35"/>
+      <c r="J24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="36"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -3589,43 +3718,43 @@
       <c r="DD24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="29" t="s">
-        <v>80</v>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="30"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="N25" s="30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O25" s="30"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30" t="s">
+        <v>89</v>
+      </c>
       <c r="R25" s="31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="S25" s="31"/>
       <c r="T25" s="2"/>
@@ -3719,41 +3848,41 @@
       <c r="DD25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="O26" s="32"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S26" s="33"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="33"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="S26" s="34"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -3845,41 +3974,41 @@
       <c r="DD26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34" t="s">
-        <v>74</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="I27" s="37"/>
-      <c r="J27" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="45"/>
+      <c r="M27" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="S27" s="36"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -3971,43 +4100,43 @@
       <c r="DD27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="29" t="s">
-        <v>90</v>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M28" s="30"/>
       <c r="N28" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="S28" s="44"/>
+        <v>98</v>
+      </c>
+      <c r="S28" s="46"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -4099,41 +4228,41 @@
       <c r="DD28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="45"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="42"/>
       <c r="L29" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="S29" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="M29" s="42"/>
+      <c r="N29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="42"/>
+      <c r="P29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -4225,41 +4354,41 @@
       <c r="DD29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="O30" s="46"/>
-      <c r="P30" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S30" s="48"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="45"/>
+      <c r="N30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="45"/>
+      <c r="P30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S30" s="47"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -4351,10 +4480,10 @@
       <c r="DD30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="29" t="s">
-        <v>97</v>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
@@ -4371,7 +4500,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="39"/>
       <c r="R31" s="38"/>
-      <c r="S31" s="49"/>
+      <c r="S31" s="48"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -4463,9 +4592,9 @@
       <c r="DD31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="40"/>
       <c r="E32" s="41"/>
       <c r="F32" s="40"/>
@@ -4481,7 +4610,7 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="41"/>
       <c r="R32" s="40"/>
-      <c r="S32" s="50"/>
+      <c r="S32" s="49"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -4573,25 +4702,25 @@
       <c r="DD32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="51"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="50"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -4683,10 +4812,10 @@
       <c r="DD33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="29" t="s">
-        <v>98</v>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
@@ -4703,7 +4832,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
       <c r="R34" s="38"/>
-      <c r="S34" s="49"/>
+      <c r="S34" s="48"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -4795,9 +4924,9 @@
       <c r="DD34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
       <c r="F35" s="40"/>
@@ -4813,7 +4942,7 @@
       <c r="P35" s="40"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="50"/>
+      <c r="S35" s="49"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -4905,25 +5034,25 @@
       <c r="DD35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="51"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="50"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -5015,10 +5144,10 @@
       <c r="DD36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="29" t="s">
-        <v>99</v>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
@@ -5035,7 +5164,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="38"/>
-      <c r="S37" s="49"/>
+      <c r="S37" s="48"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -5127,9 +5256,9 @@
       <c r="DD37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="40"/>
       <c r="E38" s="41"/>
       <c r="F38" s="40"/>
@@ -5145,7 +5274,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="41"/>
       <c r="R38" s="40"/>
-      <c r="S38" s="50"/>
+      <c r="S38" s="49"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -5237,25 +5366,25 @@
       <c r="DD38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="51"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="50"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -5347,9 +5476,9 @@
       <c r="DD39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
       <c r="F40" s="38"/>
@@ -5365,7 +5494,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="39"/>
       <c r="R40" s="38"/>
-      <c r="S40" s="49"/>
+      <c r="S40" s="48"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -5457,9 +5586,9 @@
       <c r="DD40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="40"/>
       <c r="E41" s="41"/>
       <c r="F41" s="40"/>
@@ -5475,7 +5604,7 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="40"/>
-      <c r="S41" s="50"/>
+      <c r="S41" s="49"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -5567,25 +5696,25 @@
       <c r="DD41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="59"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="58"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -5677,31 +5806,31 @@
       <c r="DD42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="25" t="s">
+      <c r="A43" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="62"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="61"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -5793,9 +5922,9 @@
       <c r="DD43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="40"/>
       <c r="E44" s="41"/>
       <c r="F44" s="40"/>
@@ -5811,7 +5940,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="41"/>
       <c r="R44" s="40"/>
-      <c r="S44" s="50"/>
+      <c r="S44" s="49"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -5903,25 +6032,25 @@
       <c r="DD44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="51"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="50"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -6013,37 +6142,45 @@
       <c r="DD45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="29" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="30" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="30" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30" t="s">
-        <v>49</v>
+      <c r="J46" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="M46" s="30"/>
       <c r="N46" s="30" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="O46" s="30"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
+      <c r="P46" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q46" s="30"/>
       <c r="R46" s="31" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="S46" s="31"/>
       <c r="T46" s="2"/>
@@ -6137,37 +6274,45 @@
       <c r="DD46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
+        <v>109</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="L47" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S47" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="M47" s="42"/>
+      <c r="N47" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="S47" s="34"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -6259,37 +6404,45 @@
       <c r="DD47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="O48" s="34"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S48" s="35"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M48" s="45"/>
+      <c r="N48" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="S48" s="36"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -6381,41 +6534,43 @@
       <c r="DD48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="29" t="s">
-        <v>61</v>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="30" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I49" s="30"/>
-      <c r="J49" s="30" t="s">
-        <v>110</v>
-      </c>
+      <c r="J49" s="30"/>
       <c r="K49" s="30"/>
-      <c r="L49" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="30"/>
+      <c r="L49" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="N49" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O49" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="P49" s="30" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="Q49" s="30"/>
       <c r="R49" s="31" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="S49" s="31"/>
       <c r="T49" s="2"/>
@@ -6509,41 +6664,43 @@
       <c r="DD49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="32"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="M50" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="N50" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="S50" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="P50" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S50" s="34"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -6635,41 +6792,43 @@
       <c r="DD50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="S51" s="35"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N51" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="O51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="S51" s="36"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -6761,36 +6920,42 @@
       <c r="DD51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="29" t="s">
-        <v>80</v>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="30" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
+      <c r="J52" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="K52" s="30"/>
       <c r="L52" s="30" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M52" s="30"/>
       <c r="N52" s="30" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="O52" s="30"/>
-      <c r="P52" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
+      <c r="P52" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="31" t="s">
+        <v>127</v>
+      </c>
       <c r="S52" s="31"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -6883,35 +7048,41 @@
       <c r="DD52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O53" s="32"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="O53" s="33"/>
       <c r="P53" s="33" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
+      <c r="R53" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S53" s="34"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -7003,35 +7174,41 @@
       <c r="DD53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="O54" s="34"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="O54" s="35"/>
       <c r="P54" s="35" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
+      <c r="R54" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="S54" s="36"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -7123,31 +7300,45 @@
       <c r="DD54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="29" t="s">
-        <v>90</v>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="39"/>
+      <c r="F55" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>148</v>
+      </c>
       <c r="J55" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O55" s="30"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="49"/>
+      <c r="S55" s="46"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -7239,29 +7430,43 @@
       <c r="DD55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="40"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O56" s="32"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="50"/>
+      <c r="F56" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K56" s="33"/>
+      <c r="L56" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N56" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="S56" s="26"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -7353,29 +7558,43 @@
       <c r="DD56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" s="34"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="O57" s="34"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="51"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N57" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="S57" s="47"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -7467,27 +7686,31 @@
       <c r="DD57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="29" t="s">
-        <v>97</v>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
+      <c r="H58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="30"/>
       <c r="J58" s="38"/>
       <c r="K58" s="39"/>
       <c r="L58" s="38"/>
       <c r="M58" s="39"/>
       <c r="N58" s="38"/>
       <c r="O58" s="39"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="39"/>
+      <c r="P58" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q58" s="30"/>
       <c r="R58" s="38"/>
-      <c r="S58" s="49"/>
+      <c r="S58" s="48"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -7579,25 +7802,29 @@
       <c r="DD58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="40"/>
       <c r="E59" s="41"/>
       <c r="F59" s="40"/>
       <c r="G59" s="41"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41"/>
+      <c r="H59" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="33"/>
       <c r="J59" s="40"/>
       <c r="K59" s="41"/>
       <c r="L59" s="40"/>
       <c r="M59" s="41"/>
       <c r="N59" s="40"/>
       <c r="O59" s="41"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="41"/>
+      <c r="P59" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q59" s="42"/>
       <c r="R59" s="40"/>
-      <c r="S59" s="50"/>
+      <c r="S59" s="49"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -7689,25 +7916,29 @@
       <c r="DD59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="51"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="50"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -7799,10 +8030,10 @@
       <c r="DD60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="29" t="s">
-        <v>98</v>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
@@ -7819,7 +8050,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="39"/>
       <c r="R61" s="38"/>
-      <c r="S61" s="49"/>
+      <c r="S61" s="48"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -7911,9 +8142,9 @@
       <c r="DD61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="40"/>
       <c r="E62" s="41"/>
       <c r="F62" s="40"/>
@@ -7929,7 +8160,7 @@
       <c r="P62" s="40"/>
       <c r="Q62" s="41"/>
       <c r="R62" s="40"/>
-      <c r="S62" s="50"/>
+      <c r="S62" s="49"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -8021,25 +8252,25 @@
       <c r="DD62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="51"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="50"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -8131,10 +8362,10 @@
       <c r="DD63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="29" t="s">
-        <v>99</v>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
@@ -8151,7 +8382,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="38"/>
-      <c r="S64" s="49"/>
+      <c r="S64" s="48"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -8243,9 +8474,9 @@
       <c r="DD64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="29"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="40"/>
       <c r="E65" s="41"/>
       <c r="F65" s="40"/>
@@ -8261,7 +8492,7 @@
       <c r="P65" s="40"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="40"/>
-      <c r="S65" s="50"/>
+      <c r="S65" s="49"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -8353,25 +8584,25 @@
       <c r="DD65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="51"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="50"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -8463,9 +8694,9 @@
       <c r="DD66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="38"/>
       <c r="E67" s="39"/>
       <c r="F67" s="38"/>
@@ -8481,7 +8712,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="39"/>
       <c r="R67" s="38"/>
-      <c r="S67" s="49"/>
+      <c r="S67" s="48"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -8573,9 +8804,9 @@
       <c r="DD67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="40"/>
       <c r="E68" s="41"/>
       <c r="F68" s="40"/>
@@ -8591,7 +8822,7 @@
       <c r="P68" s="40"/>
       <c r="Q68" s="41"/>
       <c r="R68" s="40"/>
-      <c r="S68" s="50"/>
+      <c r="S68" s="49"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -8683,25 +8914,25 @@
       <c r="DD68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="55"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="59"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="58"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -8793,31 +9024,35 @@
       <c r="DD69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="62"/>
+      <c r="D70" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="62"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="61"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -8909,11 +9144,13 @@
       <c r="DD70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="33"/>
       <c r="F71" s="40"/>
       <c r="G71" s="41"/>
       <c r="H71" s="40"/>
@@ -8924,10 +9161,12 @@
       <c r="M71" s="41"/>
       <c r="N71" s="40"/>
       <c r="O71" s="41"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="41"/>
+      <c r="P71" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q71" s="33"/>
       <c r="R71" s="40"/>
-      <c r="S71" s="50"/>
+      <c r="S71" s="49"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -9019,25 +9258,29 @@
       <c r="DD71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="51"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="35"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="50"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -9129,40 +9372,38 @@
       <c r="DD72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="29" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G73" s="30"/>
-      <c r="H73" s="30" t="s">
-        <v>84</v>
-      </c>
+      <c r="H73" s="30"/>
       <c r="I73" s="30"/>
-      <c r="J73" s="30" t="s">
-        <v>130</v>
-      </c>
+      <c r="J73" s="30"/>
       <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
+      <c r="L73" s="30" t="s">
+        <v>126</v>
+      </c>
       <c r="M73" s="30"/>
       <c r="N73" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="31" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P73" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
       <c r="S73" s="31"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -9255,39 +9496,37 @@
       <c r="DD73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M74" s="33"/>
       <c r="N74" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="S74" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="O74" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -9379,39 +9618,37 @@
       <c r="DD74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="S75" s="35"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="O75" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -9503,45 +9740,47 @@
       <c r="DD75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="29" t="s">
-        <v>61</v>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E76" s="30"/>
       <c r="F76" s="30" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G76" s="30"/>
       <c r="H76" s="30" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="I76" s="30"/>
-      <c r="J76" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K76" s="30"/>
+      <c r="J76" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="L76" s="30" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="M76" s="30"/>
       <c r="N76" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="O76" s="63" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="P76" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q76" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R76" s="31" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="S76" s="31"/>
       <c r="T76" s="2"/>
@@ -9635,45 +9874,45 @@
       <c r="DD76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I77" s="32"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="33"/>
       <c r="J77" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M77" s="32"/>
-      <c r="N77" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O77" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P77" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q77" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="R77" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S77" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L77" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77" s="33"/>
+      <c r="N77" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R77" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="S77" s="34"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -9765,45 +10004,45 @@
       <c r="DD77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="O78" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P78" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q78" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="R78" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S78" s="35"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="K78" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L78" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="O78" s="37"/>
+      <c r="P78" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q78" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="R78" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="S78" s="36"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -9895,43 +10134,45 @@
       <c r="DD78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="29" t="s">
-        <v>80</v>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="G79" s="30"/>
       <c r="H79" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
+      <c r="J79" s="30" t="s">
+        <v>172</v>
+      </c>
       <c r="K79" s="30"/>
       <c r="L79" s="30" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="M79" s="30"/>
       <c r="N79" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O79" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P79" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q79" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R79" s="31" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="S79" s="31"/>
       <c r="T79" s="2"/>
@@ -10025,43 +10266,43 @@
       <c r="DD79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M80" s="32"/>
-      <c r="N80" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O80" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P80" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q80" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="R80" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="S80" s="33"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80" s="33"/>
+      <c r="N80" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R80" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S80" s="34"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -10153,43 +10394,43 @@
       <c r="DD80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="O81" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P81" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q81" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="R81" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="S81" s="35"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="O81" s="37"/>
+      <c r="P81" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q81" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="R81" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="S81" s="36"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -10281,10 +10522,10 @@
       <c r="DD81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="29" t="s">
-        <v>90</v>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>44</v>
@@ -10395,25 +10636,25 @@
       <c r="DD82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
@@ -10505,25 +10746,25 @@
       <c r="DD83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -10615,27 +10856,35 @@
       <c r="DD84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="29" t="s">
-        <v>97</v>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D85" s="38"/>
       <c r="E85" s="39"/>
       <c r="F85" s="38"/>
       <c r="G85" s="39"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="39"/>
+      <c r="H85" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I85" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" s="30"/>
       <c r="N85" s="38"/>
       <c r="O85" s="39"/>
       <c r="P85" s="38"/>
       <c r="Q85" s="39"/>
       <c r="R85" s="38"/>
-      <c r="S85" s="49"/>
+      <c r="S85" s="48"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
@@ -10727,25 +10976,33 @@
       <c r="DD85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="29"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="40"/>
       <c r="E86" s="41"/>
       <c r="F86" s="40"/>
       <c r="G86" s="41"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="41"/>
+      <c r="H86" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="M86" s="33"/>
       <c r="N86" s="40"/>
       <c r="O86" s="41"/>
       <c r="P86" s="40"/>
       <c r="Q86" s="41"/>
       <c r="R86" s="40"/>
-      <c r="S86" s="50"/>
+      <c r="S86" s="49"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
@@ -10837,25 +11094,33 @@
       <c r="DD86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="51"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I87" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="J87" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M87" s="35"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="50"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
@@ -10947,10 +11212,10 @@
       <c r="DD87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="29" t="s">
-        <v>98</v>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D88" s="38"/>
       <c r="E88" s="39"/>
@@ -10967,7 +11232,7 @@
       <c r="P88" s="38"/>
       <c r="Q88" s="39"/>
       <c r="R88" s="38"/>
-      <c r="S88" s="49"/>
+      <c r="S88" s="48"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -11059,9 +11324,9 @@
       <c r="DD88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="29"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="40"/>
       <c r="E89" s="41"/>
       <c r="F89" s="40"/>
@@ -11077,7 +11342,7 @@
       <c r="P89" s="40"/>
       <c r="Q89" s="41"/>
       <c r="R89" s="40"/>
-      <c r="S89" s="50"/>
+      <c r="S89" s="49"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
@@ -11169,25 +11434,25 @@
       <c r="DD89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="42"/>
-      <c r="Q90" s="43"/>
-      <c r="R90" s="42"/>
-      <c r="S90" s="51"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="50"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
@@ -11279,10 +11544,10 @@
       <c r="DD90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="29" t="s">
-        <v>99</v>
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="39"/>
@@ -11299,7 +11564,7 @@
       <c r="P91" s="38"/>
       <c r="Q91" s="39"/>
       <c r="R91" s="38"/>
-      <c r="S91" s="49"/>
+      <c r="S91" s="48"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
@@ -11391,9 +11656,9 @@
       <c r="DD91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="23"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="29"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="40"/>
       <c r="E92" s="41"/>
       <c r="F92" s="40"/>
@@ -11409,7 +11674,7 @@
       <c r="P92" s="40"/>
       <c r="Q92" s="41"/>
       <c r="R92" s="40"/>
-      <c r="S92" s="50"/>
+      <c r="S92" s="49"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
@@ -11501,25 +11766,25 @@
       <c r="DD92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="42"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="42"/>
-      <c r="Q93" s="43"/>
-      <c r="R93" s="42"/>
-      <c r="S93" s="51"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="50"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
@@ -11611,9 +11876,9 @@
       <c r="DD93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="52"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="54"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="38"/>
       <c r="E94" s="39"/>
       <c r="F94" s="38"/>
@@ -11629,7 +11894,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="38"/>
-      <c r="S94" s="49"/>
+      <c r="S94" s="48"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
@@ -11721,9 +11986,9 @@
       <c r="DD94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="52"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="53"/>
       <c r="D95" s="40"/>
       <c r="E95" s="41"/>
       <c r="F95" s="40"/>
@@ -11739,7 +12004,7 @@
       <c r="P95" s="40"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="40"/>
-      <c r="S95" s="50"/>
+      <c r="S95" s="49"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
@@ -11831,25 +12096,25 @@
       <c r="DD95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="55"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="57"/>
-      <c r="K96" s="58"/>
-      <c r="L96" s="57"/>
-      <c r="M96" s="58"/>
-      <c r="N96" s="57"/>
-      <c r="O96" s="58"/>
-      <c r="P96" s="57"/>
-      <c r="Q96" s="58"/>
-      <c r="R96" s="57"/>
-      <c r="S96" s="59"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="58"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
@@ -11941,31 +12206,31 @@
       <c r="DD96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="25" t="s">
+      <c r="A97" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="61"/>
-      <c r="P97" s="60"/>
-      <c r="Q97" s="61"/>
-      <c r="R97" s="60"/>
-      <c r="S97" s="62"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="59"/>
+      <c r="S97" s="61"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
@@ -12057,9 +12322,9 @@
       <c r="DD97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
       <c r="D98" s="40"/>
       <c r="E98" s="41"/>
       <c r="F98" s="40"/>
@@ -12075,7 +12340,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="41"/>
       <c r="R98" s="40"/>
-      <c r="S98" s="50"/>
+      <c r="S98" s="49"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
@@ -12167,25 +12432,25 @@
       <c r="DD98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="42"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="42"/>
-      <c r="S99" s="51"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="50"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
@@ -12277,41 +12542,41 @@
       <c r="DD99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="29" t="s">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="I100" s="30"/>
       <c r="J100" s="30" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="K100" s="30"/>
-      <c r="L100" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="L100" s="30"/>
       <c r="M100" s="30"/>
       <c r="N100" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="O100" s="30"/>
+        <v>184</v>
+      </c>
+      <c r="O100" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="P100" s="30" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="Q100" s="30"/>
       <c r="R100" s="31" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="S100" s="31"/>
       <c r="T100" s="2"/>
@@ -12405,41 +12670,41 @@
       <c r="DD100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E101" s="32"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="33"/>
       <c r="F101" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="M101" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="G101" s="42"/>
+      <c r="H101" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
       <c r="N101" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="S101" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="O101" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="P101" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S101" s="34"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
@@ -12531,41 +12796,41 @@
       <c r="DD101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M102" s="34"/>
-      <c r="N102" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="O102" s="34"/>
-      <c r="P102" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q102" s="34"/>
-      <c r="R102" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="S102" s="35"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="45"/>
+      <c r="H102" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="O102" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P102" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="S102" s="36"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
@@ -12657,41 +12922,43 @@
       <c r="DD102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="29" t="s">
-        <v>61</v>
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="30" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="I103" s="30"/>
       <c r="J103" s="30" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
+      <c r="L103" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="M103" s="30"/>
       <c r="N103" s="30" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="O103" s="30"/>
       <c r="P103" s="30" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="Q103" s="30"/>
       <c r="R103" s="31" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="S103" s="31"/>
       <c r="T103" s="2"/>
@@ -12785,41 +13052,43 @@
       <c r="DD103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E104" s="32"/>
-      <c r="F104" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G104" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S104" s="33"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S104" s="34"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
@@ -12911,41 +13180,43 @@
       <c r="DD104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="34"/>
-      <c r="N105" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="O105" s="34"/>
-      <c r="P105" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q105" s="34"/>
-      <c r="R105" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S105" s="35"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="S105" s="36"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
@@ -13037,41 +13308,43 @@
       <c r="DD105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="23"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="29" t="s">
-        <v>80</v>
+      <c r="A106" s="22"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="I106" s="30"/>
-      <c r="J106" s="30" t="s">
-        <v>155</v>
-      </c>
+      <c r="J106" s="30"/>
       <c r="K106" s="30"/>
-      <c r="L106" s="30"/>
+      <c r="L106" s="30" t="s">
+        <v>74</v>
+      </c>
       <c r="M106" s="30"/>
       <c r="N106" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O106" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="O106" s="30" t="s">
+        <v>124</v>
+      </c>
       <c r="P106" s="30" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="Q106" s="30"/>
       <c r="R106" s="31" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="S106" s="31"/>
       <c r="T106" s="2"/>
@@ -13165,41 +13438,43 @@
       <c r="DD106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="32"/>
-      <c r="F107" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G107" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H107" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M107" s="33"/>
       <c r="N107" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S107" s="33"/>
+        <v>114</v>
+      </c>
+      <c r="O107" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="P107" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S107" s="34"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
@@ -13291,41 +13566,43 @@
       <c r="DD107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="23"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G108" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H108" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q108" s="34"/>
-      <c r="R108" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S108" s="35"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H108" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O108" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P108" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="S108" s="36"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
@@ -13417,27 +13694,41 @@
       <c r="DD108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G109" s="30"/>
       <c r="H109" s="38"/>
       <c r="I109" s="39"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="38"/>
-      <c r="S109" s="49"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="L109" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="S109" s="31"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
@@ -13529,25 +13820,39 @@
       <c r="DD109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="23"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="41"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G110" s="33"/>
       <c r="H110" s="40"/>
       <c r="I110" s="41"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="41"/>
-      <c r="N110" s="40"/>
-      <c r="O110" s="41"/>
-      <c r="P110" s="40"/>
-      <c r="Q110" s="41"/>
-      <c r="R110" s="40"/>
-      <c r="S110" s="50"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L110" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S110" s="34"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
@@ -13639,25 +13944,39 @@
       <c r="DD110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="42"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="43"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="51"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G111" s="35"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L111" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="O111" s="35"/>
+      <c r="P111" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q111" s="35"/>
+      <c r="R111" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="S111" s="36"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
@@ -13749,43 +14068,43 @@
       <c r="DD111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="29" t="s">
-        <v>97</v>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G112" s="30"/>
       <c r="H112" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I112" s="30"/>
-      <c r="J112" s="63" t="s">
-        <v>91</v>
+      <c r="J112" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="K112" s="30"/>
       <c r="L112" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M112" s="30"/>
       <c r="N112" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O112" s="30"/>
       <c r="P112" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q112" s="30"/>
-      <c r="R112" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="S112" s="44"/>
+      <c r="R112" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="S112" s="46"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
@@ -13877,41 +14196,41 @@
       <c r="DD112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="45"/>
-      <c r="F113" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G113" s="45"/>
-      <c r="H113" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I113" s="45"/>
-      <c r="J113" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K113" s="45"/>
-      <c r="L113" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M113" s="45"/>
-      <c r="N113" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="O113" s="45"/>
-      <c r="P113" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q113" s="45"/>
-      <c r="R113" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="S113" s="27"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="42"/>
+      <c r="F113" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I113" s="42"/>
+      <c r="J113" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K113" s="42"/>
+      <c r="L113" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="M113" s="42"/>
+      <c r="N113" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O113" s="42"/>
+      <c r="P113" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S113" s="26"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
@@ -14003,41 +14322,41 @@
       <c r="DD113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="23"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E114" s="46"/>
-      <c r="F114" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G114" s="46"/>
-      <c r="H114" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I114" s="46"/>
-      <c r="J114" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K114" s="46"/>
-      <c r="L114" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M114" s="46"/>
-      <c r="N114" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="O114" s="46"/>
-      <c r="P114" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q114" s="46"/>
-      <c r="R114" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S114" s="48"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="45"/>
+      <c r="F114" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G114" s="45"/>
+      <c r="H114" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I114" s="45"/>
+      <c r="J114" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K114" s="45"/>
+      <c r="L114" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="M114" s="45"/>
+      <c r="N114" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="O114" s="45"/>
+      <c r="P114" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q114" s="45"/>
+      <c r="R114" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S114" s="47"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
@@ -14129,10 +14448,10 @@
       <c r="DD114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="29" t="s">
-        <v>98</v>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D115" s="38"/>
       <c r="E115" s="39"/>
@@ -14149,7 +14468,7 @@
       <c r="P115" s="38"/>
       <c r="Q115" s="39"/>
       <c r="R115" s="38"/>
-      <c r="S115" s="49"/>
+      <c r="S115" s="48"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
@@ -14241,9 +14560,9 @@
       <c r="DD115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="23"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="29"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="40"/>
       <c r="E116" s="41"/>
       <c r="F116" s="40"/>
@@ -14259,7 +14578,7 @@
       <c r="P116" s="40"/>
       <c r="Q116" s="41"/>
       <c r="R116" s="40"/>
-      <c r="S116" s="50"/>
+      <c r="S116" s="49"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
@@ -14351,25 +14670,25 @@
       <c r="DD116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="43"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="42"/>
-      <c r="M117" s="43"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="43"/>
-      <c r="P117" s="42"/>
-      <c r="Q117" s="43"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="51"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="44"/>
+      <c r="P117" s="43"/>
+      <c r="Q117" s="44"/>
+      <c r="R117" s="43"/>
+      <c r="S117" s="50"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
@@ -14461,10 +14780,10 @@
       <c r="DD117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="23"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="29" t="s">
-        <v>99</v>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="39"/>
@@ -14481,7 +14800,7 @@
       <c r="P118" s="38"/>
       <c r="Q118" s="39"/>
       <c r="R118" s="38"/>
-      <c r="S118" s="49"/>
+      <c r="S118" s="48"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
@@ -14573,9 +14892,9 @@
       <c r="DD118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="23"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="29"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="28"/>
       <c r="D119" s="40"/>
       <c r="E119" s="41"/>
       <c r="F119" s="40"/>
@@ -14591,7 +14910,7 @@
       <c r="P119" s="40"/>
       <c r="Q119" s="41"/>
       <c r="R119" s="40"/>
-      <c r="S119" s="50"/>
+      <c r="S119" s="49"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
@@ -14683,25 +15002,25 @@
       <c r="DD119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="23"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="42"/>
-      <c r="M120" s="43"/>
-      <c r="N120" s="42"/>
-      <c r="O120" s="43"/>
-      <c r="P120" s="42"/>
-      <c r="Q120" s="43"/>
-      <c r="R120" s="42"/>
-      <c r="S120" s="51"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="44"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="44"/>
+      <c r="P120" s="43"/>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="43"/>
+      <c r="S120" s="50"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
@@ -14793,9 +15112,9 @@
       <c r="DD120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="52"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="38"/>
       <c r="E121" s="39"/>
       <c r="F121" s="38"/>
@@ -14811,7 +15130,7 @@
       <c r="P121" s="38"/>
       <c r="Q121" s="39"/>
       <c r="R121" s="38"/>
-      <c r="S121" s="49"/>
+      <c r="S121" s="48"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
@@ -14903,9 +15222,9 @@
       <c r="DD121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="52"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="54"/>
+      <c r="A122" s="51"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="53"/>
       <c r="D122" s="40"/>
       <c r="E122" s="41"/>
       <c r="F122" s="40"/>
@@ -14921,7 +15240,7 @@
       <c r="P122" s="40"/>
       <c r="Q122" s="41"/>
       <c r="R122" s="40"/>
-      <c r="S122" s="50"/>
+      <c r="S122" s="49"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
@@ -15013,25 +15332,25 @@
       <c r="DD122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="55"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="58"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="57"/>
-      <c r="K123" s="58"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="57"/>
-      <c r="O123" s="58"/>
-      <c r="P123" s="57"/>
-      <c r="Q123" s="58"/>
-      <c r="R123" s="57"/>
-      <c r="S123" s="59"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="57"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="57"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="57"/>
+      <c r="P123" s="56"/>
+      <c r="Q123" s="57"/>
+      <c r="R123" s="56"/>
+      <c r="S123" s="58"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
@@ -15123,31 +15442,31 @@
       <c r="DD123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C124" s="25" t="s">
+      <c r="A124" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="60"/>
-      <c r="M124" s="61"/>
-      <c r="N124" s="60"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="60"/>
-      <c r="Q124" s="61"/>
-      <c r="R124" s="60"/>
-      <c r="S124" s="62"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="59"/>
+      <c r="M124" s="60"/>
+      <c r="N124" s="59"/>
+      <c r="O124" s="60"/>
+      <c r="P124" s="59"/>
+      <c r="Q124" s="60"/>
+      <c r="R124" s="59"/>
+      <c r="S124" s="61"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
@@ -15239,9 +15558,9 @@
       <c r="DD124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="23"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="24"/>
       <c r="D125" s="40"/>
       <c r="E125" s="41"/>
       <c r="F125" s="40"/>
@@ -15257,7 +15576,7 @@
       <c r="P125" s="40"/>
       <c r="Q125" s="41"/>
       <c r="R125" s="40"/>
-      <c r="S125" s="50"/>
+      <c r="S125" s="49"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
@@ -15349,25 +15668,25 @@
       <c r="DD125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="23"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="42"/>
-      <c r="M126" s="43"/>
-      <c r="N126" s="42"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="42"/>
-      <c r="Q126" s="43"/>
-      <c r="R126" s="42"/>
-      <c r="S126" s="51"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="44"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="44"/>
+      <c r="N126" s="43"/>
+      <c r="O126" s="44"/>
+      <c r="P126" s="43"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="43"/>
+      <c r="S126" s="50"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
@@ -15459,43 +15778,43 @@
       <c r="DD126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="23"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="29" t="s">
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E127" s="30"/>
+        <v>125</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="F127" s="30" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="30" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="I127" s="30"/>
-      <c r="J127" s="30" t="s">
-        <v>160</v>
-      </c>
+      <c r="J127" s="30"/>
       <c r="K127" s="30"/>
       <c r="L127" s="30" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="M127" s="30"/>
       <c r="N127" s="30" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O127" s="30"/>
       <c r="P127" s="30" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="Q127" s="30"/>
-      <c r="R127" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="S127" s="31"/>
+      <c r="R127" s="30"/>
+      <c r="S127" s="46" t="s">
+        <v>125</v>
+      </c>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
@@ -15587,41 +15906,41 @@
       <c r="DD127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="23"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="29"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="28"/>
       <c r="D128" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="S128" s="33"/>
+      <c r="E128" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="O128" s="33"/>
+      <c r="P128" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="42"/>
+      <c r="S128" s="63" t="s">
+        <v>55</v>
+      </c>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
@@ -15713,41 +16032,41 @@
       <c r="DD128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="23"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34" t="s">
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E129" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I129" s="34"/>
-      <c r="J129" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="K129" s="34"/>
-      <c r="L129" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M129" s="34"/>
-      <c r="N129" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="O129" s="34"/>
-      <c r="P129" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q129" s="34"/>
-      <c r="R129" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="S129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q129" s="35"/>
+      <c r="R129" s="45"/>
+      <c r="S129" s="36" t="s">
+        <v>94</v>
+      </c>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
@@ -15839,46 +16158,50 @@
       <c r="DD129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="23"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="29" t="s">
-        <v>61</v>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E130" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F130" s="30" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="G130" s="30"/>
       <c r="H130" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I130" s="30"/>
-      <c r="J130" s="30"/>
+        <v>208</v>
+      </c>
+      <c r="I130" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J130" s="30" t="s">
+        <v>166</v>
+      </c>
       <c r="K130" s="30"/>
       <c r="L130" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M130" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N130" s="30" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="O130" s="30"/>
       <c r="P130" s="30" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="Q130" s="30"/>
       <c r="R130" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S130" s="44" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="S130" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
@@ -15971,41 +16294,49 @@
       <c r="DD130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E131" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" s="32"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131" s="33"/>
       <c r="H131" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I131" s="32"/>
-      <c r="J131" s="32"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M131" s="36"/>
-      <c r="N131" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="O131" s="32"/>
-      <c r="P131" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q131" s="32"/>
-      <c r="R131" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="S131" s="64"/>
+        <v>112</v>
+      </c>
+      <c r="I131" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J131" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K131" s="33"/>
+      <c r="L131" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="M131" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N131" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O131" s="33"/>
+      <c r="P131" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S131" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
@@ -16097,41 +16428,49 @@
       <c r="DD131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="23"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E132" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F132" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M132" s="37"/>
-      <c r="N132" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S132" s="28"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I132" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J132" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M132" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N132" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="O132" s="35"/>
+      <c r="P132" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q132" s="35"/>
+      <c r="R132" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S132" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
@@ -16223,48 +16562,48 @@
       <c r="DD132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="23"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="29" t="s">
-        <v>80</v>
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="G133" s="30"/>
       <c r="H133" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="I133" s="30"/>
+        <v>208</v>
+      </c>
+      <c r="I133" s="30" t="s">
+        <v>208</v>
+      </c>
       <c r="J133" s="30" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="30" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="M133" s="30" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="N133" s="30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O133" s="30"/>
-      <c r="P133" s="30" t="s">
-        <v>162</v>
-      </c>
+      <c r="P133" s="30"/>
       <c r="Q133" s="30"/>
       <c r="R133" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S133" s="44" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="S133" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
@@ -16357,43 +16696,47 @@
       <c r="DD133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="23"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E134" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="G134" s="32"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E134" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G134" s="33"/>
       <c r="H134" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="K134" s="32"/>
-      <c r="L134" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M134" s="36"/>
-      <c r="N134" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="O134" s="32"/>
-      <c r="P134" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q134" s="32"/>
-      <c r="R134" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="S134" s="64"/>
+        <v>112</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J134" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K134" s="33"/>
+      <c r="L134" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="M134" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N134" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="O134" s="33"/>
+      <c r="P134" s="33"/>
+      <c r="Q134" s="33"/>
+      <c r="R134" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S134" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
@@ -16485,43 +16828,47 @@
       <c r="DD134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I135" s="34"/>
-      <c r="J135" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K135" s="34"/>
-      <c r="L135" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M135" s="37"/>
-      <c r="N135" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="O135" s="34"/>
-      <c r="P135" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q135" s="34"/>
-      <c r="R135" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S135" s="28"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J135" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="M135" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="N135" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O135" s="35"/>
+      <c r="P135" s="35"/>
+      <c r="Q135" s="35"/>
+      <c r="R135" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S135" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
@@ -16613,31 +16960,39 @@
       <c r="DD135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="29" t="s">
-        <v>90</v>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D136" s="38"/>
       <c r="E136" s="39"/>
-      <c r="F136" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30" t="s">
+        <v>181</v>
+      </c>
       <c r="H136" s="30" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="I136" s="30"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="38"/>
-      <c r="M136" s="39"/>
-      <c r="N136" s="38"/>
-      <c r="O136" s="39"/>
-      <c r="P136" s="38"/>
-      <c r="Q136" s="39"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="O136" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="P136" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q136" s="30"/>
       <c r="R136" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S136" s="31"/>
       <c r="T136" s="2"/>
@@ -16731,31 +17086,39 @@
       <c r="DD136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="29"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="28"/>
       <c r="D137" s="40"/>
       <c r="E137" s="41"/>
-      <c r="F137" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="40"/>
-      <c r="M137" s="41"/>
-      <c r="N137" s="40"/>
-      <c r="O137" s="41"/>
-      <c r="P137" s="40"/>
-      <c r="Q137" s="41"/>
-      <c r="R137" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="S137" s="33"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H137" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M137" s="33"/>
+      <c r="N137" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="O137" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="P137" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q137" s="33"/>
+      <c r="R137" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S137" s="34"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
@@ -16847,31 +17210,39 @@
       <c r="DD137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="23"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G138" s="34"/>
-      <c r="H138" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I138" s="34"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="43"/>
-      <c r="L138" s="42"/>
-      <c r="M138" s="43"/>
-      <c r="N138" s="42"/>
-      <c r="O138" s="43"/>
-      <c r="P138" s="42"/>
-      <c r="Q138" s="43"/>
-      <c r="R138" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="S138" s="35"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H138" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="O138" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P138" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q138" s="35"/>
+      <c r="R138" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="S138" s="36"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
@@ -16963,10 +17334,10 @@
       <c r="DD138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="29" t="s">
-        <v>97</v>
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D139" s="38"/>
       <c r="E139" s="39"/>
@@ -16974,8 +17345,10 @@
       <c r="G139" s="39"/>
       <c r="H139" s="38"/>
       <c r="I139" s="39"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="39"/>
+      <c r="J139" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="K139" s="30"/>
       <c r="L139" s="38"/>
       <c r="M139" s="39"/>
       <c r="N139" s="38"/>
@@ -16983,7 +17356,7 @@
       <c r="P139" s="38"/>
       <c r="Q139" s="39"/>
       <c r="R139" s="38"/>
-      <c r="S139" s="49"/>
+      <c r="S139" s="48"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
@@ -17075,17 +17448,19 @@
       <c r="DD139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="23"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="29"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="40"/>
       <c r="E140" s="41"/>
       <c r="F140" s="40"/>
       <c r="G140" s="41"/>
       <c r="H140" s="40"/>
       <c r="I140" s="41"/>
-      <c r="J140" s="40"/>
-      <c r="K140" s="41"/>
+      <c r="J140" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K140" s="42"/>
       <c r="L140" s="40"/>
       <c r="M140" s="41"/>
       <c r="N140" s="40"/>
@@ -17093,7 +17468,7 @@
       <c r="P140" s="40"/>
       <c r="Q140" s="41"/>
       <c r="R140" s="40"/>
-      <c r="S140" s="50"/>
+      <c r="S140" s="49"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
@@ -17185,25 +17560,27 @@
       <c r="DD140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="23"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="42"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="42"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="43"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="43"/>
-      <c r="L141" s="42"/>
-      <c r="M141" s="43"/>
-      <c r="N141" s="42"/>
-      <c r="O141" s="43"/>
-      <c r="P141" s="42"/>
-      <c r="Q141" s="43"/>
-      <c r="R141" s="42"/>
-      <c r="S141" s="51"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K141" s="45"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="44"/>
+      <c r="N141" s="43"/>
+      <c r="O141" s="44"/>
+      <c r="P141" s="43"/>
+      <c r="Q141" s="44"/>
+      <c r="R141" s="43"/>
+      <c r="S141" s="50"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
@@ -17295,10 +17672,10 @@
       <c r="DD141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="23"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="29" t="s">
-        <v>98</v>
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="39"/>
@@ -17315,7 +17692,7 @@
       <c r="P142" s="38"/>
       <c r="Q142" s="39"/>
       <c r="R142" s="38"/>
-      <c r="S142" s="49"/>
+      <c r="S142" s="48"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
@@ -17407,9 +17784,9 @@
       <c r="DD142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="23"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="29"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="28"/>
       <c r="D143" s="40"/>
       <c r="E143" s="41"/>
       <c r="F143" s="40"/>
@@ -17425,7 +17802,7 @@
       <c r="P143" s="40"/>
       <c r="Q143" s="41"/>
       <c r="R143" s="40"/>
-      <c r="S143" s="50"/>
+      <c r="S143" s="49"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
@@ -17517,25 +17894,25 @@
       <c r="DD143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="23"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="43"/>
-      <c r="F144" s="42"/>
-      <c r="G144" s="43"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="43"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="43"/>
-      <c r="L144" s="42"/>
-      <c r="M144" s="43"/>
-      <c r="N144" s="42"/>
-      <c r="O144" s="43"/>
-      <c r="P144" s="42"/>
-      <c r="Q144" s="43"/>
-      <c r="R144" s="42"/>
-      <c r="S144" s="51"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="44"/>
+      <c r="J144" s="43"/>
+      <c r="K144" s="44"/>
+      <c r="L144" s="43"/>
+      <c r="M144" s="44"/>
+      <c r="N144" s="43"/>
+      <c r="O144" s="44"/>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="44"/>
+      <c r="R144" s="43"/>
+      <c r="S144" s="50"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
@@ -17627,10 +18004,10 @@
       <c r="DD144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="23"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="29" t="s">
-        <v>99</v>
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D145" s="38"/>
       <c r="E145" s="39"/>
@@ -17647,7 +18024,7 @@
       <c r="P145" s="38"/>
       <c r="Q145" s="39"/>
       <c r="R145" s="38"/>
-      <c r="S145" s="49"/>
+      <c r="S145" s="48"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
@@ -17739,9 +18116,9 @@
       <c r="DD145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="23"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="29"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="28"/>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
       <c r="F146" s="40"/>
@@ -17757,7 +18134,7 @@
       <c r="P146" s="40"/>
       <c r="Q146" s="41"/>
       <c r="R146" s="40"/>
-      <c r="S146" s="50"/>
+      <c r="S146" s="49"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
@@ -17849,25 +18226,25 @@
       <c r="DD146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="23"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="43"/>
-      <c r="F147" s="42"/>
-      <c r="G147" s="43"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="43"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="43"/>
-      <c r="L147" s="42"/>
-      <c r="M147" s="43"/>
-      <c r="N147" s="42"/>
-      <c r="O147" s="43"/>
-      <c r="P147" s="42"/>
-      <c r="Q147" s="43"/>
-      <c r="R147" s="42"/>
-      <c r="S147" s="51"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="44"/>
+      <c r="J147" s="43"/>
+      <c r="K147" s="44"/>
+      <c r="L147" s="43"/>
+      <c r="M147" s="44"/>
+      <c r="N147" s="43"/>
+      <c r="O147" s="44"/>
+      <c r="P147" s="43"/>
+      <c r="Q147" s="44"/>
+      <c r="R147" s="43"/>
+      <c r="S147" s="50"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
@@ -17959,9 +18336,9 @@
       <c r="DD147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="52"/>
-      <c r="B148" s="53"/>
-      <c r="C148" s="54"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="53"/>
       <c r="D148" s="38"/>
       <c r="E148" s="39"/>
       <c r="F148" s="38"/>
@@ -17977,7 +18354,7 @@
       <c r="P148" s="38"/>
       <c r="Q148" s="39"/>
       <c r="R148" s="38"/>
-      <c r="S148" s="49"/>
+      <c r="S148" s="48"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
@@ -18069,9 +18446,9 @@
       <c r="DD148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="52"/>
-      <c r="B149" s="53"/>
-      <c r="C149" s="54"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="53"/>
       <c r="D149" s="40"/>
       <c r="E149" s="41"/>
       <c r="F149" s="40"/>
@@ -18087,7 +18464,7 @@
       <c r="P149" s="40"/>
       <c r="Q149" s="41"/>
       <c r="R149" s="40"/>
-      <c r="S149" s="50"/>
+      <c r="S149" s="49"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
@@ -18179,25 +18556,25 @@
       <c r="DD149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="55"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="54"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="58"/>
-      <c r="H150" s="57"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="57"/>
-      <c r="K150" s="58"/>
-      <c r="L150" s="57"/>
-      <c r="M150" s="58"/>
-      <c r="N150" s="57"/>
-      <c r="O150" s="58"/>
-      <c r="P150" s="57"/>
-      <c r="Q150" s="58"/>
-      <c r="R150" s="57"/>
-      <c r="S150" s="59"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="57"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="57"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="57"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="57"/>
+      <c r="R150" s="56"/>
+      <c r="S150" s="58"/>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
@@ -18289,31 +18666,31 @@
       <c r="DD150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151" s="25" t="s">
+      <c r="A151" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D151" s="60"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="60"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="60"/>
-      <c r="K151" s="61"/>
-      <c r="L151" s="60"/>
-      <c r="M151" s="61"/>
-      <c r="N151" s="60"/>
-      <c r="O151" s="61"/>
-      <c r="P151" s="60"/>
-      <c r="Q151" s="61"/>
-      <c r="R151" s="60"/>
-      <c r="S151" s="62"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="60"/>
+      <c r="L151" s="59"/>
+      <c r="M151" s="60"/>
+      <c r="N151" s="59"/>
+      <c r="O151" s="60"/>
+      <c r="P151" s="59"/>
+      <c r="Q151" s="60"/>
+      <c r="R151" s="59"/>
+      <c r="S151" s="61"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
@@ -18405,9 +18782,9 @@
       <c r="DD151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="23"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="25"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="24"/>
       <c r="D152" s="40"/>
       <c r="E152" s="41"/>
       <c r="F152" s="40"/>
@@ -18423,7 +18800,7 @@
       <c r="P152" s="40"/>
       <c r="Q152" s="41"/>
       <c r="R152" s="40"/>
-      <c r="S152" s="50"/>
+      <c r="S152" s="49"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
@@ -18515,25 +18892,25 @@
       <c r="DD152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="23"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="42"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="42"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="42"/>
-      <c r="K153" s="43"/>
-      <c r="L153" s="42"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="42"/>
-      <c r="O153" s="43"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="43"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="51"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="44"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="44"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="44"/>
+      <c r="N153" s="43"/>
+      <c r="O153" s="44"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="44"/>
+      <c r="R153" s="43"/>
+      <c r="S153" s="50"/>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
@@ -18625,9 +19002,9 @@
       <c r="DD153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="23"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="29" t="s">
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D154" s="38"/>
@@ -18645,7 +19022,7 @@
       <c r="P154" s="38"/>
       <c r="Q154" s="39"/>
       <c r="R154" s="38"/>
-      <c r="S154" s="49"/>
+      <c r="S154" s="48"/>
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
@@ -18737,9 +19114,9 @@
       <c r="DD154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="23"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="29"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="28"/>
       <c r="D155" s="40"/>
       <c r="E155" s="41"/>
       <c r="F155" s="40"/>
@@ -18755,7 +19132,7 @@
       <c r="P155" s="40"/>
       <c r="Q155" s="41"/>
       <c r="R155" s="40"/>
-      <c r="S155" s="50"/>
+      <c r="S155" s="49"/>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
@@ -18847,25 +19224,25 @@
       <c r="DD155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="23"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="42"/>
-      <c r="G156" s="43"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="43"/>
-      <c r="L156" s="42"/>
-      <c r="M156" s="43"/>
-      <c r="N156" s="42"/>
-      <c r="O156" s="43"/>
-      <c r="P156" s="42"/>
-      <c r="Q156" s="43"/>
-      <c r="R156" s="42"/>
-      <c r="S156" s="51"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="43"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="43"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="43"/>
+      <c r="K156" s="44"/>
+      <c r="L156" s="43"/>
+      <c r="M156" s="44"/>
+      <c r="N156" s="43"/>
+      <c r="O156" s="44"/>
+      <c r="P156" s="43"/>
+      <c r="Q156" s="44"/>
+      <c r="R156" s="43"/>
+      <c r="S156" s="50"/>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
@@ -18957,10 +19334,10 @@
       <c r="DD156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="23"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="29" t="s">
-        <v>61</v>
+      <c r="A157" s="22"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D157" s="38"/>
       <c r="E157" s="39"/>
@@ -18977,7 +19354,7 @@
       <c r="P157" s="38"/>
       <c r="Q157" s="39"/>
       <c r="R157" s="38"/>
-      <c r="S157" s="49"/>
+      <c r="S157" s="48"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
@@ -19069,9 +19446,9 @@
       <c r="DD157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="23"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="29"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="28"/>
       <c r="D158" s="40"/>
       <c r="E158" s="41"/>
       <c r="F158" s="40"/>
@@ -19087,7 +19464,7 @@
       <c r="P158" s="40"/>
       <c r="Q158" s="41"/>
       <c r="R158" s="40"/>
-      <c r="S158" s="50"/>
+      <c r="S158" s="49"/>
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
@@ -19179,25 +19556,25 @@
       <c r="DD158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="23"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="42"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="42"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="43"/>
-      <c r="L159" s="42"/>
-      <c r="M159" s="43"/>
-      <c r="N159" s="42"/>
-      <c r="O159" s="43"/>
-      <c r="P159" s="42"/>
-      <c r="Q159" s="43"/>
-      <c r="R159" s="42"/>
-      <c r="S159" s="51"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="43"/>
+      <c r="K159" s="44"/>
+      <c r="L159" s="43"/>
+      <c r="M159" s="44"/>
+      <c r="N159" s="43"/>
+      <c r="O159" s="44"/>
+      <c r="P159" s="43"/>
+      <c r="Q159" s="44"/>
+      <c r="R159" s="43"/>
+      <c r="S159" s="50"/>
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
@@ -19289,10 +19666,10 @@
       <c r="DD159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="23"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="29" t="s">
-        <v>80</v>
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D160" s="38"/>
       <c r="E160" s="39"/>
@@ -19309,7 +19686,7 @@
       <c r="P160" s="38"/>
       <c r="Q160" s="39"/>
       <c r="R160" s="38"/>
-      <c r="S160" s="49"/>
+      <c r="S160" s="48"/>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
@@ -19401,9 +19778,9 @@
       <c r="DD160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="23"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="29"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="28"/>
       <c r="D161" s="40"/>
       <c r="E161" s="41"/>
       <c r="F161" s="40"/>
@@ -19419,7 +19796,7 @@
       <c r="P161" s="40"/>
       <c r="Q161" s="41"/>
       <c r="R161" s="40"/>
-      <c r="S161" s="50"/>
+      <c r="S161" s="49"/>
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
@@ -19511,25 +19888,25 @@
       <c r="DD161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="23"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="42"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="42"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="42"/>
-      <c r="M162" s="43"/>
-      <c r="N162" s="42"/>
-      <c r="O162" s="43"/>
-      <c r="P162" s="42"/>
-      <c r="Q162" s="43"/>
-      <c r="R162" s="42"/>
-      <c r="S162" s="51"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="43"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="43"/>
+      <c r="M162" s="44"/>
+      <c r="N162" s="43"/>
+      <c r="O162" s="44"/>
+      <c r="P162" s="43"/>
+      <c r="Q162" s="44"/>
+      <c r="R162" s="43"/>
+      <c r="S162" s="50"/>
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
@@ -19621,10 +19998,10 @@
       <c r="DD162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="23"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="29" t="s">
-        <v>90</v>
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D163" s="38"/>
       <c r="E163" s="39"/>
@@ -19641,7 +20018,7 @@
       <c r="P163" s="38"/>
       <c r="Q163" s="39"/>
       <c r="R163" s="38"/>
-      <c r="S163" s="49"/>
+      <c r="S163" s="48"/>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
@@ -19733,9 +20110,9 @@
       <c r="DD163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="23"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="28"/>
       <c r="D164" s="40"/>
       <c r="E164" s="41"/>
       <c r="F164" s="40"/>
@@ -19751,7 +20128,7 @@
       <c r="P164" s="40"/>
       <c r="Q164" s="41"/>
       <c r="R164" s="40"/>
-      <c r="S164" s="50"/>
+      <c r="S164" s="49"/>
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
@@ -19843,25 +20220,25 @@
       <c r="DD164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="23"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="42"/>
-      <c r="E165" s="43"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="43"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="43"/>
-      <c r="J165" s="42"/>
-      <c r="K165" s="43"/>
-      <c r="L165" s="42"/>
-      <c r="M165" s="43"/>
-      <c r="N165" s="42"/>
-      <c r="O165" s="43"/>
-      <c r="P165" s="42"/>
-      <c r="Q165" s="43"/>
-      <c r="R165" s="42"/>
-      <c r="S165" s="51"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="44"/>
+      <c r="J165" s="43"/>
+      <c r="K165" s="44"/>
+      <c r="L165" s="43"/>
+      <c r="M165" s="44"/>
+      <c r="N165" s="43"/>
+      <c r="O165" s="44"/>
+      <c r="P165" s="43"/>
+      <c r="Q165" s="44"/>
+      <c r="R165" s="43"/>
+      <c r="S165" s="50"/>
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
@@ -19953,10 +20330,10 @@
       <c r="DD165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="23"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="29" t="s">
-        <v>97</v>
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D166" s="38"/>
       <c r="E166" s="39"/>
@@ -19973,7 +20350,7 @@
       <c r="P166" s="38"/>
       <c r="Q166" s="39"/>
       <c r="R166" s="38"/>
-      <c r="S166" s="49"/>
+      <c r="S166" s="48"/>
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
@@ -20065,9 +20442,9 @@
       <c r="DD166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="23"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="29"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="28"/>
       <c r="D167" s="40"/>
       <c r="E167" s="41"/>
       <c r="F167" s="40"/>
@@ -20083,7 +20460,7 @@
       <c r="P167" s="40"/>
       <c r="Q167" s="41"/>
       <c r="R167" s="40"/>
-      <c r="S167" s="50"/>
+      <c r="S167" s="49"/>
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
@@ -20175,25 +20552,25 @@
       <c r="DD167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="23"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="42"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="43"/>
-      <c r="H168" s="42"/>
-      <c r="I168" s="43"/>
-      <c r="J168" s="42"/>
-      <c r="K168" s="43"/>
-      <c r="L168" s="42"/>
-      <c r="M168" s="43"/>
-      <c r="N168" s="42"/>
-      <c r="O168" s="43"/>
-      <c r="P168" s="42"/>
-      <c r="Q168" s="43"/>
-      <c r="R168" s="42"/>
-      <c r="S168" s="51"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="44"/>
+      <c r="J168" s="43"/>
+      <c r="K168" s="44"/>
+      <c r="L168" s="43"/>
+      <c r="M168" s="44"/>
+      <c r="N168" s="43"/>
+      <c r="O168" s="44"/>
+      <c r="P168" s="43"/>
+      <c r="Q168" s="44"/>
+      <c r="R168" s="43"/>
+      <c r="S168" s="50"/>
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
@@ -20285,10 +20662,10 @@
       <c r="DD168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="23"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="29" t="s">
-        <v>98</v>
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="D169" s="38"/>
       <c r="E169" s="39"/>
@@ -20305,7 +20682,7 @@
       <c r="P169" s="38"/>
       <c r="Q169" s="39"/>
       <c r="R169" s="38"/>
-      <c r="S169" s="49"/>
+      <c r="S169" s="48"/>
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
@@ -20397,9 +20774,9 @@
       <c r="DD169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="23"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="29"/>
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="28"/>
       <c r="D170" s="40"/>
       <c r="E170" s="41"/>
       <c r="F170" s="40"/>
@@ -20415,7 +20792,7 @@
       <c r="P170" s="40"/>
       <c r="Q170" s="41"/>
       <c r="R170" s="40"/>
-      <c r="S170" s="50"/>
+      <c r="S170" s="49"/>
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
@@ -20507,25 +20884,25 @@
       <c r="DD170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="23"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="43"/>
-      <c r="H171" s="42"/>
-      <c r="I171" s="43"/>
-      <c r="J171" s="42"/>
-      <c r="K171" s="43"/>
-      <c r="L171" s="42"/>
-      <c r="M171" s="43"/>
-      <c r="N171" s="42"/>
-      <c r="O171" s="43"/>
-      <c r="P171" s="42"/>
-      <c r="Q171" s="43"/>
-      <c r="R171" s="42"/>
-      <c r="S171" s="51"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="44"/>
+      <c r="J171" s="43"/>
+      <c r="K171" s="44"/>
+      <c r="L171" s="43"/>
+      <c r="M171" s="44"/>
+      <c r="N171" s="43"/>
+      <c r="O171" s="44"/>
+      <c r="P171" s="43"/>
+      <c r="Q171" s="44"/>
+      <c r="R171" s="43"/>
+      <c r="S171" s="50"/>
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
@@ -20617,10 +20994,10 @@
       <c r="DD171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="23"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="29" t="s">
-        <v>99</v>
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D172" s="38"/>
       <c r="E172" s="39"/>
@@ -20637,7 +21014,7 @@
       <c r="P172" s="38"/>
       <c r="Q172" s="39"/>
       <c r="R172" s="38"/>
-      <c r="S172" s="49"/>
+      <c r="S172" s="48"/>
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
@@ -20729,9 +21106,9 @@
       <c r="DD172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="23"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="29"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="28"/>
       <c r="D173" s="40"/>
       <c r="E173" s="41"/>
       <c r="F173" s="40"/>
@@ -20747,7 +21124,7 @@
       <c r="P173" s="40"/>
       <c r="Q173" s="41"/>
       <c r="R173" s="40"/>
-      <c r="S173" s="50"/>
+      <c r="S173" s="49"/>
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
@@ -20839,25 +21216,25 @@
       <c r="DD173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="23"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="42"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="42"/>
-      <c r="G174" s="43"/>
-      <c r="H174" s="42"/>
-      <c r="I174" s="43"/>
-      <c r="J174" s="42"/>
-      <c r="K174" s="43"/>
-      <c r="L174" s="42"/>
-      <c r="M174" s="43"/>
-      <c r="N174" s="42"/>
-      <c r="O174" s="43"/>
-      <c r="P174" s="42"/>
-      <c r="Q174" s="43"/>
-      <c r="R174" s="42"/>
-      <c r="S174" s="51"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="44"/>
+      <c r="J174" s="43"/>
+      <c r="K174" s="44"/>
+      <c r="L174" s="43"/>
+      <c r="M174" s="44"/>
+      <c r="N174" s="43"/>
+      <c r="O174" s="44"/>
+      <c r="P174" s="43"/>
+      <c r="Q174" s="44"/>
+      <c r="R174" s="43"/>
+      <c r="S174" s="50"/>
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
@@ -20949,9 +21326,9 @@
       <c r="DD174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="52"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="54"/>
+      <c r="A175" s="51"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="53"/>
       <c r="D175" s="38"/>
       <c r="E175" s="39"/>
       <c r="F175" s="38"/>
@@ -20967,7 +21344,7 @@
       <c r="P175" s="38"/>
       <c r="Q175" s="39"/>
       <c r="R175" s="38"/>
-      <c r="S175" s="49"/>
+      <c r="S175" s="48"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
@@ -21059,62 +21436,62 @@
       <c r="DD175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="0.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="52"/>
-      <c r="B176" s="53"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="66"/>
-      <c r="F176" s="65"/>
-      <c r="G176" s="66"/>
-      <c r="H176" s="65"/>
-      <c r="I176" s="66"/>
-      <c r="J176" s="65"/>
-      <c r="K176" s="66"/>
-      <c r="L176" s="65"/>
-      <c r="M176" s="66"/>
-      <c r="N176" s="65"/>
-      <c r="O176" s="66"/>
-      <c r="P176" s="65"/>
-      <c r="Q176" s="66"/>
-      <c r="R176" s="65"/>
-      <c r="S176" s="53"/>
+      <c r="A176" s="51"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="65"/>
+      <c r="F176" s="64"/>
+      <c r="G176" s="65"/>
+      <c r="H176" s="64"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="64"/>
+      <c r="K176" s="65"/>
+      <c r="L176" s="64"/>
+      <c r="M176" s="65"/>
+      <c r="N176" s="64"/>
+      <c r="O176" s="65"/>
+      <c r="P176" s="64"/>
+      <c r="Q176" s="65"/>
+      <c r="R176" s="64"/>
+      <c r="S176" s="52"/>
     </row>
     <row r="177" customFormat="false" ht="2.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="55"/>
-      <c r="B177" s="56"/>
-      <c r="C177" s="54"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="67"/>
-      <c r="I177" s="68"/>
-      <c r="J177" s="67"/>
-      <c r="K177" s="68"/>
-      <c r="L177" s="67"/>
-      <c r="M177" s="68"/>
-      <c r="N177" s="67"/>
-      <c r="O177" s="68"/>
-      <c r="P177" s="67"/>
-      <c r="Q177" s="68"/>
-      <c r="R177" s="67"/>
-      <c r="S177" s="56"/>
+      <c r="A177" s="54"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="67"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="66"/>
+      <c r="K177" s="67"/>
+      <c r="L177" s="66"/>
+      <c r="M177" s="67"/>
+      <c r="N177" s="66"/>
+      <c r="O177" s="67"/>
+      <c r="P177" s="66"/>
+      <c r="Q177" s="67"/>
+      <c r="R177" s="66"/>
+      <c r="S177" s="55"/>
     </row>
     <row r="178" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="179" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="180" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
-      <c r="E180" s="69"/>
-      <c r="F180" s="69"/>
-      <c r="G180" s="69"/>
-      <c r="H180" s="69"/>
-      <c r="I180" s="69"/>
-      <c r="J180" s="69"/>
+      <c r="A180" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B180" s="68"/>
+      <c r="C180" s="68"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="68"/>
+      <c r="F180" s="68"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="68"/>
+      <c r="I180" s="68"/>
+      <c r="J180" s="68"/>
     </row>
     <row r="181" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -21265,7 +21642,7 @@
     <row r="327" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="328" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="401">
+  <mergeCells count="395">
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -21307,24 +21684,21 @@
     <mergeCell ref="D17:S17"/>
     <mergeCell ref="D18:S18"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="R19:S19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:M21"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
@@ -21349,24 +21723,15 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C39"/>
@@ -21375,134 +21740,137 @@
     <mergeCell ref="B43:B66"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
     <mergeCell ref="R46:S46"/>
-    <mergeCell ref="D47:E47"/>
     <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
     <mergeCell ref="R47:S47"/>
-    <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="H48:I48"/>
     <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
     <mergeCell ref="R48:S48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H49:K49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="R49:S49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="H50:K50"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="R50:S50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="H51:K51"/>
     <mergeCell ref="P51:Q51"/>
     <mergeCell ref="R51:S51"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
     <mergeCell ref="C55:C57"/>
+    <mergeCell ref="F55:G55"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="F56:G56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
     <mergeCell ref="C58:C60"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="A70:A93"/>
     <mergeCell ref="B70:B93"/>
     <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="P72:Q72"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="P73:S73"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="P74:S74"/>
     <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="P75:S75"/>
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="R76:S76"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="R78:S78"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="R79:S79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="R80:S80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="R81:S81"/>
     <mergeCell ref="C82:C84"/>
@@ -21510,6 +21878,12 @@
     <mergeCell ref="D83:S83"/>
     <mergeCell ref="D84:S84"/>
     <mergeCell ref="C85:C87"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:M87"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="C94:C96"/>
@@ -21518,68 +21892,77 @@
     <mergeCell ref="C97:C99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="J100:M100"/>
     <mergeCell ref="P100:Q100"/>
     <mergeCell ref="R100:S100"/>
     <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
     <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="J101:M101"/>
     <mergeCell ref="P101:Q101"/>
     <mergeCell ref="R101:S101"/>
     <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
     <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="J102:M102"/>
     <mergeCell ref="P102:Q102"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
     <mergeCell ref="P103:Q103"/>
     <mergeCell ref="R103:S103"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
     <mergeCell ref="P104:Q104"/>
     <mergeCell ref="R104:S104"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:M105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
     <mergeCell ref="P105:Q105"/>
     <mergeCell ref="R105:S105"/>
     <mergeCell ref="C106:C108"/>
     <mergeCell ref="D106:E106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
     <mergeCell ref="P106:Q106"/>
     <mergeCell ref="R106:S106"/>
     <mergeCell ref="D107:E107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
     <mergeCell ref="P107:Q107"/>
     <mergeCell ref="R107:S107"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
     <mergeCell ref="P108:Q108"/>
     <mergeCell ref="R108:S108"/>
     <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="R109:S109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="R111:S111"/>
     <mergeCell ref="C112:C114"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="C118:C120"/>
@@ -21588,68 +21971,56 @@
     <mergeCell ref="B124:B147"/>
     <mergeCell ref="C124:C126"/>
     <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:E127"/>
     <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
     <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="R127:S127"/>
-    <mergeCell ref="D128:E128"/>
     <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
     <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="D129:E129"/>
     <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
     <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="R129:S129"/>
     <mergeCell ref="C130:C132"/>
     <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="J130:K130"/>
     <mergeCell ref="N130:O130"/>
     <mergeCell ref="P130:Q130"/>
     <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="J131:K131"/>
     <mergeCell ref="N131:O131"/>
     <mergeCell ref="P131:Q131"/>
     <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="J132:K132"/>
     <mergeCell ref="N132:O132"/>
     <mergeCell ref="P132:Q132"/>
     <mergeCell ref="C133:C135"/>
     <mergeCell ref="F133:G133"/>
-    <mergeCell ref="H133:I133"/>
     <mergeCell ref="J133:K133"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="N133:Q133"/>
     <mergeCell ref="F134:G134"/>
-    <mergeCell ref="H134:I134"/>
     <mergeCell ref="J134:K134"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="N134:Q134"/>
     <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
     <mergeCell ref="J135:K135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="N135:Q135"/>
     <mergeCell ref="C136:C138"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="P136:Q136"/>
     <mergeCell ref="R136:S136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="P137:Q137"/>
     <mergeCell ref="R137:S137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="P138:Q138"/>
     <mergeCell ref="R138:S138"/>
     <mergeCell ref="C139:C141"/>
     <mergeCell ref="C142:C144"/>
